--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="318">
   <si>
     <t>文件编号：</t>
   </si>
@@ -1106,6 +1106,30 @@
   </si>
   <si>
     <t>下压气缸-RST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1686,45 +1710,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,13 +1720,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1753,24 +1732,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -2244,6 +2268,372 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="971550"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="6696075"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="923925"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="895350"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="6715125"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441146" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="7286625"/>
+          <a:ext cx="441146" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2579,12 +2969,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2598,10 +2988,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="7" t="s">
         <v>175</v>
       </c>
@@ -2615,20 +3005,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="11" t="s">
         <v>142</v>
       </c>
@@ -2640,18 +3030,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="48"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -2661,10 +3051,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -2690,14 +3080,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -2713,17 +3103,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -2753,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -2781,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -2809,7 +3199,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -2837,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -2864,7 +3254,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -2891,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -2918,7 +3308,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -2943,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -2968,7 +3358,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -2995,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -3022,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="27" t="s">
         <v>167</v>
       </c>
@@ -3050,7 +3440,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="52"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="36" t="s">
         <v>171</v>
       </c>
@@ -3077,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -3106,7 +3496,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -3135,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -3160,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="52"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -3185,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="54"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -3210,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3239,7 +3629,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="55"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -3266,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="55"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="41" t="s">
         <v>145</v>
       </c>
@@ -3293,7 +3683,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="55"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -3320,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="55"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="41" t="s">
         <v>279</v>
       </c>
@@ -3345,7 +3735,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="55"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="41" t="s">
         <v>280</v>
       </c>
@@ -3370,7 +3760,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="55"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3397,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="55"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -3424,7 +3814,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -3453,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="57"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -3480,7 +3870,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="57"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="35" t="s">
         <v>159</v>
       </c>
@@ -3507,7 +3897,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="62" t="s">
         <v>174</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -3534,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="55"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -3561,7 +3951,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="55"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -3588,7 +3978,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -3611,7 +4001,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -3634,7 +4024,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -3659,7 +4049,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="55"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -3686,7 +4076,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="55"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -3713,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="55"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -3740,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="55"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -3767,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -3794,7 +4184,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="55"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -3819,7 +4209,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="55"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="35" t="s">
         <v>152</v>
       </c>
@@ -3844,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="55"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="35" t="s">
         <v>153</v>
       </c>
@@ -3871,7 +4261,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="55"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="35" t="s">
         <v>274</v>
       </c>
@@ -3898,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="55"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="35" t="s">
         <v>107</v>
       </c>
@@ -3925,7 +4315,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="55"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="35" t="s">
         <v>110</v>
       </c>
@@ -3952,7 +4342,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="60" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -3981,7 +4371,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="57"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="35" t="s">
         <v>113</v>
       </c>
@@ -4008,7 +4398,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="57"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="35" t="s">
         <v>117</v>
       </c>
@@ -4035,7 +4425,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="57"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="35" t="s">
         <v>119</v>
       </c>
@@ -4062,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="55"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="35" t="s">
         <v>122</v>
       </c>
@@ -4087,7 +4477,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="55"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="35" t="s">
         <v>123</v>
       </c>
@@ -4112,7 +4502,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="55"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="35" t="s">
         <v>149</v>
       </c>
@@ -4135,7 +4525,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="55"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="35" t="s">
         <v>124</v>
       </c>
@@ -4158,7 +4548,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="55"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="35" t="s">
         <v>125</v>
       </c>
@@ -4179,7 +4569,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="55"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="35" t="s">
         <v>127</v>
       </c>
@@ -4200,7 +4590,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="55"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="35" t="s">
         <v>128</v>
       </c>
@@ -4221,7 +4611,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="55"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="35" t="s">
         <v>129</v>
       </c>
@@ -4242,7 +4632,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="55"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="35" t="s">
         <v>130</v>
       </c>
@@ -4263,7 +4653,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="55"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="35" t="s">
         <v>131</v>
       </c>
@@ -4284,7 +4674,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="55"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="35" t="s">
         <v>132</v>
       </c>
@@ -4305,7 +4695,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="55"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="35" t="s">
         <v>133</v>
       </c>
@@ -4326,7 +4716,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="55"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="35" t="s">
         <v>134</v>
       </c>
@@ -4347,7 +4737,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="55"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="35" t="s">
         <v>135</v>
       </c>
@@ -4368,7 +4758,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="55"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="35" t="s">
         <v>136</v>
       </c>
@@ -4389,7 +4779,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="55"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="35" t="s">
         <v>137</v>
       </c>
@@ -4410,7 +4800,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="55"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="35" t="s">
         <v>138</v>
       </c>
@@ -4431,7 +4821,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="55"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="35" t="s">
         <v>139</v>
       </c>
@@ -4452,7 +4842,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="55"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="35" t="s">
         <v>140</v>
       </c>
@@ -4473,7 +4863,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="55"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="35" t="s">
         <v>141</v>
       </c>
@@ -4498,16 +4888,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -4515,6 +4895,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C77"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -4538,7 +4928,7 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -4548,7 +4938,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="59" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="7.125" customWidth="1"/>
@@ -4558,1315 +4948,1315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="22.5">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="61">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="77" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="61">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="63"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="61">
+      <c r="A6" s="48">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="61">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="61">
+      <c r="A8" s="48">
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="61">
+      <c r="A9" s="48">
         <v>6</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="61">
+      <c r="A10" s="48">
         <v>7</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="63"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="61">
+      <c r="A11" s="48">
         <v>8</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="63"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="61">
+      <c r="A12" s="48">
         <v>9</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="K12" s="63"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="61">
+      <c r="A13" s="48">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="61">
+      <c r="A14" s="48">
         <v>11</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="61">
+      <c r="A15" s="48">
         <v>12</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="47" t="s">
         <v>303</v>
       </c>
       <c r="E15" s="74"/>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="61">
+      <c r="A16" s="48">
         <v>13</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="63"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="61">
+      <c r="A17" s="48">
         <v>14</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="47" t="s">
         <v>310</v>
       </c>
       <c r="E17" s="74"/>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="63"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="61">
+      <c r="A18" s="48">
         <v>15</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="63"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="61">
+      <c r="A19" s="48">
         <v>16</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="60" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="63"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="61">
+      <c r="A20" s="48">
         <v>17</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="65" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="L20" s="66"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="61">
+      <c r="A21" s="48">
         <v>18</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="66"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="61">
+      <c r="A22" s="48">
         <v>19</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="61">
+      <c r="A23" s="48">
         <v>20</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="61">
+      <c r="A24" s="48">
         <v>21</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="61">
+      <c r="A25" s="48">
         <v>22</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="61">
+      <c r="A26" s="48">
         <v>23</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="61">
+      <c r="A27" s="48">
         <v>24</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="61">
+      <c r="A28" s="48">
         <v>25</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="61">
+      <c r="A29" s="48">
         <v>26</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="61">
+      <c r="A30" s="48">
         <v>27</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="61">
+      <c r="A31" s="48">
         <v>28</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="61">
+      <c r="A32" s="48">
         <v>29</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="61">
+      <c r="A33" s="48">
         <v>30</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="61">
+      <c r="A34" s="48">
         <v>31</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="61">
+      <c r="A35" s="48">
         <v>32</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="66"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="61">
+      <c r="A36" s="48">
         <v>81</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="64" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="60" t="s">
+      <c r="H36" s="50"/>
+      <c r="I36" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="61">
+      <c r="A37" s="48">
         <v>82</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="64" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="60" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="K37" s="65"/>
+      <c r="K37" s="75"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="61">
+      <c r="A38" s="48">
         <v>83</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="64" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="60" t="s">
+      <c r="H38" s="50"/>
+      <c r="I38" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="J38" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="K38" s="65"/>
+      <c r="K38" s="75"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="61">
+      <c r="A39" s="48">
         <v>84</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="64" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="60" t="s">
+      <c r="H39" s="50"/>
+      <c r="I39" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="K39" s="65"/>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="61">
+      <c r="A40" s="48">
         <v>85</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="64" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="60" t="s">
+      <c r="H40" s="50"/>
+      <c r="I40" s="47" t="s">
         <v>306</v>
       </c>
       <c r="J40" s="73"/>
-      <c r="K40" s="65"/>
+      <c r="K40" s="75"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="61">
+      <c r="A41" s="48">
         <v>86</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="64" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="G41" s="64" t="s">
+      <c r="G41" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="72" t="s">
+      <c r="H41" s="50"/>
+      <c r="I41" s="56" t="s">
         <v>308</v>
       </c>
       <c r="J41" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="K41" s="65"/>
+      <c r="K41" s="75"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="61">
+      <c r="A42" s="48">
         <v>87</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="64" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="60" t="s">
+      <c r="H42" s="50"/>
+      <c r="I42" s="47" t="s">
         <v>216</v>
       </c>
       <c r="J42" s="73"/>
-      <c r="K42" s="65"/>
+      <c r="K42" s="75"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="61">
+      <c r="A43" s="48">
         <v>88</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="64" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="60" t="s">
+      <c r="H43" s="50"/>
+      <c r="I43" s="47" t="s">
         <v>309</v>
       </c>
       <c r="J43" s="74"/>
-      <c r="K43" s="65"/>
+      <c r="K43" s="75"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="61">
+      <c r="A44" s="48">
         <v>89</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="64" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="G44" s="64" t="s">
+      <c r="G44" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="65"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="75"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="61">
+      <c r="A45" s="48">
         <v>90</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="64" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="65"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="75"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="61">
+      <c r="A46" s="48">
         <v>91</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="64" t="s">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="64" t="s">
+      <c r="G46" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="64"/>
-      <c r="I46" s="60" t="s">
+      <c r="H46" s="50"/>
+      <c r="I46" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="K46" s="65"/>
+      <c r="K46" s="75"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="61">
+      <c r="A47" s="48">
         <v>92</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="64" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="G47" s="64" t="s">
+      <c r="G47" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="60" t="s">
+      <c r="H47" s="50"/>
+      <c r="I47" s="47" t="s">
         <v>261</v>
       </c>
       <c r="J47" s="74"/>
-      <c r="K47" s="65"/>
+      <c r="K47" s="75"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="61">
+      <c r="A48" s="48">
         <v>93</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="64" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="60" t="s">
+      <c r="H48" s="50"/>
+      <c r="I48" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="K48" s="65"/>
+      <c r="K48" s="75"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="61">
+      <c r="A49" s="48">
         <v>94</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="64" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="60" t="s">
+      <c r="H49" s="50"/>
+      <c r="I49" s="47" t="s">
         <v>263</v>
       </c>
       <c r="J49" s="74"/>
-      <c r="K49" s="65"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="61">
+      <c r="A50" s="48">
         <v>95</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="64" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G50" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="64"/>
-      <c r="I50" s="60" t="s">
+      <c r="H50" s="50"/>
+      <c r="I50" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="K50" s="65"/>
+      <c r="K50" s="75"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="61">
+      <c r="A51" s="48">
         <v>96</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="64" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="G51" s="64" t="s">
+      <c r="G51" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="H51" s="64"/>
-      <c r="I51" s="60" t="s">
+      <c r="H51" s="50"/>
+      <c r="I51" s="47" t="s">
         <v>265</v>
       </c>
       <c r="J51" s="74"/>
-      <c r="K51" s="65"/>
+      <c r="K51" s="75"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="69"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="70"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="69"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="70"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="69"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="70"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="55"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="69"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="70"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="55"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="69"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="70"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="55"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="69"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="70"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="55"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="69"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="70"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="55"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="69"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="70"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="K36:K51"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="K4:K19"/>
     <mergeCell ref="K20:K35"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5876,14 +6266,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:17">
+      <c r="P1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="16:17">
+      <c r="P2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="16:17">
+      <c r="P3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="16:17">
+      <c r="P4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="16:17">
+      <c r="P5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="16:17">
+      <c r="P6" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
     <sheet name="IO表" sheetId="5" r:id="rId2"/>
     <sheet name="装配指导" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="编程规划" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="528">
   <si>
     <t>文件编号：</t>
   </si>
@@ -1130,6 +1130,646 @@
   </si>
   <si>
     <t>旋转</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5001</t>
+  </si>
+  <si>
+    <t>M5002</t>
+  </si>
+  <si>
+    <t>M5003</t>
+  </si>
+  <si>
+    <t>M5004</t>
+  </si>
+  <si>
+    <t>M5005</t>
+  </si>
+  <si>
+    <t>M5006</t>
+  </si>
+  <si>
+    <t>M5007</t>
+  </si>
+  <si>
+    <t>M5008</t>
+  </si>
+  <si>
+    <t>M5009</t>
+  </si>
+  <si>
+    <t>M5010</t>
+  </si>
+  <si>
+    <t>M5011</t>
+  </si>
+  <si>
+    <t>M5012</t>
+  </si>
+  <si>
+    <t>M5013</t>
+  </si>
+  <si>
+    <t>M5014</t>
+  </si>
+  <si>
+    <t>M5015</t>
+  </si>
+  <si>
+    <t>M5016</t>
+  </si>
+  <si>
+    <t>M5017</t>
+  </si>
+  <si>
+    <t>M5018</t>
+  </si>
+  <si>
+    <t>M5019</t>
+  </si>
+  <si>
+    <t>M5020</t>
+  </si>
+  <si>
+    <t>M5021</t>
+  </si>
+  <si>
+    <t>M5022</t>
+  </si>
+  <si>
+    <t>M5023</t>
+  </si>
+  <si>
+    <t>M5024</t>
+  </si>
+  <si>
+    <t>M5025</t>
+  </si>
+  <si>
+    <t>M5026</t>
+  </si>
+  <si>
+    <t>M5027</t>
+  </si>
+  <si>
+    <t>M5028</t>
+  </si>
+  <si>
+    <t>M5029</t>
+  </si>
+  <si>
+    <t>M5030</t>
+  </si>
+  <si>
+    <t>M5031</t>
+  </si>
+  <si>
+    <t>M5032</t>
+  </si>
+  <si>
+    <t>M5033</t>
+  </si>
+  <si>
+    <t>M5034</t>
+  </si>
+  <si>
+    <t>M5035</t>
+  </si>
+  <si>
+    <t>M5036</t>
+  </si>
+  <si>
+    <t>M5037</t>
+  </si>
+  <si>
+    <t>M5038</t>
+  </si>
+  <si>
+    <t>M5039</t>
+  </si>
+  <si>
+    <t>M5040</t>
+  </si>
+  <si>
+    <t>M5041</t>
+  </si>
+  <si>
+    <t>M5042</t>
+  </si>
+  <si>
+    <t>M5043</t>
+  </si>
+  <si>
+    <t>M5044</t>
+  </si>
+  <si>
+    <t>M5045</t>
+  </si>
+  <si>
+    <t>M5046</t>
+  </si>
+  <si>
+    <t>M5047</t>
+  </si>
+  <si>
+    <t>M5048</t>
+  </si>
+  <si>
+    <t>M5049</t>
+  </si>
+  <si>
+    <t>M5050</t>
+  </si>
+  <si>
+    <t>M5051</t>
+  </si>
+  <si>
+    <t>M5052</t>
+  </si>
+  <si>
+    <t>M5053</t>
+  </si>
+  <si>
+    <t>M5054</t>
+  </si>
+  <si>
+    <t>M5055</t>
+  </si>
+  <si>
+    <t>M5056</t>
+  </si>
+  <si>
+    <t>M5057</t>
+  </si>
+  <si>
+    <t>M5058</t>
+  </si>
+  <si>
+    <t>M5059</t>
+  </si>
+  <si>
+    <t>M5060</t>
+  </si>
+  <si>
+    <t>M5061</t>
+  </si>
+  <si>
+    <t>M5062</t>
+  </si>
+  <si>
+    <t>M5063</t>
+  </si>
+  <si>
+    <t>M5064</t>
+  </si>
+  <si>
+    <t>M5065</t>
+  </si>
+  <si>
+    <t>M5066</t>
+  </si>
+  <si>
+    <t>M5067</t>
+  </si>
+  <si>
+    <t>M5068</t>
+  </si>
+  <si>
+    <t>M5069</t>
+  </si>
+  <si>
+    <t>M5070</t>
+  </si>
+  <si>
+    <t>M5071</t>
+  </si>
+  <si>
+    <t>M5072</t>
+  </si>
+  <si>
+    <t>M5073</t>
+  </si>
+  <si>
+    <t>M5074</t>
+  </si>
+  <si>
+    <t>M5075</t>
+  </si>
+  <si>
+    <t>M5076</t>
+  </si>
+  <si>
+    <t>M5077</t>
+  </si>
+  <si>
+    <t>M5078</t>
+  </si>
+  <si>
+    <t>M5079</t>
+  </si>
+  <si>
+    <t>M5080</t>
+  </si>
+  <si>
+    <t>M5081</t>
+  </si>
+  <si>
+    <t>M5082</t>
+  </si>
+  <si>
+    <t>M5083</t>
+  </si>
+  <si>
+    <t>M5084</t>
+  </si>
+  <si>
+    <t>M5085</t>
+  </si>
+  <si>
+    <t>M5086</t>
+  </si>
+  <si>
+    <t>M5087</t>
+  </si>
+  <si>
+    <t>M5088</t>
+  </si>
+  <si>
+    <t>M5089</t>
+  </si>
+  <si>
+    <t>M5090</t>
+  </si>
+  <si>
+    <t>M5091</t>
+  </si>
+  <si>
+    <t>M5092</t>
+  </si>
+  <si>
+    <t>M5093</t>
+  </si>
+  <si>
+    <t>M5094</t>
+  </si>
+  <si>
+    <t>M5095</t>
+  </si>
+  <si>
+    <t>M5096</t>
+  </si>
+  <si>
+    <t>M5097</t>
+  </si>
+  <si>
+    <t>M5098</t>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>D87</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>D91</t>
+  </si>
+  <si>
+    <t>D92</t>
+  </si>
+  <si>
+    <t>D93</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>D95</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>D97</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
+    <t>D99</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>M5099</t>
+  </si>
+  <si>
+    <t>M5100</t>
+  </si>
+  <si>
+    <t>出料轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥胶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴当前坐标</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1742,24 +2382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1778,10 +2400,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,6 +2431,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,12 +3609,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2988,10 +3628,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="7" t="s">
         <v>175</v>
       </c>
@@ -3005,20 +3645,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="11" t="s">
         <v>142</v>
       </c>
@@ -3030,18 +3670,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -3051,10 +3691,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -3080,14 +3720,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3103,17 +3743,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="63"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -3143,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="64"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -3171,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -3199,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -3227,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -3254,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="64"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -3308,7 +3948,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -3333,7 +3973,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -3358,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -3412,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="27" t="s">
         <v>167</v>
       </c>
@@ -3440,7 +4080,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="36" t="s">
         <v>171</v>
       </c>
@@ -3467,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -3496,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -3525,7 +4165,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -3550,7 +4190,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -3575,7 +4215,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -3600,7 +4240,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="69" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3629,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="62"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -3656,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="41" t="s">
         <v>145</v>
       </c>
@@ -3683,7 +4323,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="62"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -3710,7 +4350,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="62"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="41" t="s">
         <v>279</v>
       </c>
@@ -3735,7 +4375,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="41" t="s">
         <v>280</v>
       </c>
@@ -3760,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="62"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3787,7 +4427,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="62"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -3814,7 +4454,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="70" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -3843,7 +4483,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="61"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -3870,7 +4510,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="61"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="35" t="s">
         <v>159</v>
       </c>
@@ -3897,7 +4537,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="69" t="s">
         <v>174</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -3924,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="62"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -3951,7 +4591,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="62"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -3978,7 +4618,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="62"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -4001,7 +4641,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="62"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -4024,7 +4664,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="62"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -4049,7 +4689,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="62"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -4076,7 +4716,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="62"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -4103,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="62"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -4130,7 +4770,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="62"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -4157,7 +4797,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="62"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -4184,7 +4824,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="62"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -4209,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="62"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="35" t="s">
         <v>152</v>
       </c>
@@ -4234,7 +4874,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="62"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="35" t="s">
         <v>153</v>
       </c>
@@ -4261,7 +4901,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="62"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="35" t="s">
         <v>274</v>
       </c>
@@ -4288,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="62"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="35" t="s">
         <v>107</v>
       </c>
@@ -4315,7 +4955,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="62"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="35" t="s">
         <v>110</v>
       </c>
@@ -4342,7 +4982,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="70" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -4371,7 +5011,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="61"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="35" t="s">
         <v>113</v>
       </c>
@@ -4398,7 +5038,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="61"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="35" t="s">
         <v>117</v>
       </c>
@@ -4425,7 +5065,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="61"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="35" t="s">
         <v>119</v>
       </c>
@@ -4452,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="62"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="35" t="s">
         <v>122</v>
       </c>
@@ -4477,7 +5117,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="62"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="35" t="s">
         <v>123</v>
       </c>
@@ -4502,7 +5142,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="62"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="35" t="s">
         <v>149</v>
       </c>
@@ -4525,7 +5165,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="62"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="35" t="s">
         <v>124</v>
       </c>
@@ -4548,7 +5188,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="62"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="35" t="s">
         <v>125</v>
       </c>
@@ -4569,7 +5209,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="62"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="35" t="s">
         <v>127</v>
       </c>
@@ -4590,7 +5230,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="62"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="35" t="s">
         <v>128</v>
       </c>
@@ -4611,7 +5251,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="62"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="35" t="s">
         <v>129</v>
       </c>
@@ -4632,7 +5272,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="62"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="35" t="s">
         <v>130</v>
       </c>
@@ -4653,7 +5293,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="62"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="35" t="s">
         <v>131</v>
       </c>
@@ -4674,7 +5314,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="62"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="35" t="s">
         <v>132</v>
       </c>
@@ -4695,7 +5335,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="62"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="35" t="s">
         <v>133</v>
       </c>
@@ -4716,7 +5356,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="62"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="35" t="s">
         <v>134</v>
       </c>
@@ -4737,7 +5377,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="62"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="35" t="s">
         <v>135</v>
       </c>
@@ -4758,7 +5398,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="62"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="35" t="s">
         <v>136</v>
       </c>
@@ -4779,7 +5419,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="62"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="35" t="s">
         <v>137</v>
       </c>
@@ -4800,7 +5440,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="62"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="35" t="s">
         <v>138</v>
       </c>
@@ -4821,7 +5461,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="62"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="35" t="s">
         <v>139</v>
       </c>
@@ -4842,7 +5482,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="62"/>
+      <c r="C76" s="69"/>
       <c r="D76" s="35" t="s">
         <v>140</v>
       </c>
@@ -4863,7 +5503,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="62"/>
+      <c r="C77" s="69"/>
       <c r="D77" s="35" t="s">
         <v>141</v>
       </c>
@@ -4888,6 +5528,16 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C77"/>
+    <mergeCell ref="C8:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -4895,16 +5545,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -4928,8 +5568,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4948,12 +5588,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="46"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -4963,10 +5603,10 @@
       <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="22.5">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
@@ -5033,7 +5673,7 @@
       <c r="J4" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5064,7 +5704,7 @@
       <c r="J5" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="48">
@@ -5087,9 +5727,13 @@
         <v>190</v>
       </c>
       <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>524</v>
+      </c>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="48">
@@ -5114,7 +5758,7 @@
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="77"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="48">
@@ -5139,7 +5783,7 @@
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="57"/>
-      <c r="K8" s="77"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="48">
@@ -5164,7 +5808,7 @@
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="57"/>
-      <c r="K9" s="77"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="48">
@@ -5189,7 +5833,7 @@
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="77"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="48">
@@ -5214,7 +5858,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="57"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="48">
@@ -5247,7 +5891,7 @@
       <c r="J12" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="K12" s="77"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="48">
@@ -5278,7 +5922,7 @@
         <v>276</v>
       </c>
       <c r="J13" s="57"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="48">
@@ -5309,7 +5953,7 @@
         <v>277</v>
       </c>
       <c r="J14" s="57"/>
-      <c r="K14" s="77"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="48">
@@ -5324,7 +5968,7 @@
       <c r="D15" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="47" t="s">
         <v>209</v>
       </c>
@@ -5336,7 +5980,7 @@
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="57"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="48">
@@ -5365,7 +6009,7 @@
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="48">
@@ -5380,7 +6024,7 @@
       <c r="D17" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="74"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="47" t="s">
         <v>213</v>
       </c>
@@ -5392,7 +6036,7 @@
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="57"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="48">
@@ -5421,7 +6065,7 @@
       </c>
       <c r="I18" s="47"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="48">
@@ -5446,7 +6090,7 @@
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="48">
@@ -5465,7 +6109,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="74" t="s">
         <v>220</v>
       </c>
       <c r="L20" s="51"/>
@@ -5487,7 +6131,7 @@
       <c r="H21" s="52"/>
       <c r="I21" s="50"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="75"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12">
@@ -5511,7 +6155,7 @@
       <c r="H22" s="52"/>
       <c r="I22" s="50"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="75"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12">
@@ -5535,7 +6179,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="50"/>
       <c r="J23" s="57"/>
-      <c r="K23" s="75"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12">
@@ -5559,7 +6203,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="50"/>
       <c r="J24" s="57"/>
-      <c r="K24" s="75"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12">
@@ -5583,7 +6227,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="50"/>
       <c r="J25" s="57"/>
-      <c r="K25" s="75"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12">
@@ -5607,7 +6251,7 @@
       <c r="H26" s="52"/>
       <c r="I26" s="50"/>
       <c r="J26" s="57"/>
-      <c r="K26" s="75"/>
+      <c r="K26" s="74"/>
       <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12">
@@ -5627,7 +6271,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="50"/>
       <c r="J27" s="57"/>
-      <c r="K27" s="75"/>
+      <c r="K27" s="74"/>
       <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12">
@@ -5647,7 +6291,7 @@
       <c r="H28" s="52"/>
       <c r="I28" s="50"/>
       <c r="J28" s="57"/>
-      <c r="K28" s="75"/>
+      <c r="K28" s="74"/>
       <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12">
@@ -5667,7 +6311,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
       <c r="J29" s="57"/>
-      <c r="K29" s="75"/>
+      <c r="K29" s="74"/>
       <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12">
@@ -5687,7 +6331,7 @@
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
       <c r="J30" s="57"/>
-      <c r="K30" s="75"/>
+      <c r="K30" s="74"/>
       <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12">
@@ -5707,7 +6351,7 @@
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
       <c r="J31" s="57"/>
-      <c r="K31" s="75"/>
+      <c r="K31" s="74"/>
       <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12">
@@ -5727,7 +6371,7 @@
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
       <c r="J32" s="57"/>
-      <c r="K32" s="75"/>
+      <c r="K32" s="74"/>
       <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12">
@@ -5747,7 +6391,7 @@
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
       <c r="J33" s="57"/>
-      <c r="K33" s="75"/>
+      <c r="K33" s="74"/>
       <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12">
@@ -5767,7 +6411,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="57"/>
-      <c r="K34" s="75"/>
+      <c r="K34" s="74"/>
       <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12">
@@ -5787,7 +6431,7 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="57"/>
-      <c r="K35" s="75"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12">
@@ -5811,7 +6455,7 @@
       <c r="J36" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="K36" s="75" t="s">
+      <c r="K36" s="74" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5836,7 +6480,7 @@
       <c r="J37" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="K37" s="75"/>
+      <c r="K37" s="74"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="48">
@@ -5859,7 +6503,7 @@
       <c r="J38" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="K38" s="75"/>
+      <c r="K38" s="74"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="48">
@@ -5882,7 +6526,7 @@
       <c r="J39" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="K39" s="75"/>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="48">
@@ -5902,8 +6546,8 @@
       <c r="I40" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="75"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="48">
@@ -5923,10 +6567,10 @@
       <c r="I41" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="K41" s="75"/>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="48">
@@ -5946,8 +6590,8 @@
       <c r="I42" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="75"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="48">
@@ -5967,8 +6611,8 @@
       <c r="I43" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="J43" s="74"/>
-      <c r="K43" s="75"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="48">
@@ -5987,7 +6631,7 @@
       <c r="H44" s="50"/>
       <c r="I44" s="47"/>
       <c r="J44" s="49"/>
-      <c r="K44" s="75"/>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="48">
@@ -6006,7 +6650,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="47"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="75"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="48">
@@ -6029,7 +6673,7 @@
       <c r="J46" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="K46" s="75"/>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="48">
@@ -6049,8 +6693,8 @@
       <c r="I47" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="J47" s="74"/>
-      <c r="K47" s="75"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="74"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="48">
@@ -6073,7 +6717,7 @@
       <c r="J48" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="K48" s="75"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="48">
@@ -6093,8 +6737,8 @@
       <c r="I49" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="48">
@@ -6117,7 +6761,7 @@
       <c r="J50" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="K50" s="75"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="48">
@@ -6137,8 +6781,8 @@
       <c r="I51" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="74"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="54"/>
@@ -6268,7 +6912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -6331,12 +6975,847 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>359</v>
+      </c>
+      <c r="C42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="C47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C50" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>369</v>
+      </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>377</v>
+      </c>
+      <c r="C60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>379</v>
+      </c>
+      <c r="C62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>380</v>
+      </c>
+      <c r="C63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>389</v>
+      </c>
+      <c r="C72" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>390</v>
+      </c>
+      <c r="C73" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C74" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>392</v>
+      </c>
+      <c r="C75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>393</v>
+      </c>
+      <c r="C76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>397</v>
+      </c>
+      <c r="C80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C82" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>401</v>
+      </c>
+      <c r="C84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>403</v>
+      </c>
+      <c r="C86" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>405</v>
+      </c>
+      <c r="C88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>406</v>
+      </c>
+      <c r="C89" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>409</v>
+      </c>
+      <c r="C92" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>411</v>
+      </c>
+      <c r="C94" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>413</v>
+      </c>
+      <c r="C96" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>414</v>
+      </c>
+      <c r="C97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>415</v>
+      </c>
+      <c r="C98" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>518</v>
+      </c>
+      <c r="C100" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>519</v>
+      </c>
+      <c r="C101" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1776,7 +1776,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -2382,6 +2382,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2399,24 +2417,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2511,10 +2511,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2555,10 +2555,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3278,7 +3278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3352,7 +3352,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3387,7 +3386,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3563,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3609,12 +3607,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3628,10 +3626,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="7" t="s">
         <v>175</v>
       </c>
@@ -3645,20 +3643,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="11" t="s">
         <v>142</v>
       </c>
@@ -3670,18 +3668,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -3691,10 +3689,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -3720,14 +3718,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3743,17 +3741,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -3783,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="66"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="66"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="66"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="66"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="66"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="66"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -3948,7 +3946,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="66"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="66"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="66"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -4025,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -4052,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="66"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="27" t="s">
         <v>167</v>
       </c>
@@ -4080,7 +4078,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="66"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="36" t="s">
         <v>171</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -4165,7 +4163,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="66"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="66"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -4240,7 +4238,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -4269,7 +4267,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="69"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -4296,7 +4294,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="41" t="s">
         <v>145</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="69"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -4350,7 +4348,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="69"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="41" t="s">
         <v>279</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="69"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="41" t="s">
         <v>280</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="69"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -4427,7 +4425,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="69"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -4483,7 +4481,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="71"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="71"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="35" t="s">
         <v>159</v>
       </c>
@@ -4537,7 +4535,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="62" t="s">
         <v>174</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -4564,7 +4562,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="69"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="69"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="69"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="69"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="69"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -4689,7 +4687,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="69"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="69"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="69"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="69"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="69"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -4824,7 +4822,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="69"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="69"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="35" t="s">
         <v>152</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="69"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="35" t="s">
         <v>153</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="69"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="35" t="s">
         <v>274</v>
       </c>
@@ -4928,7 +4926,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="69"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="35" t="s">
         <v>107</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="69"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="35" t="s">
         <v>110</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="60" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -5011,7 +5009,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="71"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="35" t="s">
         <v>113</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="71"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="35" t="s">
         <v>117</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="71"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="35" t="s">
         <v>119</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="69"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="35" t="s">
         <v>122</v>
       </c>
@@ -5117,7 +5115,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="69"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="35" t="s">
         <v>123</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="69"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="35" t="s">
         <v>149</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="69"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="35" t="s">
         <v>124</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="69"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="35" t="s">
         <v>125</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="69"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="35" t="s">
         <v>127</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="69"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="35" t="s">
         <v>128</v>
       </c>
@@ -5251,7 +5249,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="69"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="35" t="s">
         <v>129</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="69"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="35" t="s">
         <v>130</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="69"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="35" t="s">
         <v>131</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="69"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="35" t="s">
         <v>132</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="69"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="35" t="s">
         <v>133</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="69"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="35" t="s">
         <v>134</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="69"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="35" t="s">
         <v>135</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="69"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="35" t="s">
         <v>136</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="69"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="35" t="s">
         <v>137</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="69"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="35" t="s">
         <v>138</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="69"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="35" t="s">
         <v>139</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="69"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="35" t="s">
         <v>140</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="69"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="35" t="s">
         <v>141</v>
       </c>
@@ -5528,16 +5526,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -5545,6 +5533,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C77"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -5562,14 +5560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5587,7 +5585,7 @@
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5">
+    <row r="1" spans="1:13" ht="22.5">
       <c r="A1" s="75" t="s">
         <v>281</v>
       </c>
@@ -5602,7 +5600,7 @@
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
     </row>
-    <row r="2" spans="1:11" ht="22.5">
+    <row r="2" spans="1:13" ht="22.5">
       <c r="A2" s="75"/>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -5615,7 +5613,7 @@
       <c r="J2" s="47"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="48" t="s">
         <v>179</v>
       </c>
@@ -5646,7 +5644,7 @@
       </c>
       <c r="K3" s="47"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="48">
         <v>1</v>
       </c>
@@ -5677,7 +5675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="48">
         <v>2</v>
       </c>
@@ -5706,7 +5704,7 @@
       </c>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="48">
         <v>3</v>
       </c>
@@ -5735,7 +5733,7 @@
       </c>
       <c r="K6" s="76"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="48">
         <v>4</v>
       </c>
@@ -5760,7 +5758,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="48">
         <v>5</v>
       </c>
@@ -5785,7 +5783,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="76"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="48">
         <v>6</v>
       </c>
@@ -5810,7 +5808,7 @@
       <c r="J9" s="57"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="48">
         <v>7</v>
       </c>
@@ -5835,7 +5833,7 @@
       <c r="J10" s="57"/>
       <c r="K10" s="76"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="48">
         <v>8</v>
       </c>
@@ -5860,7 +5858,7 @@
       <c r="J11" s="57"/>
       <c r="K11" s="76"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="48">
         <v>9</v>
       </c>
@@ -5892,8 +5890,11 @@
         <v>285</v>
       </c>
       <c r="K12" s="76"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="48">
         <v>10</v>
       </c>
@@ -5924,7 +5925,7 @@
       <c r="J13" s="57"/>
       <c r="K13" s="76"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="48">
         <v>11</v>
       </c>
@@ -5955,7 +5956,7 @@
       <c r="J14" s="57"/>
       <c r="K14" s="76"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="48">
         <v>12</v>
       </c>
@@ -5982,7 +5983,7 @@
       <c r="J15" s="57"/>
       <c r="K15" s="76"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="48">
         <v>13</v>
       </c>
@@ -6909,7 +6910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="P1:Q6"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -6974,7 +6975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
     <sheet name="IO表" sheetId="5" r:id="rId2"/>
     <sheet name="装配指导" sheetId="2" r:id="rId3"/>
     <sheet name="编程规划" sheetId="3" r:id="rId4"/>
+    <sheet name="PLC使用记录" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="873">
   <si>
     <t>文件编号：</t>
   </si>
@@ -886,33 +887,8 @@
     <t>Y1.15</t>
   </si>
   <si>
-    <t>启动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>复位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>急停</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>安全门1</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全门2</t>
-  </si>
-  <si>
-    <t>安全门3</t>
-  </si>
-  <si>
-    <t>安全门4</t>
   </si>
   <si>
     <t>SMC真空吸1</t>
@@ -1105,671 +1081,1780 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>出料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5001</t>
+  </si>
+  <si>
+    <t>M5002</t>
+  </si>
+  <si>
+    <t>M5003</t>
+  </si>
+  <si>
+    <t>M5004</t>
+  </si>
+  <si>
+    <t>M5005</t>
+  </si>
+  <si>
+    <t>M5006</t>
+  </si>
+  <si>
+    <t>M5007</t>
+  </si>
+  <si>
+    <t>M5008</t>
+  </si>
+  <si>
+    <t>M5009</t>
+  </si>
+  <si>
+    <t>M5010</t>
+  </si>
+  <si>
+    <t>M5011</t>
+  </si>
+  <si>
+    <t>M5012</t>
+  </si>
+  <si>
+    <t>M5013</t>
+  </si>
+  <si>
+    <t>M5014</t>
+  </si>
+  <si>
+    <t>M5015</t>
+  </si>
+  <si>
+    <t>M5016</t>
+  </si>
+  <si>
+    <t>M5017</t>
+  </si>
+  <si>
+    <t>M5018</t>
+  </si>
+  <si>
+    <t>M5019</t>
+  </si>
+  <si>
+    <t>M5020</t>
+  </si>
+  <si>
+    <t>M5021</t>
+  </si>
+  <si>
+    <t>M5022</t>
+  </si>
+  <si>
+    <t>M5023</t>
+  </si>
+  <si>
+    <t>M5024</t>
+  </si>
+  <si>
+    <t>M5025</t>
+  </si>
+  <si>
+    <t>M5026</t>
+  </si>
+  <si>
+    <t>M5027</t>
+  </si>
+  <si>
+    <t>M5028</t>
+  </si>
+  <si>
+    <t>M5029</t>
+  </si>
+  <si>
+    <t>M5030</t>
+  </si>
+  <si>
+    <t>M5031</t>
+  </si>
+  <si>
+    <t>M5032</t>
+  </si>
+  <si>
+    <t>M5033</t>
+  </si>
+  <si>
+    <t>M5034</t>
+  </si>
+  <si>
+    <t>M5035</t>
+  </si>
+  <si>
+    <t>M5036</t>
+  </si>
+  <si>
+    <t>M5037</t>
+  </si>
+  <si>
+    <t>M5038</t>
+  </si>
+  <si>
+    <t>M5039</t>
+  </si>
+  <si>
+    <t>M5040</t>
+  </si>
+  <si>
+    <t>M5041</t>
+  </si>
+  <si>
+    <t>M5042</t>
+  </si>
+  <si>
+    <t>M5043</t>
+  </si>
+  <si>
+    <t>M5044</t>
+  </si>
+  <si>
+    <t>M5045</t>
+  </si>
+  <si>
+    <t>M5046</t>
+  </si>
+  <si>
+    <t>M5047</t>
+  </si>
+  <si>
+    <t>M5048</t>
+  </si>
+  <si>
+    <t>M5049</t>
+  </si>
+  <si>
+    <t>M5050</t>
+  </si>
+  <si>
+    <t>M5051</t>
+  </si>
+  <si>
+    <t>M5052</t>
+  </si>
+  <si>
+    <t>M5053</t>
+  </si>
+  <si>
+    <t>M5054</t>
+  </si>
+  <si>
+    <t>M5055</t>
+  </si>
+  <si>
+    <t>M5056</t>
+  </si>
+  <si>
+    <t>M5057</t>
+  </si>
+  <si>
+    <t>M5058</t>
+  </si>
+  <si>
+    <t>M5059</t>
+  </si>
+  <si>
+    <t>M5060</t>
+  </si>
+  <si>
+    <t>M5061</t>
+  </si>
+  <si>
+    <t>M5062</t>
+  </si>
+  <si>
+    <t>M5063</t>
+  </si>
+  <si>
+    <t>M5064</t>
+  </si>
+  <si>
+    <t>M5065</t>
+  </si>
+  <si>
+    <t>M5066</t>
+  </si>
+  <si>
+    <t>M5067</t>
+  </si>
+  <si>
+    <t>M5068</t>
+  </si>
+  <si>
+    <t>M5069</t>
+  </si>
+  <si>
+    <t>M5070</t>
+  </si>
+  <si>
+    <t>M5071</t>
+  </si>
+  <si>
+    <t>M5072</t>
+  </si>
+  <si>
+    <t>M5073</t>
+  </si>
+  <si>
+    <t>M5074</t>
+  </si>
+  <si>
+    <t>M5075</t>
+  </si>
+  <si>
+    <t>M5076</t>
+  </si>
+  <si>
+    <t>M5077</t>
+  </si>
+  <si>
+    <t>M5078</t>
+  </si>
+  <si>
+    <t>M5079</t>
+  </si>
+  <si>
+    <t>M5080</t>
+  </si>
+  <si>
+    <t>M5081</t>
+  </si>
+  <si>
+    <t>M5082</t>
+  </si>
+  <si>
+    <t>M5083</t>
+  </si>
+  <si>
+    <t>M5084</t>
+  </si>
+  <si>
+    <t>M5085</t>
+  </si>
+  <si>
+    <t>M5086</t>
+  </si>
+  <si>
+    <t>M5087</t>
+  </si>
+  <si>
+    <t>M5088</t>
+  </si>
+  <si>
+    <t>M5089</t>
+  </si>
+  <si>
+    <t>M5090</t>
+  </si>
+  <si>
+    <t>M5091</t>
+  </si>
+  <si>
+    <t>M5092</t>
+  </si>
+  <si>
+    <t>M5093</t>
+  </si>
+  <si>
+    <t>M5094</t>
+  </si>
+  <si>
+    <t>M5095</t>
+  </si>
+  <si>
+    <t>M5096</t>
+  </si>
+  <si>
+    <t>M5097</t>
+  </si>
+  <si>
+    <t>M5098</t>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>D87</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>D91</t>
+  </si>
+  <si>
+    <t>D92</t>
+  </si>
+  <si>
+    <t>D93</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>D95</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>D97</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
+    <t>D99</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>M5099</t>
+  </si>
+  <si>
+    <t>M5100</t>
+  </si>
+  <si>
+    <t>D20000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20001</t>
+  </si>
+  <si>
+    <t>D20002</t>
+  </si>
+  <si>
+    <t>D20003</t>
+  </si>
+  <si>
+    <t>D20004</t>
+  </si>
+  <si>
+    <t>D20005</t>
+  </si>
+  <si>
+    <t>D20006</t>
+  </si>
+  <si>
+    <t>D20007</t>
+  </si>
+  <si>
+    <t>D20008</t>
+  </si>
+  <si>
+    <t>D20009</t>
+  </si>
+  <si>
+    <t>D20010</t>
+  </si>
+  <si>
+    <t>D20011</t>
+  </si>
+  <si>
+    <t>D20013</t>
+  </si>
+  <si>
+    <t>D20014</t>
+  </si>
+  <si>
+    <t>D20015</t>
+  </si>
+  <si>
+    <t>D20016</t>
+  </si>
+  <si>
+    <t>D20017</t>
+  </si>
+  <si>
+    <t>D20018</t>
+  </si>
+  <si>
+    <t>D20019</t>
+  </si>
+  <si>
+    <t>D20020</t>
+  </si>
+  <si>
+    <t>D20021</t>
+  </si>
+  <si>
+    <t>D20022</t>
+  </si>
+  <si>
+    <t>D20023</t>
+  </si>
+  <si>
+    <t>D20024</t>
+  </si>
+  <si>
+    <t>D20025</t>
+  </si>
+  <si>
+    <t>D20026</t>
+  </si>
+  <si>
+    <t>D20027</t>
+  </si>
+  <si>
+    <t>D20028</t>
+  </si>
+  <si>
+    <t>D20029</t>
+  </si>
+  <si>
+    <t>D20030</t>
+  </si>
+  <si>
+    <t>D20031</t>
+  </si>
+  <si>
+    <t>D20032</t>
+  </si>
+  <si>
+    <t>D20033</t>
+  </si>
+  <si>
+    <t>D20034</t>
+  </si>
+  <si>
+    <t>D20035</t>
+  </si>
+  <si>
+    <t>D20036</t>
+  </si>
+  <si>
+    <t>D20037</t>
+  </si>
+  <si>
+    <t>D20038</t>
+  </si>
+  <si>
+    <t>D20039</t>
+  </si>
+  <si>
+    <t>D20040</t>
+  </si>
+  <si>
+    <t>D20041</t>
+  </si>
+  <si>
+    <t>D20042</t>
+  </si>
+  <si>
+    <t>D20043</t>
+  </si>
+  <si>
+    <t>D20044</t>
+  </si>
+  <si>
+    <t>D20045</t>
+  </si>
+  <si>
+    <t>D20046</t>
+  </si>
+  <si>
+    <t>D20047</t>
+  </si>
+  <si>
+    <t>D20048</t>
+  </si>
+  <si>
+    <t>D20049</t>
+  </si>
+  <si>
+    <t>D20050</t>
+  </si>
+  <si>
+    <t>D20051</t>
+  </si>
+  <si>
+    <t>D20052</t>
+  </si>
+  <si>
+    <t>D20053</t>
+  </si>
+  <si>
+    <t>D20054</t>
+  </si>
+  <si>
+    <t>D20055</t>
+  </si>
+  <si>
+    <t>D20056</t>
+  </si>
+  <si>
+    <t>D20057</t>
+  </si>
+  <si>
+    <t>D20058</t>
+  </si>
+  <si>
+    <t>D20059</t>
+  </si>
+  <si>
+    <t>D20060</t>
+  </si>
+  <si>
+    <t>D20061</t>
+  </si>
+  <si>
+    <t>D20062</t>
+  </si>
+  <si>
+    <t>D20063</t>
+  </si>
+  <si>
+    <t>D20064</t>
+  </si>
+  <si>
+    <t>D20065</t>
+  </si>
+  <si>
+    <t>D20066</t>
+  </si>
+  <si>
+    <t>D20067</t>
+  </si>
+  <si>
+    <t>D20068</t>
+  </si>
+  <si>
+    <t>D20069</t>
+  </si>
+  <si>
+    <t>D20070</t>
+  </si>
+  <si>
+    <t>D20071</t>
+  </si>
+  <si>
+    <t>D20072</t>
+  </si>
+  <si>
+    <t>D20073</t>
+  </si>
+  <si>
+    <t>D20074</t>
+  </si>
+  <si>
+    <t>D20075</t>
+  </si>
+  <si>
+    <t>D20076</t>
+  </si>
+  <si>
+    <t>D20077</t>
+  </si>
+  <si>
+    <t>D20078</t>
+  </si>
+  <si>
+    <t>D20079</t>
+  </si>
+  <si>
+    <t>D20080</t>
+  </si>
+  <si>
+    <t>D20081</t>
+  </si>
+  <si>
+    <t>D20082</t>
+  </si>
+  <si>
+    <t>D20083</t>
+  </si>
+  <si>
+    <t>D20084</t>
+  </si>
+  <si>
+    <t>D20085</t>
+  </si>
+  <si>
+    <t>D20086</t>
+  </si>
+  <si>
+    <t>D20087</t>
+  </si>
+  <si>
+    <t>D20088</t>
+  </si>
+  <si>
+    <t>D20089</t>
+  </si>
+  <si>
+    <t>D20090</t>
+  </si>
+  <si>
+    <t>D20091</t>
+  </si>
+  <si>
+    <t>D20092</t>
+  </si>
+  <si>
+    <t>D20093</t>
+  </si>
+  <si>
+    <t>D20094</t>
+  </si>
+  <si>
+    <t>D20095</t>
+  </si>
+  <si>
+    <t>D20096</t>
+  </si>
+  <si>
+    <t>D20097</t>
+  </si>
+  <si>
+    <t>D20098</t>
+  </si>
+  <si>
+    <t>D20099</t>
+  </si>
+  <si>
+    <t>D20100</t>
+  </si>
+  <si>
+    <t>出料轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴运行速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴调试速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M301</t>
+  </si>
+  <si>
+    <t>M302</t>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>M304</t>
+  </si>
+  <si>
+    <t>M305</t>
+  </si>
+  <si>
+    <t>M306</t>
+  </si>
+  <si>
+    <t>M307</t>
+  </si>
+  <si>
+    <t>M308</t>
+  </si>
+  <si>
+    <t>M309</t>
+  </si>
+  <si>
+    <t>M310</t>
+  </si>
+  <si>
+    <t>M311</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>M313</t>
+  </si>
+  <si>
+    <t>M314</t>
+  </si>
+  <si>
+    <t>M315</t>
+  </si>
+  <si>
+    <t>M316</t>
+  </si>
+  <si>
+    <t>M317</t>
+  </si>
+  <si>
+    <t>M318</t>
+  </si>
+  <si>
+    <t>M319</t>
+  </si>
+  <si>
+    <t>M320</t>
+  </si>
+  <si>
+    <t>M321</t>
+  </si>
+  <si>
+    <t>M322</t>
+  </si>
+  <si>
+    <t>M323</t>
+  </si>
+  <si>
+    <t>M324</t>
+  </si>
+  <si>
+    <t>M325</t>
+  </si>
+  <si>
+    <t>M326</t>
+  </si>
+  <si>
+    <t>M327</t>
+  </si>
+  <si>
+    <t>M328</t>
+  </si>
+  <si>
+    <t>M329</t>
+  </si>
+  <si>
+    <t>M330</t>
+  </si>
+  <si>
+    <t>M331</t>
+  </si>
+  <si>
+    <t>M332</t>
+  </si>
+  <si>
+    <t>M333</t>
+  </si>
+  <si>
+    <t>M334</t>
+  </si>
+  <si>
+    <t>M335</t>
+  </si>
+  <si>
+    <t>M336</t>
+  </si>
+  <si>
+    <t>M337</t>
+  </si>
+  <si>
+    <t>M338</t>
+  </si>
+  <si>
+    <t>M339</t>
+  </si>
+  <si>
+    <t>M340</t>
+  </si>
+  <si>
+    <t>M341</t>
+  </si>
+  <si>
+    <t>M342</t>
+  </si>
+  <si>
+    <t>M343</t>
+  </si>
+  <si>
+    <t>M344</t>
+  </si>
+  <si>
+    <t>M345</t>
+  </si>
+  <si>
+    <t>M346</t>
+  </si>
+  <si>
+    <t>M347</t>
+  </si>
+  <si>
+    <t>M348</t>
+  </si>
+  <si>
+    <t>M349</t>
+  </si>
+  <si>
+    <t>M350</t>
+  </si>
+  <si>
+    <t>M351</t>
+  </si>
+  <si>
+    <t>M352</t>
+  </si>
+  <si>
+    <t>M353</t>
+  </si>
+  <si>
+    <t>M354</t>
+  </si>
+  <si>
+    <t>M355</t>
+  </si>
+  <si>
+    <t>M356</t>
+  </si>
+  <si>
+    <t>M357</t>
+  </si>
+  <si>
+    <t>M358</t>
+  </si>
+  <si>
+    <t>M359</t>
+  </si>
+  <si>
+    <t>M360</t>
+  </si>
+  <si>
+    <t>M361</t>
+  </si>
+  <si>
+    <t>M362</t>
+  </si>
+  <si>
+    <t>M363</t>
+  </si>
+  <si>
+    <t>M364</t>
+  </si>
+  <si>
+    <t>M365</t>
+  </si>
+  <si>
+    <t>M366</t>
+  </si>
+  <si>
+    <t>M367</t>
+  </si>
+  <si>
+    <t>M368</t>
+  </si>
+  <si>
+    <t>M369</t>
+  </si>
+  <si>
+    <t>M370</t>
+  </si>
+  <si>
+    <t>M371</t>
+  </si>
+  <si>
+    <t>M372</t>
+  </si>
+  <si>
+    <t>M373</t>
+  </si>
+  <si>
+    <t>M374</t>
+  </si>
+  <si>
+    <t>M375</t>
+  </si>
+  <si>
+    <t>M376</t>
+  </si>
+  <si>
+    <t>M377</t>
+  </si>
+  <si>
+    <t>M378</t>
+  </si>
+  <si>
+    <t>M379</t>
+  </si>
+  <si>
+    <t>M380</t>
+  </si>
+  <si>
+    <t>M381</t>
+  </si>
+  <si>
+    <t>M382</t>
+  </si>
+  <si>
+    <t>M383</t>
+  </si>
+  <si>
+    <t>M384</t>
+  </si>
+  <si>
+    <t>M385</t>
+  </si>
+  <si>
+    <t>M386</t>
+  </si>
+  <si>
+    <t>M387</t>
+  </si>
+  <si>
+    <t>M388</t>
+  </si>
+  <si>
+    <t>M389</t>
+  </si>
+  <si>
+    <t>M390</t>
+  </si>
+  <si>
+    <t>M391</t>
+  </si>
+  <si>
+    <t>M392</t>
+  </si>
+  <si>
+    <t>M393</t>
+  </si>
+  <si>
+    <t>M394</t>
+  </si>
+  <si>
+    <t>M395</t>
+  </si>
+  <si>
+    <t>M396</t>
+  </si>
+  <si>
+    <t>M397</t>
+  </si>
+  <si>
+    <t>M398</t>
+  </si>
+  <si>
+    <t>M399</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>出料轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴释磁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴JOG+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴JOG-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴GO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D301</t>
+  </si>
+  <si>
+    <t>D302</t>
+  </si>
+  <si>
+    <t>D303</t>
+  </si>
+  <si>
+    <t>D304</t>
+  </si>
+  <si>
+    <t>D305</t>
+  </si>
+  <si>
+    <t>D306</t>
+  </si>
+  <si>
+    <t>D307</t>
+  </si>
+  <si>
+    <t>D308</t>
+  </si>
+  <si>
+    <t>D309</t>
+  </si>
+  <si>
+    <t>D310</t>
+  </si>
+  <si>
+    <t>D311</t>
+  </si>
+  <si>
+    <t>D312</t>
+  </si>
+  <si>
+    <t>D313</t>
+  </si>
+  <si>
+    <t>D314</t>
+  </si>
+  <si>
+    <t>D315</t>
+  </si>
+  <si>
+    <t>D316</t>
+  </si>
+  <si>
+    <t>D317</t>
+  </si>
+  <si>
+    <t>D318</t>
+  </si>
+  <si>
+    <t>D319</t>
+  </si>
+  <si>
+    <t>D320</t>
+  </si>
+  <si>
+    <t>D321</t>
+  </si>
+  <si>
+    <t>D322</t>
+  </si>
+  <si>
+    <t>D323</t>
+  </si>
+  <si>
+    <t>D324</t>
+  </si>
+  <si>
+    <t>D325</t>
+  </si>
+  <si>
+    <t>D326</t>
+  </si>
+  <si>
+    <t>D327</t>
+  </si>
+  <si>
+    <t>D328</t>
+  </si>
+  <si>
+    <t>D329</t>
+  </si>
+  <si>
+    <t>D330</t>
+  </si>
+  <si>
+    <t>D331</t>
+  </si>
+  <si>
+    <t>D332</t>
+  </si>
+  <si>
+    <t>D333</t>
+  </si>
+  <si>
+    <t>D334</t>
+  </si>
+  <si>
+    <t>D335</t>
+  </si>
+  <si>
+    <t>D336</t>
+  </si>
+  <si>
+    <t>D337</t>
+  </si>
+  <si>
+    <t>D338</t>
+  </si>
+  <si>
+    <t>D339</t>
+  </si>
+  <si>
+    <t>D340</t>
+  </si>
+  <si>
+    <t>D341</t>
+  </si>
+  <si>
+    <t>D342</t>
+  </si>
+  <si>
+    <t>D343</t>
+  </si>
+  <si>
+    <t>D344</t>
+  </si>
+  <si>
+    <t>D345</t>
+  </si>
+  <si>
+    <t>D346</t>
+  </si>
+  <si>
+    <t>D347</t>
+  </si>
+  <si>
+    <t>D348</t>
+  </si>
+  <si>
+    <t>D349</t>
+  </si>
+  <si>
+    <t>D350</t>
+  </si>
+  <si>
+    <t>D351</t>
+  </si>
+  <si>
+    <t>D352</t>
+  </si>
+  <si>
+    <t>D353</t>
+  </si>
+  <si>
+    <t>D354</t>
+  </si>
+  <si>
+    <t>D355</t>
+  </si>
+  <si>
+    <t>D356</t>
+  </si>
+  <si>
+    <t>D357</t>
+  </si>
+  <si>
+    <t>D358</t>
+  </si>
+  <si>
+    <t>D359</t>
+  </si>
+  <si>
+    <t>D360</t>
+  </si>
+  <si>
+    <t>D361</t>
+  </si>
+  <si>
+    <t>D362</t>
+  </si>
+  <si>
+    <t>D363</t>
+  </si>
+  <si>
+    <t>D364</t>
+  </si>
+  <si>
+    <t>D365</t>
+  </si>
+  <si>
+    <t>D366</t>
+  </si>
+  <si>
+    <t>D367</t>
+  </si>
+  <si>
+    <t>D368</t>
+  </si>
+  <si>
+    <t>D369</t>
+  </si>
+  <si>
+    <t>D370</t>
+  </si>
+  <si>
+    <t>D371</t>
+  </si>
+  <si>
+    <t>D372</t>
+  </si>
+  <si>
+    <t>D373</t>
+  </si>
+  <si>
+    <t>D374</t>
+  </si>
+  <si>
+    <t>D375</t>
+  </si>
+  <si>
+    <t>D376</t>
+  </si>
+  <si>
+    <t>D377</t>
+  </si>
+  <si>
+    <t>D378</t>
+  </si>
+  <si>
+    <t>D379</t>
+  </si>
+  <si>
+    <t>D380</t>
+  </si>
+  <si>
+    <t>D381</t>
+  </si>
+  <si>
+    <t>D382</t>
+  </si>
+  <si>
+    <t>D383</t>
+  </si>
+  <si>
+    <t>D384</t>
+  </si>
+  <si>
+    <t>D385</t>
+  </si>
+  <si>
+    <t>D386</t>
+  </si>
+  <si>
+    <t>D387</t>
+  </si>
+  <si>
+    <t>D388</t>
+  </si>
+  <si>
+    <t>D389</t>
+  </si>
+  <si>
+    <t>D390</t>
+  </si>
+  <si>
+    <t>D391</t>
+  </si>
+  <si>
+    <t>D392</t>
+  </si>
+  <si>
+    <t>D393</t>
+  </si>
+  <si>
+    <t>D394</t>
+  </si>
+  <si>
+    <t>D395</t>
+  </si>
+  <si>
+    <t>D396</t>
+  </si>
+  <si>
+    <t>D397</t>
+  </si>
+  <si>
+    <t>D398</t>
+  </si>
+  <si>
+    <t>D399</t>
+  </si>
+  <si>
+    <t>D400</t>
+  </si>
+  <si>
+    <t>出料轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴当前坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴目标位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>下压气缸-RST</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>出料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>翻转</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5001</t>
-  </si>
-  <si>
-    <t>M5002</t>
-  </si>
-  <si>
-    <t>M5003</t>
-  </si>
-  <si>
-    <t>M5004</t>
-  </si>
-  <si>
-    <t>M5005</t>
-  </si>
-  <si>
-    <t>M5006</t>
-  </si>
-  <si>
-    <t>M5007</t>
-  </si>
-  <si>
-    <t>M5008</t>
-  </si>
-  <si>
-    <t>M5009</t>
-  </si>
-  <si>
-    <t>M5010</t>
-  </si>
-  <si>
-    <t>M5011</t>
-  </si>
-  <si>
-    <t>M5012</t>
-  </si>
-  <si>
-    <t>M5013</t>
-  </si>
-  <si>
-    <t>M5014</t>
-  </si>
-  <si>
-    <t>M5015</t>
-  </si>
-  <si>
-    <t>M5016</t>
-  </si>
-  <si>
-    <t>M5017</t>
-  </si>
-  <si>
-    <t>M5018</t>
-  </si>
-  <si>
-    <t>M5019</t>
-  </si>
-  <si>
-    <t>M5020</t>
-  </si>
-  <si>
-    <t>M5021</t>
-  </si>
-  <si>
-    <t>M5022</t>
-  </si>
-  <si>
-    <t>M5023</t>
-  </si>
-  <si>
-    <t>M5024</t>
-  </si>
-  <si>
-    <t>M5025</t>
-  </si>
-  <si>
-    <t>M5026</t>
-  </si>
-  <si>
-    <t>M5027</t>
-  </si>
-  <si>
-    <t>M5028</t>
-  </si>
-  <si>
-    <t>M5029</t>
-  </si>
-  <si>
-    <t>M5030</t>
-  </si>
-  <si>
-    <t>M5031</t>
-  </si>
-  <si>
-    <t>M5032</t>
-  </si>
-  <si>
-    <t>M5033</t>
-  </si>
-  <si>
-    <t>M5034</t>
-  </si>
-  <si>
-    <t>M5035</t>
-  </si>
-  <si>
-    <t>M5036</t>
-  </si>
-  <si>
-    <t>M5037</t>
-  </si>
-  <si>
-    <t>M5038</t>
-  </si>
-  <si>
-    <t>M5039</t>
-  </si>
-  <si>
-    <t>M5040</t>
-  </si>
-  <si>
-    <t>M5041</t>
-  </si>
-  <si>
-    <t>M5042</t>
-  </si>
-  <si>
-    <t>M5043</t>
-  </si>
-  <si>
-    <t>M5044</t>
-  </si>
-  <si>
-    <t>M5045</t>
-  </si>
-  <si>
-    <t>M5046</t>
-  </si>
-  <si>
-    <t>M5047</t>
-  </si>
-  <si>
-    <t>M5048</t>
-  </si>
-  <si>
-    <t>M5049</t>
-  </si>
-  <si>
-    <t>M5050</t>
-  </si>
-  <si>
-    <t>M5051</t>
-  </si>
-  <si>
-    <t>M5052</t>
-  </si>
-  <si>
-    <t>M5053</t>
-  </si>
-  <si>
-    <t>M5054</t>
-  </si>
-  <si>
-    <t>M5055</t>
-  </si>
-  <si>
-    <t>M5056</t>
-  </si>
-  <si>
-    <t>M5057</t>
-  </si>
-  <si>
-    <t>M5058</t>
-  </si>
-  <si>
-    <t>M5059</t>
-  </si>
-  <si>
-    <t>M5060</t>
-  </si>
-  <si>
-    <t>M5061</t>
-  </si>
-  <si>
-    <t>M5062</t>
-  </si>
-  <si>
-    <t>M5063</t>
-  </si>
-  <si>
-    <t>M5064</t>
-  </si>
-  <si>
-    <t>M5065</t>
-  </si>
-  <si>
-    <t>M5066</t>
-  </si>
-  <si>
-    <t>M5067</t>
-  </si>
-  <si>
-    <t>M5068</t>
-  </si>
-  <si>
-    <t>M5069</t>
-  </si>
-  <si>
-    <t>M5070</t>
-  </si>
-  <si>
-    <t>M5071</t>
-  </si>
-  <si>
-    <t>M5072</t>
-  </si>
-  <si>
-    <t>M5073</t>
-  </si>
-  <si>
-    <t>M5074</t>
-  </si>
-  <si>
-    <t>M5075</t>
-  </si>
-  <si>
-    <t>M5076</t>
-  </si>
-  <si>
-    <t>M5077</t>
-  </si>
-  <si>
-    <t>M5078</t>
-  </si>
-  <si>
-    <t>M5079</t>
-  </si>
-  <si>
-    <t>M5080</t>
-  </si>
-  <si>
-    <t>M5081</t>
-  </si>
-  <si>
-    <t>M5082</t>
-  </si>
-  <si>
-    <t>M5083</t>
-  </si>
-  <si>
-    <t>M5084</t>
-  </si>
-  <si>
-    <t>M5085</t>
-  </si>
-  <si>
-    <t>M5086</t>
-  </si>
-  <si>
-    <t>M5087</t>
-  </si>
-  <si>
-    <t>M5088</t>
-  </si>
-  <si>
-    <t>M5089</t>
-  </si>
-  <si>
-    <t>M5090</t>
-  </si>
-  <si>
-    <t>M5091</t>
-  </si>
-  <si>
-    <t>M5092</t>
-  </si>
-  <si>
-    <t>M5093</t>
-  </si>
-  <si>
-    <t>M5094</t>
-  </si>
-  <si>
-    <t>M5095</t>
-  </si>
-  <si>
-    <t>M5096</t>
-  </si>
-  <si>
-    <t>M5097</t>
-  </si>
-  <si>
-    <t>M5098</t>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D17</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D21</t>
-  </si>
-  <si>
-    <t>D22</t>
-  </si>
-  <si>
-    <t>D23</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>D25</t>
-  </si>
-  <si>
-    <t>D26</t>
-  </si>
-  <si>
-    <t>D27</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>D29</t>
-  </si>
-  <si>
-    <t>D30</t>
-  </si>
-  <si>
-    <t>D31</t>
-  </si>
-  <si>
-    <t>D32</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>D34</t>
-  </si>
-  <si>
-    <t>D35</t>
-  </si>
-  <si>
-    <t>D36</t>
-  </si>
-  <si>
-    <t>D37</t>
-  </si>
-  <si>
-    <t>D38</t>
-  </si>
-  <si>
-    <t>D39</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>D42</t>
-  </si>
-  <si>
-    <t>D43</t>
-  </si>
-  <si>
-    <t>D44</t>
-  </si>
-  <si>
-    <t>D45</t>
-  </si>
-  <si>
-    <t>D46</t>
-  </si>
-  <si>
-    <t>D47</t>
-  </si>
-  <si>
-    <t>D48</t>
-  </si>
-  <si>
-    <t>D49</t>
-  </si>
-  <si>
-    <t>D50</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>D52</t>
-  </si>
-  <si>
-    <t>D53</t>
-  </si>
-  <si>
-    <t>D54</t>
-  </si>
-  <si>
-    <t>D55</t>
-  </si>
-  <si>
-    <t>D56</t>
-  </si>
-  <si>
-    <t>D57</t>
-  </si>
-  <si>
-    <t>D58</t>
-  </si>
-  <si>
-    <t>D59</t>
-  </si>
-  <si>
-    <t>D60</t>
-  </si>
-  <si>
-    <t>D61</t>
-  </si>
-  <si>
-    <t>D62</t>
-  </si>
-  <si>
-    <t>D63</t>
-  </si>
-  <si>
-    <t>D64</t>
-  </si>
-  <si>
-    <t>D65</t>
-  </si>
-  <si>
-    <t>D66</t>
-  </si>
-  <si>
-    <t>D67</t>
-  </si>
-  <si>
-    <t>D68</t>
-  </si>
-  <si>
-    <t>D69</t>
-  </si>
-  <si>
-    <t>D70</t>
-  </si>
-  <si>
-    <t>D71</t>
-  </si>
-  <si>
-    <t>D72</t>
-  </si>
-  <si>
-    <t>D73</t>
-  </si>
-  <si>
-    <t>D74</t>
-  </si>
-  <si>
-    <t>D75</t>
-  </si>
-  <si>
-    <t>D76</t>
-  </si>
-  <si>
-    <t>D77</t>
-  </si>
-  <si>
-    <t>D78</t>
-  </si>
-  <si>
-    <t>D79</t>
-  </si>
-  <si>
-    <t>D80</t>
-  </si>
-  <si>
-    <t>D81</t>
-  </si>
-  <si>
-    <t>D82</t>
-  </si>
-  <si>
-    <t>D83</t>
-  </si>
-  <si>
-    <t>D84</t>
-  </si>
-  <si>
-    <t>D85</t>
-  </si>
-  <si>
-    <t>D86</t>
-  </si>
-  <si>
-    <t>D87</t>
-  </si>
-  <si>
-    <t>D88</t>
-  </si>
-  <si>
-    <t>D89</t>
-  </si>
-  <si>
-    <t>D90</t>
-  </si>
-  <si>
-    <t>D91</t>
-  </si>
-  <si>
-    <t>D92</t>
-  </si>
-  <si>
-    <t>D93</t>
-  </si>
-  <si>
-    <t>D94</t>
-  </si>
-  <si>
-    <t>D95</t>
-  </si>
-  <si>
-    <t>D96</t>
-  </si>
-  <si>
-    <t>D97</t>
-  </si>
-  <si>
-    <t>D98</t>
-  </si>
-  <si>
-    <t>D99</t>
-  </si>
-  <si>
-    <t>D100</t>
-  </si>
-  <si>
-    <t>M5099</t>
-  </si>
-  <si>
-    <t>M5100</t>
-  </si>
-  <si>
-    <t>出料轴当前坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料轴当前坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转轴当前坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剥胶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴当前坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴当前坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转轴当前坐标</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2231,7 +3316,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2381,6 +3466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3277,6 +4365,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="搜狗截图20171016100244.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9115425" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="搜狗截图20171016100413.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5486400"/>
+          <a:ext cx="9525000" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="搜狗截图20171016103415.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8915400"/>
+          <a:ext cx="9525000" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12344400"/>
+          <a:ext cx="6657975" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -3567,8 +4821,8 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3607,12 +4861,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3626,10 +4880,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="7" t="s">
         <v>175</v>
       </c>
@@ -3643,20 +4897,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="11" t="s">
         <v>142</v>
       </c>
@@ -3668,18 +4922,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -3689,10 +4943,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -3718,14 +4972,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3741,28 +4995,28 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="63"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="27" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
@@ -3781,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -3809,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -3837,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -3865,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -3892,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -3919,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="64"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -3946,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -3971,7 +5225,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -3996,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -4023,7 +5277,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -4050,7 +5304,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="27" t="s">
         <v>167</v>
       </c>
@@ -4078,7 +5332,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="36" t="s">
         <v>171</v>
       </c>
@@ -4105,7 +5359,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -4134,7 +5388,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -4163,7 +5417,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -4188,7 +5442,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -4213,7 +5467,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -4238,7 +5492,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="63" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -4267,7 +5521,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -4294,7 +5548,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="41" t="s">
         <v>145</v>
       </c>
@@ -4321,7 +5575,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -4348,9 +5602,9 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="43"/>
@@ -4373,9 +5627,9 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="43"/>
@@ -4398,7 +5652,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -4425,7 +5679,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="62"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -4452,7 +5706,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="61" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -4481,7 +5735,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="61"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -4508,7 +5762,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="61"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="35" t="s">
         <v>159</v>
       </c>
@@ -4535,7 +5789,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="63" t="s">
         <v>174</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -4562,7 +5816,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -4589,7 +5843,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -4616,7 +5870,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -4639,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -4662,7 +5916,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -4687,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="62"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -4714,7 +5968,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -4741,7 +5995,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -4768,7 +6022,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -4795,7 +6049,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -4822,7 +6076,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -4847,7 +6101,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="62"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="35" t="s">
         <v>152</v>
       </c>
@@ -4872,7 +6126,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="62"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="35" t="s">
         <v>153</v>
       </c>
@@ -4899,12 +6153,12 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="62"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="35" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="35" t="s">
@@ -4926,7 +6180,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="62"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="35" t="s">
         <v>107</v>
       </c>
@@ -4953,7 +6207,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="35" t="s">
         <v>110</v>
       </c>
@@ -4980,7 +6234,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="61" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -5009,7 +6263,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="61"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="35" t="s">
         <v>113</v>
       </c>
@@ -5036,7 +6290,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="61"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="35" t="s">
         <v>117</v>
       </c>
@@ -5063,7 +6317,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="61"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="35" t="s">
         <v>119</v>
       </c>
@@ -5090,7 +6344,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="62"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="35" t="s">
         <v>122</v>
       </c>
@@ -5115,7 +6369,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="62"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="35" t="s">
         <v>123</v>
       </c>
@@ -5140,7 +6394,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="62"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="35" t="s">
         <v>149</v>
       </c>
@@ -5163,7 +6417,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="35" t="s">
         <v>124</v>
       </c>
@@ -5186,7 +6440,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="62"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="35" t="s">
         <v>125</v>
       </c>
@@ -5207,7 +6461,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="62"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="35" t="s">
         <v>127</v>
       </c>
@@ -5228,7 +6482,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="62"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="35" t="s">
         <v>128</v>
       </c>
@@ -5249,7 +6503,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="62"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="35" t="s">
         <v>129</v>
       </c>
@@ -5270,7 +6524,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="62"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="35" t="s">
         <v>130</v>
       </c>
@@ -5291,7 +6545,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="62"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="35" t="s">
         <v>131</v>
       </c>
@@ -5312,7 +6566,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="62"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="35" t="s">
         <v>132</v>
       </c>
@@ -5333,7 +6587,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="62"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="35" t="s">
         <v>133</v>
       </c>
@@ -5354,7 +6608,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="62"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="35" t="s">
         <v>134</v>
       </c>
@@ -5375,7 +6629,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="62"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="35" t="s">
         <v>135</v>
       </c>
@@ -5396,7 +6650,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="62"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="35" t="s">
         <v>136</v>
       </c>
@@ -5417,7 +6671,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="62"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="35" t="s">
         <v>137</v>
       </c>
@@ -5438,7 +6692,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="62"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="35" t="s">
         <v>138</v>
       </c>
@@ -5459,7 +6713,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="62"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="35" t="s">
         <v>139</v>
       </c>
@@ -5480,7 +6734,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="62"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="35" t="s">
         <v>140</v>
       </c>
@@ -5501,7 +6755,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="62"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="35" t="s">
         <v>141</v>
       </c>
@@ -5566,8 +6820,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5586,12 +6840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="A1" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="46"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -5601,10 +6855,10 @@
       <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="22.5">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
@@ -5634,7 +6888,7 @@
         <v>181</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>184</v>
@@ -5655,7 +6909,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>252</v>
+        <v>864</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="47" t="s">
@@ -5666,12 +6920,12 @@
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="K4" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" s="77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5686,7 +6940,7 @@
         <v>187</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>253</v>
+        <v>865</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="47" t="s">
@@ -5697,12 +6951,12 @@
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="K5" s="76"/>
+        <v>280</v>
+      </c>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="48">
@@ -5715,7 +6969,7 @@
         <v>189</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>254</v>
+        <v>866</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="47" t="s">
@@ -5725,13 +6979,9 @@
         <v>190</v>
       </c>
       <c r="H6" s="47"/>
-      <c r="I6" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="K6" s="76"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="48">
@@ -5744,7 +6994,7 @@
         <v>191</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>255</v>
+        <v>867</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="47" t="s">
@@ -5756,7 +7006,7 @@
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="48">
@@ -5769,7 +7019,7 @@
         <v>193</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="47" t="s">
@@ -5781,7 +7031,7 @@
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="57"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="48">
@@ -5794,7 +7044,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>257</v>
+        <v>868</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="47" t="s">
@@ -5806,7 +7056,7 @@
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="57"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="48">
@@ -5819,7 +7069,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>258</v>
+        <v>869</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="47" t="s">
@@ -5831,7 +7081,7 @@
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="48">
@@ -5844,7 +7094,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>259</v>
+        <v>870</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="47" t="s">
@@ -5856,7 +7106,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="57"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="48">
@@ -5869,10 +7119,10 @@
         <v>202</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>279</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>203</v>
@@ -5881,15 +7131,15 @@
         <v>203</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="K12" s="76"/>
+        <v>278</v>
+      </c>
+      <c r="K12" s="77"/>
       <c r="M12">
         <v>1</v>
       </c>
@@ -5905,10 +7155,10 @@
         <v>204</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>205</v>
@@ -5917,13 +7167,13 @@
         <v>205</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J13" s="57"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="48">
@@ -5936,10 +7186,10 @@
         <v>206</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>292</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>207</v>
@@ -5948,13 +7198,13 @@
         <v>207</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J14" s="57"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="48">
@@ -5967,9 +7217,9 @@
         <v>208</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="73"/>
+        <v>296</v>
+      </c>
+      <c r="E15" s="74"/>
       <c r="F15" s="47" t="s">
         <v>209</v>
       </c>
@@ -5977,11 +7227,11 @@
         <v>209</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="57"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="48">
@@ -5994,10 +7244,10 @@
         <v>210</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>278</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>211</v>
@@ -6006,11 +7256,11 @@
         <v>211</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="48">
@@ -6023,9 +7273,9 @@
         <v>212</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="73"/>
+        <v>303</v>
+      </c>
+      <c r="E17" s="74"/>
       <c r="F17" s="47" t="s">
         <v>213</v>
       </c>
@@ -6033,11 +7283,15 @@
         <v>213</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="57"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17">
+        <f>47+41.29+50</f>
+        <v>138.29</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="48">
@@ -6050,10 +7304,10 @@
         <v>214</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>307</v>
+        <v>871</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>280</v>
       </c>
       <c r="F18" s="47" t="s">
         <v>215</v>
@@ -6062,11 +7316,11 @@
         <v>215</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I18" s="47"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="48">
@@ -6087,11 +7341,11 @@
         <v>218</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="76"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="48">
@@ -6110,7 +7364,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="74" t="s">
+      <c r="K20" s="75" t="s">
         <v>220</v>
       </c>
       <c r="L20" s="51"/>
@@ -6132,7 +7386,7 @@
       <c r="H21" s="52"/>
       <c r="I21" s="50"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12">
@@ -6146,17 +7400,17 @@
         <v>222</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>872</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
       <c r="I22" s="50"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="74"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12">
@@ -6170,17 +7424,17 @@
         <v>223</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
       <c r="I23" s="50"/>
       <c r="J23" s="57"/>
-      <c r="K23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:12">
@@ -6194,17 +7448,17 @@
         <v>224</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
       <c r="I24" s="50"/>
       <c r="J24" s="57"/>
-      <c r="K24" s="74"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12">
@@ -6218,17 +7472,17 @@
         <v>225</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="50"/>
       <c r="J25" s="57"/>
-      <c r="K25" s="74"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12">
@@ -6245,14 +7499,14 @@
         <v>194</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="50"/>
       <c r="J26" s="57"/>
-      <c r="K26" s="74"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12">
@@ -6272,7 +7526,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="50"/>
       <c r="J27" s="57"/>
-      <c r="K27" s="74"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12">
@@ -6292,7 +7546,7 @@
       <c r="H28" s="52"/>
       <c r="I28" s="50"/>
       <c r="J28" s="57"/>
-      <c r="K28" s="74"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="51"/>
     </row>
     <row r="29" spans="1:12">
@@ -6312,7 +7566,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
       <c r="J29" s="57"/>
-      <c r="K29" s="74"/>
+      <c r="K29" s="75"/>
       <c r="L29" s="51"/>
     </row>
     <row r="30" spans="1:12">
@@ -6332,7 +7586,7 @@
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
       <c r="J30" s="57"/>
-      <c r="K30" s="74"/>
+      <c r="K30" s="75"/>
       <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12">
@@ -6352,7 +7606,7 @@
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
       <c r="J31" s="57"/>
-      <c r="K31" s="74"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12">
@@ -6372,7 +7626,7 @@
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
       <c r="J32" s="57"/>
-      <c r="K32" s="74"/>
+      <c r="K32" s="75"/>
       <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12">
@@ -6392,7 +7646,7 @@
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
       <c r="J33" s="57"/>
-      <c r="K33" s="74"/>
+      <c r="K33" s="75"/>
       <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12">
@@ -6412,7 +7666,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="57"/>
-      <c r="K34" s="74"/>
+      <c r="K34" s="75"/>
       <c r="L34" s="51"/>
     </row>
     <row r="35" spans="1:12">
@@ -6432,7 +7686,7 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="57"/>
-      <c r="K35" s="74"/>
+      <c r="K35" s="75"/>
       <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12">
@@ -6451,12 +7705,12 @@
       </c>
       <c r="H36" s="50"/>
       <c r="I36" s="47" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="K36" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6476,12 +7730,12 @@
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="47" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J37" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="K37" s="74"/>
+        <v>285</v>
+      </c>
+      <c r="K37" s="75"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="48">
@@ -6499,12 +7753,12 @@
       </c>
       <c r="H38" s="50"/>
       <c r="I38" s="47" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="K38" s="74"/>
+        <v>292</v>
+      </c>
+      <c r="K38" s="75"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="48">
@@ -6522,12 +7776,12 @@
       </c>
       <c r="H39" s="50"/>
       <c r="I39" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="J39" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="K39" s="74"/>
+        <v>298</v>
+      </c>
+      <c r="J39" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="48">
@@ -6545,10 +7799,10 @@
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="J40" s="77"/>
-      <c r="K40" s="74"/>
+        <v>299</v>
+      </c>
+      <c r="J40" s="78"/>
+      <c r="K40" s="75"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="48">
@@ -6566,12 +7820,12 @@
       </c>
       <c r="H41" s="50"/>
       <c r="I41" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="J41" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="K41" s="74"/>
+        <v>301</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" s="75"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="48">
@@ -6591,8 +7845,8 @@
       <c r="I42" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="74"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="75"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="48">
@@ -6610,10 +7864,10 @@
       </c>
       <c r="H43" s="50"/>
       <c r="I43" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
+        <v>302</v>
+      </c>
+      <c r="J43" s="74"/>
+      <c r="K43" s="75"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="48">
@@ -6632,7 +7886,7 @@
       <c r="H44" s="50"/>
       <c r="I44" s="47"/>
       <c r="J44" s="49"/>
-      <c r="K44" s="74"/>
+      <c r="K44" s="75"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="48">
@@ -6651,7 +7905,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="47"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="74"/>
+      <c r="K45" s="75"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="48">
@@ -6669,12 +7923,12 @@
       </c>
       <c r="H46" s="50"/>
       <c r="I46" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="J46" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="K46" s="74"/>
+        <v>253</v>
+      </c>
+      <c r="J46" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="K46" s="75"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="48">
@@ -6692,10 +7946,10 @@
       </c>
       <c r="H47" s="50"/>
       <c r="I47" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="74"/>
+        <v>254</v>
+      </c>
+      <c r="J47" s="74"/>
+      <c r="K47" s="75"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="48">
@@ -6713,12 +7967,12 @@
       </c>
       <c r="H48" s="50"/>
       <c r="I48" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="J48" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="K48" s="74"/>
+        <v>255</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="75"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="48">
@@ -6736,10 +7990,10 @@
       </c>
       <c r="H49" s="50"/>
       <c r="I49" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="74"/>
+        <v>256</v>
+      </c>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="48">
@@ -6757,12 +8011,12 @@
       </c>
       <c r="H50" s="50"/>
       <c r="I50" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="J50" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="K50" s="74"/>
+        <v>257</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="K50" s="75"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="48">
@@ -6780,10 +8034,10 @@
       </c>
       <c r="H51" s="50"/>
       <c r="I51" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="J51" s="73"/>
-      <c r="K51" s="74"/>
+        <v>258</v>
+      </c>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="54"/>
@@ -6913,15 +8167,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:17">
       <c r="P1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q1">
         <v>1</v>
@@ -6929,7 +8183,7 @@
     </row>
     <row r="2" spans="16:17">
       <c r="P2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -6937,7 +8191,7 @@
     </row>
     <row r="3" spans="16:17">
       <c r="P3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -6945,7 +8199,7 @@
     </row>
     <row r="4" spans="16:17">
       <c r="P4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -6953,7 +8207,7 @@
     </row>
     <row r="5" spans="16:17">
       <c r="P5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -6961,7 +8215,7 @@
     </row>
     <row r="6" spans="16:17">
       <c r="P6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -6976,10 +8230,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6988,832 +8242,1873 @@
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H3" t="s">
+        <v>733</v>
+      </c>
+      <c r="I3" t="s">
+        <v>757</v>
+      </c>
+      <c r="J3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H4" t="s">
+        <v>731</v>
+      </c>
+      <c r="I4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H5" t="s">
+        <v>732</v>
+      </c>
+      <c r="I5" t="s">
+        <v>759</v>
+      </c>
+      <c r="J5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G6" t="s">
+        <v>634</v>
+      </c>
+      <c r="H6" t="s">
+        <v>738</v>
+      </c>
+      <c r="I6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H7" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" t="s">
+        <v>761</v>
+      </c>
+      <c r="J7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G8" t="s">
+        <v>636</v>
+      </c>
+      <c r="H8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>318</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C9" t="s">
         <v>417</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="F9" t="s">
+        <v>620</v>
+      </c>
+      <c r="G9" t="s">
+        <v>637</v>
+      </c>
+      <c r="H9" t="s">
+        <v>740</v>
+      </c>
+      <c r="I9" t="s">
+        <v>763</v>
+      </c>
+      <c r="J9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>319</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="E10" t="s">
+        <v>521</v>
+      </c>
+      <c r="G10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" t="s">
+        <v>735</v>
+      </c>
+      <c r="I10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>320</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>419</v>
       </c>
-      <c r="D3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" t="s">
+        <v>621</v>
+      </c>
+      <c r="G11" t="s">
+        <v>639</v>
+      </c>
+      <c r="H11" t="s">
+        <v>741</v>
+      </c>
+      <c r="I11" t="s">
+        <v>765</v>
+      </c>
+      <c r="J11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>321</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="E12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H12" t="s">
+        <v>742</v>
+      </c>
+      <c r="I12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>322</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>421</v>
       </c>
-      <c r="D5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="E13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F13" t="s">
+        <v>622</v>
+      </c>
+      <c r="G13" t="s">
+        <v>641</v>
+      </c>
+      <c r="H13" t="s">
+        <v>736</v>
+      </c>
+      <c r="I13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="E14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H14" t="s">
+        <v>743</v>
+      </c>
+      <c r="I14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>324</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>423</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E15" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="F15" t="s">
+        <v>623</v>
+      </c>
+      <c r="G15" t="s">
+        <v>643</v>
+      </c>
+      <c r="H15" t="s">
+        <v>744</v>
+      </c>
+      <c r="I15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>325</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C16" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="E16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" t="s">
+        <v>644</v>
+      </c>
+      <c r="H16" t="s">
+        <v>751</v>
+      </c>
+      <c r="I16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>326</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>425</v>
       </c>
-      <c r="D9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="E17" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" t="s">
+        <v>624</v>
+      </c>
+      <c r="G17" t="s">
+        <v>645</v>
+      </c>
+      <c r="H17" t="s">
+        <v>752</v>
+      </c>
+      <c r="I17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>327</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C18" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="E18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G18" t="s">
+        <v>646</v>
+      </c>
+      <c r="H18" t="s">
+        <v>753</v>
+      </c>
+      <c r="I18" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>328</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C19" t="s">
         <v>427</v>
       </c>
-      <c r="D11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="E19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" t="s">
+        <v>625</v>
+      </c>
+      <c r="G19" t="s">
+        <v>647</v>
+      </c>
+      <c r="H19" t="s">
+        <v>745</v>
+      </c>
+      <c r="I19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>329</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C20" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="E20" t="s">
+        <v>530</v>
+      </c>
+      <c r="G20" t="s">
+        <v>648</v>
+      </c>
+      <c r="H20" t="s">
+        <v>746</v>
+      </c>
+      <c r="I20" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>330</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C21" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="E21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" t="s">
+        <v>626</v>
+      </c>
+      <c r="G21" t="s">
+        <v>649</v>
+      </c>
+      <c r="H21" t="s">
+        <v>747</v>
+      </c>
+      <c r="I21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>331</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C22" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E22" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" t="s">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>748</v>
+      </c>
+      <c r="I22" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>332</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="E23" t="s">
+        <v>533</v>
+      </c>
+      <c r="F23" t="s">
+        <v>627</v>
+      </c>
+      <c r="G23" t="s">
+        <v>651</v>
+      </c>
+      <c r="H23" t="s">
+        <v>749</v>
+      </c>
+      <c r="I23" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>333</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="E24" t="s">
+        <v>534</v>
+      </c>
+      <c r="G24" t="s">
+        <v>652</v>
+      </c>
+      <c r="H24" t="s">
+        <v>750</v>
+      </c>
+      <c r="I24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>334</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="E25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" t="s">
+        <v>653</v>
+      </c>
+      <c r="I25" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>335</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="E26" t="s">
+        <v>536</v>
+      </c>
+      <c r="G26" t="s">
+        <v>654</v>
+      </c>
+      <c r="I26" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>336</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="E27" t="s">
+        <v>537</v>
+      </c>
+      <c r="G27" t="s">
+        <v>655</v>
+      </c>
+      <c r="I27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>337</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="E28" t="s">
+        <v>538</v>
+      </c>
+      <c r="G28" t="s">
+        <v>656</v>
+      </c>
+      <c r="I28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>338</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="E29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G29" t="s">
+        <v>657</v>
+      </c>
+      <c r="I29" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>339</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C30" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="E30" t="s">
+        <v>540</v>
+      </c>
+      <c r="G30" t="s">
+        <v>658</v>
+      </c>
+      <c r="I30" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>340</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="E31" t="s">
+        <v>541</v>
+      </c>
+      <c r="G31" t="s">
+        <v>659</v>
+      </c>
+      <c r="I31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>341</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="E32" t="s">
+        <v>542</v>
+      </c>
+      <c r="G32" t="s">
+        <v>660</v>
+      </c>
+      <c r="I32" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>342</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="E33" t="s">
+        <v>543</v>
+      </c>
+      <c r="G33" t="s">
+        <v>661</v>
+      </c>
+      <c r="I33" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>343</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="E34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G34" t="s">
+        <v>662</v>
+      </c>
+      <c r="I34" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>344</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="E35" t="s">
+        <v>545</v>
+      </c>
+      <c r="G35" t="s">
+        <v>663</v>
+      </c>
+      <c r="I35" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>345</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C36" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="E36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G36" t="s">
+        <v>664</v>
+      </c>
+      <c r="I36" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>346</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C37" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="E37" t="s">
+        <v>547</v>
+      </c>
+      <c r="G37" t="s">
+        <v>665</v>
+      </c>
+      <c r="I37" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>347</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="E38" t="s">
+        <v>548</v>
+      </c>
+      <c r="G38" t="s">
+        <v>666</v>
+      </c>
+      <c r="I38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>348</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C39" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="E39" t="s">
+        <v>549</v>
+      </c>
+      <c r="G39" t="s">
+        <v>667</v>
+      </c>
+      <c r="I39" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>349</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="E40" t="s">
+        <v>550</v>
+      </c>
+      <c r="G40" t="s">
+        <v>668</v>
+      </c>
+      <c r="I40" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>350</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="E41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G41" t="s">
+        <v>669</v>
+      </c>
+      <c r="I41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>351</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="E42" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42" t="s">
+        <v>670</v>
+      </c>
+      <c r="I42" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>352</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="E43" t="s">
+        <v>553</v>
+      </c>
+      <c r="G43" t="s">
+        <v>671</v>
+      </c>
+      <c r="I43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>353</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="E44" t="s">
+        <v>554</v>
+      </c>
+      <c r="G44" t="s">
+        <v>672</v>
+      </c>
+      <c r="I44" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>354</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="E45" t="s">
+        <v>555</v>
+      </c>
+      <c r="G45" t="s">
+        <v>673</v>
+      </c>
+      <c r="I45" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>355</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="E46" t="s">
+        <v>556</v>
+      </c>
+      <c r="G46" t="s">
+        <v>674</v>
+      </c>
+      <c r="I46" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>356</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="E47" t="s">
+        <v>557</v>
+      </c>
+      <c r="G47" t="s">
+        <v>675</v>
+      </c>
+      <c r="I47" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>357</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="E48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G48" t="s">
+        <v>676</v>
+      </c>
+      <c r="I48" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>358</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C49" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="E49" t="s">
+        <v>559</v>
+      </c>
+      <c r="G49" t="s">
+        <v>677</v>
+      </c>
+      <c r="I49" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
         <v>359</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C50" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="E50" t="s">
+        <v>560</v>
+      </c>
+      <c r="G50" t="s">
+        <v>678</v>
+      </c>
+      <c r="I50" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
         <v>360</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C51" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="E51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G51" t="s">
+        <v>679</v>
+      </c>
+      <c r="H51" t="s">
+        <v>863</v>
+      </c>
+      <c r="I51" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>361</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C52" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="E52" t="s">
+        <v>562</v>
+      </c>
+      <c r="G52" t="s">
+        <v>680</v>
+      </c>
+      <c r="I52" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>362</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C53" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="E53" t="s">
+        <v>563</v>
+      </c>
+      <c r="G53" t="s">
+        <v>681</v>
+      </c>
+      <c r="I53" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>363</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C54" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="E54" t="s">
+        <v>564</v>
+      </c>
+      <c r="G54" t="s">
+        <v>682</v>
+      </c>
+      <c r="I54" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>364</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="E55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>683</v>
+      </c>
+      <c r="I55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
         <v>365</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C56" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="E56" t="s">
+        <v>566</v>
+      </c>
+      <c r="G56" t="s">
+        <v>684</v>
+      </c>
+      <c r="I56" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
         <v>366</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="E57" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" t="s">
+        <v>685</v>
+      </c>
+      <c r="I57" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>367</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C58" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="E58" t="s">
+        <v>568</v>
+      </c>
+      <c r="G58" t="s">
+        <v>686</v>
+      </c>
+      <c r="I58" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>368</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C59" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="E59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G59" t="s">
+        <v>687</v>
+      </c>
+      <c r="I59" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>369</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="E60" t="s">
+        <v>570</v>
+      </c>
+      <c r="G60" t="s">
+        <v>688</v>
+      </c>
+      <c r="I60" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
         <v>370</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="E61" t="s">
+        <v>571</v>
+      </c>
+      <c r="G61" t="s">
+        <v>689</v>
+      </c>
+      <c r="I61" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
         <v>371</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C62" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="E62" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62" t="s">
+        <v>690</v>
+      </c>
+      <c r="I62" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
         <v>372</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="E63" t="s">
+        <v>573</v>
+      </c>
+      <c r="G63" t="s">
+        <v>691</v>
+      </c>
+      <c r="I63" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
         <v>373</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C64" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="E64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>692</v>
+      </c>
+      <c r="I64" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
         <v>374</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="E65" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" t="s">
+        <v>693</v>
+      </c>
+      <c r="I65" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
         <v>375</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C66" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="E66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G66" t="s">
+        <v>694</v>
+      </c>
+      <c r="I66" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
         <v>376</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C67" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="E67" t="s">
+        <v>577</v>
+      </c>
+      <c r="G67" t="s">
+        <v>695</v>
+      </c>
+      <c r="I67" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
         <v>377</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C68" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="E68" t="s">
+        <v>578</v>
+      </c>
+      <c r="G68" t="s">
+        <v>696</v>
+      </c>
+      <c r="I68" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
         <v>378</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C69" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="E69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G69" t="s">
+        <v>697</v>
+      </c>
+      <c r="I69" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
         <v>379</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="E70" t="s">
+        <v>580</v>
+      </c>
+      <c r="G70" t="s">
+        <v>698</v>
+      </c>
+      <c r="I70" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
         <v>380</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C71" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="E71" t="s">
+        <v>581</v>
+      </c>
+      <c r="G71" t="s">
+        <v>699</v>
+      </c>
+      <c r="I71" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
         <v>381</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="E72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>700</v>
+      </c>
+      <c r="I72" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
         <v>382</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="E73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>701</v>
+      </c>
+      <c r="I73" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
         <v>383</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C74" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="E74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>702</v>
+      </c>
+      <c r="I74" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
         <v>384</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C75" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="E75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>703</v>
+      </c>
+      <c r="I75" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
         <v>385</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="E76" t="s">
+        <v>586</v>
+      </c>
+      <c r="G76" t="s">
+        <v>704</v>
+      </c>
+      <c r="I76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
         <v>386</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C77" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="E77" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" t="s">
+        <v>705</v>
+      </c>
+      <c r="I77" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
         <v>387</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="E78" t="s">
+        <v>588</v>
+      </c>
+      <c r="G78" t="s">
+        <v>706</v>
+      </c>
+      <c r="I78" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
         <v>388</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C79" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="E79" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" t="s">
+        <v>707</v>
+      </c>
+      <c r="I79" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
         <v>389</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="E80" t="s">
+        <v>590</v>
+      </c>
+      <c r="G80" t="s">
+        <v>708</v>
+      </c>
+      <c r="I80" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
         <v>390</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C81" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="E81" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" t="s">
+        <v>709</v>
+      </c>
+      <c r="I81" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
         <v>391</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C82" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="E82" t="s">
+        <v>592</v>
+      </c>
+      <c r="G82" t="s">
+        <v>710</v>
+      </c>
+      <c r="I82" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
         <v>392</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C83" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="E83" t="s">
+        <v>593</v>
+      </c>
+      <c r="G83" t="s">
+        <v>711</v>
+      </c>
+      <c r="I83" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
         <v>393</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="E84" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" t="s">
+        <v>712</v>
+      </c>
+      <c r="I84" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
         <v>394</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C85" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="E85" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" t="s">
+        <v>713</v>
+      </c>
+      <c r="I85" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
         <v>395</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C86" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="E86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>714</v>
+      </c>
+      <c r="I86" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
         <v>396</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="E87" t="s">
+        <v>597</v>
+      </c>
+      <c r="G87" t="s">
+        <v>715</v>
+      </c>
+      <c r="I87" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
         <v>397</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C88" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="E88" t="s">
+        <v>598</v>
+      </c>
+      <c r="G88" t="s">
+        <v>716</v>
+      </c>
+      <c r="I88" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
         <v>398</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="E89" t="s">
+        <v>599</v>
+      </c>
+      <c r="G89" t="s">
+        <v>717</v>
+      </c>
+      <c r="I89" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
         <v>399</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C90" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="E90" t="s">
+        <v>600</v>
+      </c>
+      <c r="G90" t="s">
+        <v>718</v>
+      </c>
+      <c r="I90" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
         <v>400</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C91" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="E91" t="s">
+        <v>601</v>
+      </c>
+      <c r="G91" t="s">
+        <v>719</v>
+      </c>
+      <c r="I91" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
         <v>401</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="E92" t="s">
+        <v>602</v>
+      </c>
+      <c r="G92" t="s">
+        <v>720</v>
+      </c>
+      <c r="I92" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
         <v>402</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C93" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="E93" t="s">
+        <v>603</v>
+      </c>
+      <c r="G93" t="s">
+        <v>721</v>
+      </c>
+      <c r="I93" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
         <v>403</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C94" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="E94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>722</v>
+      </c>
+      <c r="I94" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
         <v>404</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C95" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="E95" t="s">
+        <v>605</v>
+      </c>
+      <c r="G95" t="s">
+        <v>723</v>
+      </c>
+      <c r="I95" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
         <v>405</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C96" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="E96" t="s">
+        <v>606</v>
+      </c>
+      <c r="G96" t="s">
+        <v>724</v>
+      </c>
+      <c r="I96" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
         <v>406</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C97" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="E97" t="s">
+        <v>607</v>
+      </c>
+      <c r="G97" t="s">
+        <v>725</v>
+      </c>
+      <c r="I97" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
         <v>407</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C98" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="E98" t="s">
+        <v>608</v>
+      </c>
+      <c r="G98" t="s">
+        <v>726</v>
+      </c>
+      <c r="I98" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
         <v>408</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C99" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>409</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E99" t="s">
+        <v>609</v>
+      </c>
+      <c r="G99" t="s">
+        <v>727</v>
+      </c>
+      <c r="I99" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>410</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E100" t="s">
+        <v>610</v>
+      </c>
+      <c r="G100" t="s">
+        <v>728</v>
+      </c>
+      <c r="I100" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>511</v>
+      </c>
+      <c r="C101" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>411</v>
-      </c>
-      <c r="C94" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>412</v>
-      </c>
-      <c r="C95" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>413</v>
-      </c>
-      <c r="C96" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>414</v>
-      </c>
-      <c r="C97" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>415</v>
-      </c>
-      <c r="C98" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>416</v>
-      </c>
-      <c r="C99" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>518</v>
-      </c>
-      <c r="C100" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>519</v>
-      </c>
-      <c r="C101" t="s">
-        <v>517</v>
+      <c r="E101" t="s">
+        <v>611</v>
+      </c>
+      <c r="G101" t="s">
+        <v>729</v>
+      </c>
+      <c r="I101" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -7821,4 +10116,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1523">
   <si>
     <t>文件编号：</t>
   </si>
@@ -4927,6 +4927,10 @@
   </si>
   <si>
     <t>步进电机频率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FQAPEE6自动折弯贴胶机</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5413,7 +5417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5532,9 +5536,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5576,24 +5577,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5611,6 +5594,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7336,8 +7337,8 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7376,12 +7377,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7395,10 +7396,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>856</v>
       </c>
@@ -7412,20 +7413,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="11" t="s">
         <v>141</v>
       </c>
@@ -7437,18 +7438,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -7458,10 +7459,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -7487,14 +7488,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -7510,17 +7511,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7550,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="27" t="s">
         <v>166</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="68"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="36" t="s">
         <v>170</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -7932,7 +7933,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="72" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -8036,7 +8037,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="66"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="66"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="41" t="s">
         <v>144</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="66"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="66"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="41" t="s">
         <v>269</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="66"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="41" t="s">
         <v>270</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="66"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="66"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="73" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -8250,7 +8251,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="65"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="35" t="s">
         <v>158</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="72" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -8331,7 +8332,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="66"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="66"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="66"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="66"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="66"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="66"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="66"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="66"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="66"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="66"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="66"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="66"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="35" t="s">
         <v>151</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="66"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="35" t="s">
         <v>152</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="66"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="35" t="s">
         <v>264</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="66"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="35" t="s">
         <v>107</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="66"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="35" t="s">
         <v>109</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="73" t="s">
         <v>111</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -8778,7 +8779,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="65"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="35" t="s">
         <v>112</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="65"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="35" t="s">
         <v>116</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="65"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="35" t="s">
         <v>118</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="66"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="35" t="s">
         <v>121</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="66"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="35" t="s">
         <v>122</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="66"/>
+      <c r="C60" s="72"/>
       <c r="D60" s="35" t="s">
         <v>148</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="66"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="35" t="s">
         <v>123</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="66"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="35" t="s">
         <v>124</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="66"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="35" t="s">
         <v>126</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="66"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="35" t="s">
         <v>127</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="66"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="35" t="s">
         <v>128</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="66"/>
+      <c r="C66" s="72"/>
       <c r="D66" s="35" t="s">
         <v>129</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="66"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="35" t="s">
         <v>130</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="66"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="35" t="s">
         <v>131</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="66"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="35" t="s">
         <v>132</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="66"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="35" t="s">
         <v>133</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="66"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="35" t="s">
         <v>134</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="66"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="35" t="s">
         <v>135</v>
       </c>
@@ -9186,7 +9187,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="66"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="35" t="s">
         <v>136</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="66"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="35" t="s">
         <v>137</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="35" t="s">
         <v>138</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="66"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="35" t="s">
         <v>139</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="66"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="35" t="s">
         <v>140</v>
       </c>
@@ -9295,6 +9296,16 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C77"/>
+    <mergeCell ref="C8:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -9302,16 +9313,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9336,7 +9337,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="A1:K51"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9345,1327 +9346,1331 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="57" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78">
+        <v>20171107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="79" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48">
+      <c r="A5" s="47">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="80"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>4</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="80"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>5</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>860</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="80"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>6</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="80"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>7</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>853</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="80"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>8</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="80"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>9</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="K12" s="80"/>
+      <c r="K12" s="79"/>
       <c r="M12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>10</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>861</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="80"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>11</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="80"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>12</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="46" t="s">
         <v>857</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="80"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>13</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="80"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>14</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="76"/>
+      <c r="F17" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="80"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="79"/>
       <c r="L17">
         <f>47+41.29+50</f>
         <v>138.29</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>15</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="46" t="s">
         <v>864</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="80"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>16</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>1257</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="46" t="s">
         <v>884</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>885</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="80"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>17</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="78" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>18</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="51"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>19</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>855</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>20</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>21</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>22</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>23</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="48">
+      <c r="A27" s="47">
         <v>24</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="51"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="48">
+      <c r="A28" s="47">
         <v>25</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="51"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="48">
+      <c r="A29" s="47">
         <v>26</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="51"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="48">
+      <c r="A30" s="47">
         <v>27</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="51"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="48">
+      <c r="A31" s="47">
         <v>28</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="51"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="48">
+      <c r="A32" s="47">
         <v>29</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="51"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="48">
+      <c r="A33" s="47">
         <v>30</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="51"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="48">
+      <c r="A34" s="47">
         <v>31</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="51"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>32</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="51"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="48">
+      <c r="A36" s="47">
         <v>81</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="50" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="47" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="78" t="s">
+      <c r="K36" s="77" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="48">
+      <c r="A37" s="47">
         <v>82</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="50" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="47" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="J37" s="49" t="s">
+      <c r="J37" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="K37" s="78"/>
+      <c r="K37" s="77"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="48">
+      <c r="A38" s="47">
         <v>83</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="50" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="47" t="s">
+      <c r="H38" s="49"/>
+      <c r="I38" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="K38" s="78"/>
+      <c r="K38" s="77"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="48">
+      <c r="A39" s="47">
         <v>84</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="50" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="47" t="s">
+      <c r="H39" s="49"/>
+      <c r="I39" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="J39" s="80" t="s">
+      <c r="J39" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="K39" s="78"/>
+      <c r="K39" s="77"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="48">
+      <c r="A40" s="47">
         <v>85</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="50" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="47" t="s">
+      <c r="H40" s="49"/>
+      <c r="I40" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="J40" s="80"/>
-      <c r="K40" s="78"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="77"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="48">
+      <c r="A41" s="47">
         <v>86</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="50" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="47" t="s">
+      <c r="H41" s="49"/>
+      <c r="I41" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="J41" s="80" t="s">
+      <c r="J41" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="77"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="48">
+      <c r="A42" s="47">
         <v>87</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="50" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="47" t="s">
+      <c r="H42" s="49"/>
+      <c r="I42" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="78"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="77"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="48">
+      <c r="A43" s="47">
         <v>88</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="50" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="47" t="s">
+      <c r="H43" s="49"/>
+      <c r="I43" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="78"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="77"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="48">
+      <c r="A44" s="47">
         <v>89</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="50" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="78"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="77"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="48">
+      <c r="A45" s="47">
         <v>90</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="50" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="78"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="77"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="48">
+      <c r="A46" s="47">
         <v>91</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="50" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="47" t="s">
+      <c r="H46" s="49"/>
+      <c r="I46" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="J46" s="76" t="s">
+      <c r="J46" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="77"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="48">
+      <c r="A47" s="47">
         <v>92</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="50" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="47" t="s">
+      <c r="H47" s="49"/>
+      <c r="I47" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="77"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="48">
+      <c r="A48" s="47">
         <v>93</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="50" t="s">
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="47" t="s">
+      <c r="H48" s="49"/>
+      <c r="I48" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="J48" s="76" t="s">
+      <c r="J48" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="77"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="48">
+      <c r="A49" s="47">
         <v>94</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="50" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="H49" s="50"/>
-      <c r="I49" s="47" t="s">
+      <c r="H49" s="49"/>
+      <c r="I49" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="J49" s="77"/>
-      <c r="K49" s="78"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="77"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="48">
+      <c r="A50" s="47">
         <v>95</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="50" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="H50" s="50"/>
-      <c r="I50" s="47" t="s">
+      <c r="H50" s="49"/>
+      <c r="I50" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="J50" s="76" t="s">
+      <c r="J50" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="K50" s="78"/>
+      <c r="K50" s="77"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="48">
+      <c r="A51" s="47">
         <v>96</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="50" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="47" t="s">
+      <c r="H51" s="49"/>
+      <c r="I51" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="J51" s="77"/>
-      <c r="K51" s="78"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="77"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="54"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="55"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="54"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="54"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="55"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="54"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="54"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="55"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="54"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="54"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="55"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="54"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="54"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="55"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="54"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="54"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="55"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="54"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="54"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="55"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="54"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="54"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="55"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="K36:K51"/>
@@ -10677,6 +10682,8 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="J48:J49"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10691,8 +10698,8 @@
   </sheetPr>
   <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P60" sqref="A31:P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10748,7 +10755,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10757,7 +10764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -13460,13 +13467,13 @@
       <c r="A167" t="s">
         <v>1328</v>
       </c>
-      <c r="E167" s="50" t="s">
+      <c r="E167" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="F167" s="63" t="s">
+      <c r="F167" s="62" t="s">
         <v>1252</v>
       </c>
-      <c r="G167" s="50">
+      <c r="G167" s="49">
         <v>73.569999999999993</v>
       </c>
     </row>
@@ -13474,23 +13481,23 @@
       <c r="A168" t="s">
         <v>1329</v>
       </c>
-      <c r="E168" s="50" t="s">
+      <c r="E168" s="49" t="s">
         <v>986</v>
       </c>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>1330</v>
       </c>
-      <c r="E169" s="50" t="s">
+      <c r="E169" s="49" t="s">
         <v>987</v>
       </c>
-      <c r="F169" s="63" t="s">
+      <c r="F169" s="62" t="s">
         <v>1253</v>
       </c>
-      <c r="G169" s="50">
+      <c r="G169" s="49">
         <v>80.209999999999994</v>
       </c>
     </row>
@@ -13498,23 +13505,23 @@
       <c r="A170" t="s">
         <v>1331</v>
       </c>
-      <c r="E170" s="50" t="s">
+      <c r="E170" s="49" t="s">
         <v>988</v>
       </c>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>1332</v>
       </c>
-      <c r="E171" s="50" t="s">
+      <c r="E171" s="49" t="s">
         <v>989</v>
       </c>
-      <c r="F171" s="63" t="s">
+      <c r="F171" s="62" t="s">
         <v>1254</v>
       </c>
-      <c r="G171" s="50">
+      <c r="G171" s="49">
         <v>32.5</v>
       </c>
     </row>
@@ -13522,23 +13529,23 @@
       <c r="A172" t="s">
         <v>1333</v>
       </c>
-      <c r="E172" s="50" t="s">
+      <c r="E172" s="49" t="s">
         <v>990</v>
       </c>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>1334</v>
       </c>
-      <c r="E173" s="50" t="s">
+      <c r="E173" s="49" t="s">
         <v>991</v>
       </c>
-      <c r="F173" s="63" t="s">
+      <c r="F173" s="62" t="s">
         <v>1255</v>
       </c>
-      <c r="G173" s="50">
+      <c r="G173" s="49">
         <v>39.53</v>
       </c>
     </row>
@@ -13546,11 +13553,11 @@
       <c r="A174" t="s">
         <v>1335</v>
       </c>
-      <c r="E174" s="50" t="s">
+      <c r="E174" s="49" t="s">
         <v>992</v>
       </c>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
@@ -15046,113 +15053,113 @@
   </cols>
   <sheetData>
     <row r="28" spans="1:5">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="60" t="s">
         <v>865</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>866</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>867</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="60" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="61">
+      <c r="A29" s="60">
         <v>1</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>869</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="60">
         <v>1</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="61">
+      <c r="A30" s="60">
         <v>2</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>870</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="60">
         <v>11</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>871</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="60" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="61">
+      <c r="A31" s="60">
         <v>3</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="60" t="s">
         <v>873</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="60">
         <v>26</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="61">
+      <c r="A32" s="60">
         <v>4</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
         <v>874</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="60">
         <v>31</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>875</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="60" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="61">
+      <c r="A33" s="60">
         <v>5</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>877</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="60">
         <v>32</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="60" t="s">
         <v>878</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="60" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="61">
+      <c r="A34" s="60">
         <v>6</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="60" t="s">
         <v>880</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="60">
         <v>49</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>881</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="60" t="s">
         <v>882</v>
       </c>
     </row>
@@ -15190,909 +15197,909 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>866</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>866</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="81">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="49">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="80">
         <v>4</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="49">
         <v>1</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="82" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="81" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="81"/>
-      <c r="B3" s="50">
+      <c r="A3" s="80"/>
+      <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="50">
+      <c r="F3" s="77"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="49">
         <v>2</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="81"/>
-      <c r="B4" s="50">
+      <c r="A4" s="80"/>
+      <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="50">
+      <c r="F4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="49">
         <v>3</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="78"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="81"/>
-      <c r="B5" s="50">
+      <c r="A5" s="80"/>
+      <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="50">
+      <c r="F5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="49">
         <v>4</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="M5" s="78"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="81"/>
-      <c r="B6" s="50">
+      <c r="A6" s="80"/>
+      <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="50">
+      <c r="F6" s="77"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="49">
         <v>5</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="M6" s="78"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="81"/>
-      <c r="B7" s="50">
+      <c r="A7" s="80"/>
+      <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>860</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="50">
+      <c r="F7" s="77"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="49">
         <v>6</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="M7" s="78"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="81"/>
-      <c r="B8" s="50">
+      <c r="A8" s="80"/>
+      <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="50">
+      <c r="F8" s="77"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="49">
         <v>7</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="M8" s="78"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="81"/>
-      <c r="B9" s="50">
+      <c r="A9" s="80"/>
+      <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>864</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="50">
+      <c r="F9" s="77"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="49">
         <v>8</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="M9" s="78"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="81"/>
-      <c r="B10" s="50">
+      <c r="A10" s="80"/>
+      <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="50">
+      <c r="F10" s="77"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="49">
         <v>9</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="78"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="81"/>
-      <c r="B11" s="50">
+      <c r="A11" s="80"/>
+      <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="78"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="50">
+      <c r="E11" s="46"/>
+      <c r="F11" s="77"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="49">
         <v>10</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="78"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="81">
+      <c r="A13" s="80">
         <v>2</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>1</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="81" t="s">
         <v>901</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="80">
         <v>5</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="49">
         <v>1</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="82" t="s">
+      <c r="L13" s="49"/>
+      <c r="M13" s="81" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="81"/>
-      <c r="B14" s="50">
+      <c r="A14" s="80"/>
+      <c r="B14" s="49">
         <v>2</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>884</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="50">
+      <c r="F14" s="77"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="49">
         <v>2</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="46" t="s">
         <v>861</v>
       </c>
-      <c r="M14" s="78"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="81"/>
-      <c r="B15" s="50">
+      <c r="A15" s="80"/>
+      <c r="B15" s="49">
         <v>3</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>911</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>897</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="50">
+      <c r="F15" s="77"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="49">
         <v>3</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="78"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="81"/>
-      <c r="B16" s="50">
+      <c r="A16" s="80"/>
+      <c r="B16" s="49">
         <v>4</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="50">
+      <c r="F16" s="77"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="49">
         <v>4</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="M16" s="78"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="81"/>
-      <c r="B17" s="50">
+      <c r="A17" s="80"/>
+      <c r="B17" s="49">
         <v>5</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="50">
+      <c r="F17" s="77"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="49">
         <v>5</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="M17" s="78"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="81"/>
-      <c r="B18" s="50">
+      <c r="A18" s="80"/>
+      <c r="B18" s="49">
         <v>6</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="50">
+      <c r="F18" s="77"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="49">
         <v>6</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="78"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="81"/>
-      <c r="B19" s="50">
+      <c r="A19" s="80"/>
+      <c r="B19" s="49">
         <v>7</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="50">
+      <c r="F19" s="77"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="49">
         <v>7</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="78"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="81"/>
-      <c r="B20" s="50">
+      <c r="A20" s="80"/>
+      <c r="B20" s="49">
         <v>8</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="50">
+      <c r="F20" s="77"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="49">
         <v>8</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="78"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="81"/>
-      <c r="B21" s="50">
+      <c r="A21" s="80"/>
+      <c r="B21" s="49">
         <v>9</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>914</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="50">
+      <c r="F21" s="77"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="49">
         <v>9</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="78"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="81"/>
-      <c r="B22" s="50">
+      <c r="A22" s="80"/>
+      <c r="B22" s="49">
         <v>10</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="78"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="50">
+      <c r="E22" s="46"/>
+      <c r="F22" s="77"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="49">
         <v>10</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="78"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="81">
+      <c r="A24" s="80">
         <v>3</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="49">
         <v>1</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="82" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="81" t="s">
         <v>902</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="80">
         <v>6</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="49">
         <v>1</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="82" t="s">
+      <c r="L24" s="49"/>
+      <c r="M24" s="81" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="81"/>
-      <c r="B25" s="50">
+      <c r="A25" s="80"/>
+      <c r="B25" s="49">
         <v>2</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="46" t="s">
         <v>853</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="50">
+      <c r="F25" s="77"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="49">
         <v>2</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="46" t="s">
         <v>917</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="M25" s="78"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="81"/>
-      <c r="B26" s="50">
+      <c r="A26" s="80"/>
+      <c r="B26" s="49">
         <v>3</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="50">
+      <c r="F26" s="77"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="49">
         <v>3</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="61" t="s">
         <v>889</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>918</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="M26" s="78"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="81"/>
-      <c r="B27" s="50">
+      <c r="A27" s="80"/>
+      <c r="B27" s="49">
         <v>4</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="46" t="s">
         <v>903</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="50">
+      <c r="F27" s="77"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="49">
         <v>4</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="M27" s="78"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="81"/>
-      <c r="B28" s="50">
+      <c r="A28" s="80"/>
+      <c r="B28" s="49">
         <v>5</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>904</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="50">
+      <c r="F28" s="77"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="49">
         <v>5</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="61" t="s">
         <v>880</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="46" t="s">
         <v>920</v>
       </c>
-      <c r="L28" s="47" t="s">
+      <c r="L28" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="M28" s="78"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="81"/>
-      <c r="B29" s="50">
+      <c r="A29" s="80"/>
+      <c r="B29" s="49">
         <v>6</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="50">
+      <c r="F29" s="77"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="49">
         <v>6</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="61" t="s">
         <v>877</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="78"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="81"/>
-      <c r="B30" s="50">
+      <c r="A30" s="80"/>
+      <c r="B30" s="49">
         <v>7</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="50">
+      <c r="F30" s="77"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="49">
         <v>7</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="78"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="81"/>
-      <c r="B31" s="50">
+      <c r="A31" s="80"/>
+      <c r="B31" s="49">
         <v>8</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="78"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="50">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="77"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="49">
         <v>8</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="61" t="s">
         <v>892</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="78"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="81"/>
-      <c r="B32" s="50">
+      <c r="A32" s="80"/>
+      <c r="B32" s="49">
         <v>9</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="78"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="50">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="77"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="49">
         <v>9</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="61" t="s">
         <v>893</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="78"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="81"/>
-      <c r="B33" s="50">
+      <c r="A33" s="80"/>
+      <c r="B33" s="49">
         <v>10</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="78"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="50">
+      <c r="E33" s="46"/>
+      <c r="F33" s="77"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="49">
         <v>10</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="78"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F24:F33"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="M2:M11"/>
     <mergeCell ref="H13:H22"/>
     <mergeCell ref="M13:M22"/>
     <mergeCell ref="H24:H33"/>
     <mergeCell ref="M24:M33"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F24:F33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1525">
   <si>
     <t>文件编号：</t>
   </si>
@@ -4932,6 +4932,12 @@
   <si>
     <t>FQAPEE6自动折弯贴胶机</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电传感器</t>
+  </si>
+  <si>
+    <t>E3ZG-D61</t>
   </si>
 </sst>
 </file>
@@ -5577,6 +5583,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5594,24 +5618,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7335,10 +7341,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7377,12 +7383,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7396,10 +7402,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="7" t="s">
         <v>856</v>
       </c>
@@ -7413,20 +7419,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="11" t="s">
         <v>141</v>
       </c>
@@ -7438,18 +7444,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -7459,10 +7465,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -7488,14 +7494,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -7511,17 +7517,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7551,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="69"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="69"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -7662,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="27" t="s">
         <v>166</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="36" t="s">
         <v>170</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -7933,7 +7939,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="71"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -8037,7 +8043,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="72"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="41" t="s">
         <v>144</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="72"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="41" t="s">
         <v>269</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="41" t="s">
         <v>270</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -8195,7 +8201,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
@@ -8222,7 +8228,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -8251,7 +8257,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="74"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="35" t="s">
         <v>84</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="74"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="35" t="s">
         <v>158</v>
       </c>
@@ -8305,7 +8311,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="65" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -8332,7 +8338,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="35" t="s">
         <v>88</v>
       </c>
@@ -8359,7 +8365,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="72"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="35" t="s">
         <v>90</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="35" t="s">
         <v>92</v>
       </c>
@@ -8409,7 +8415,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="35" t="s">
         <v>93</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="35" t="s">
         <v>94</v>
       </c>
@@ -8457,7 +8463,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="35" t="s">
         <v>96</v>
       </c>
@@ -8484,7 +8490,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="35" t="s">
         <v>99</v>
       </c>
@@ -8511,7 +8517,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="35" t="s">
         <v>102</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="35" t="s">
         <v>104</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="35" t="s">
         <v>105</v>
       </c>
@@ -8617,7 +8623,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="35" t="s">
         <v>151</v>
       </c>
@@ -8639,15 +8645,15 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="26">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="72"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="35" t="s">
-        <v>152</v>
+        <v>1523</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>153</v>
+        <v>1524</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="35" t="s">
@@ -8666,22 +8672,22 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="35" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="35" t="s">
         <v>103</v>
       </c>
       <c r="H51" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="39" t="s">
         <v>45</v>
@@ -8693,22 +8699,22 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="72"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="35" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>883</v>
+        <v>268</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H52" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>45</v>
@@ -8720,15 +8726,15 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="72"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>110</v>
+        <v>883</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="35" t="s">
@@ -8747,21 +8753,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="73" t="s">
-        <v>111</v>
-      </c>
+      <c r="C54" s="65"/>
       <c r="D54" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H54" s="35">
         <v>1</v>
@@ -8776,19 +8780,21 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="26">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="74"/>
+      <c r="C55" s="63" t="s">
+        <v>111</v>
+      </c>
       <c r="D55" s="35" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H55" s="35">
         <v>1</v>
@@ -8803,22 +8809,22 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="26">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="74"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H56" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>45</v>
@@ -8830,22 +8836,22 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="35" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H57" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="39" t="s">
         <v>45</v>
@@ -8855,42 +8861,44 @@
       <c r="L57" s="28"/>
       <c r="M57" s="29"/>
     </row>
-    <row r="58" spans="1:13" ht="12" customHeight="1">
+    <row r="58" spans="1:13">
       <c r="A58" s="26">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="72"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F58" s="43"/>
-      <c r="G58" s="35"/>
+      <c r="G58" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="H58" s="35">
         <v>1</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J58" s="35"/>
       <c r="K58" s="31"/>
       <c r="L58" s="28"/>
       <c r="M58" s="29"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="12" customHeight="1">
       <c r="A59" s="26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="72"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="35"/>
@@ -8907,14 +8915,16 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="26">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="45"/>
+        <v>122</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>143</v>
+      </c>
       <c r="F60" s="43"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35">
@@ -8930,21 +8940,21 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="72"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="42"/>
+        <v>148</v>
+      </c>
+      <c r="E61" s="45"/>
       <c r="F61" s="43"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35">
         <v>1</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="J61" s="35"/>
       <c r="K61" s="31"/>
@@ -8953,19 +8963,21 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="26">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="43"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
+      <c r="H62" s="35">
+        <v>1</v>
+      </c>
       <c r="I62" s="39" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="J62" s="35"/>
       <c r="K62" s="31"/>
@@ -8974,12 +8986,12 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="72"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="43"/>
@@ -8995,12 +9007,12 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="26">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="72"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="43"/>
@@ -9016,12 +9028,12 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="26">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="72"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="43"/>
@@ -9037,12 +9049,12 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="72"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="43"/>
@@ -9058,12 +9070,12 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="26">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="72"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="42"/>
       <c r="F67" s="43"/>
@@ -9079,12 +9091,12 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="26">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="72"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="43"/>
@@ -9100,19 +9112,19 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="72"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="43"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="39" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="J69" s="35"/>
       <c r="K69" s="31"/>
@@ -9121,12 +9133,12 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="26">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="72"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="43"/>
@@ -9142,12 +9154,12 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="72"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
@@ -9163,12 +9175,12 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="26">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="72"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
@@ -9184,12 +9196,12 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="26">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="72"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="43"/>
@@ -9205,12 +9217,12 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="26">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="72"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="43"/>
@@ -9226,19 +9238,19 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="26">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="72"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="43"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="39" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="J75" s="35"/>
       <c r="K75" s="31"/>
@@ -9247,12 +9259,12 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="26">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="72"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="43"/>
@@ -9268,26 +9280,47 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="26">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="72"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="43"/>
       <c r="G77" s="35"/>
-      <c r="H77" s="35">
-        <v>1</v>
-      </c>
+      <c r="H77" s="35"/>
       <c r="I77" s="39" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="J77" s="35"/>
       <c r="K77" s="31"/>
       <c r="L77" s="28"/>
       <c r="M77" s="29"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="26">
+        <v>69</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35">
+        <v>1</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="35"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:M7">
@@ -9296,16 +9329,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -9313,6 +9336,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C78"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10698,7 +10731,7 @@
   </sheetPr>
   <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="P60" sqref="A31:P60"/>
     </sheetView>
   </sheetViews>
@@ -16088,18 +16121,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="M13:M22"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="M24:M33"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="F24:F33"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="M13:M22"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="M24:M33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -320,10 +320,6 @@
     <t>步进电机驱动器</t>
   </si>
   <si>
-    <t>DM542</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>电源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -902,10 +898,6 @@
     <t>SMC真空吹3</t>
   </si>
   <si>
-    <t>R0.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>R0.2</t>
   </si>
   <si>
@@ -4931,6 +4923,14 @@
   </si>
   <si>
     <t>FQAPEE6自动折弯贴胶机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM542</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5577,6 +5577,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5594,24 +5612,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7337,8 +7337,8 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7377,12 +7377,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7396,12 +7396,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
@@ -7413,22 +7413,22 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="8"/>
@@ -7438,18 +7438,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -7459,10 +7459,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -7488,14 +7488,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -7511,28 +7511,28 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
@@ -7551,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="69"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="69"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -7820,22 +7820,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="27">
         <v>1</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="31"/>
@@ -7848,16 +7848,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H20" s="27">
         <v>1</v>
@@ -7875,16 +7875,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="27">
         <v>1</v>
@@ -7895,7 +7895,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="31"/>
       <c r="L21" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="29"/>
     </row>
@@ -7904,14 +7904,14 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="27" t="s">
@@ -7933,7 +7933,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="36" t="s">
         <v>65</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="71"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="36" t="s">
         <v>67</v>
       </c>
@@ -8008,14 +8008,14 @@
         <v>19</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="35" t="s">
@@ -8037,7 +8037,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="72"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="41" t="s">
         <v>72</v>
       </c>
@@ -8064,12 +8064,12 @@
         <v>21</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="72"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="35" t="s">
@@ -8091,12 +8091,12 @@
         <v>22</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="35" t="s">
@@ -8118,9 +8118,9 @@
         <v>23</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="72"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="43"/>
@@ -8143,9 +8143,9 @@
         <v>23</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="43"/>
@@ -8168,7 +8168,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="41" t="s">
         <v>75</v>
       </c>
@@ -8195,12 +8195,12 @@
         <v>25</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="35" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>79</v>
+        <v>1522</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="35" t="s">
@@ -8222,18 +8222,18 @@
         <v>26</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="E34" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>82</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="35">
         <v>3</v>
@@ -8251,16 +8251,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="74"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="35">
         <v>1</v>
@@ -8278,16 +8278,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="74"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>158</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>159</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H36" s="35">
         <v>1</v>
@@ -8305,14 +8305,14 @@
         <v>29</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="72" t="s">
-        <v>173</v>
+      <c r="C37" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="D37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>87</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="35"/>
@@ -8332,16 +8332,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="35">
         <v>3</v>
@@ -8359,16 +8359,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="72"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="35">
         <v>1</v>
@@ -8386,9 +8386,9 @@
         <v>32</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="43"/>
@@ -8409,9 +8409,9 @@
         <v>33</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="43"/>
@@ -8432,12 +8432,12 @@
         <v>34</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>95</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="35"/>
@@ -8457,16 +8457,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="43"/>
       <c r="G43" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="35">
         <v>1</v>
@@ -8484,16 +8484,16 @@
         <v>36</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>100</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H44" s="35">
         <v>8</v>
@@ -8511,16 +8511,16 @@
         <v>37</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H45" s="35">
         <v>1</v>
@@ -8538,16 +8538,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H46" s="35">
         <v>1</v>
@@ -8565,16 +8565,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="35">
         <v>10</v>
@@ -8592,12 +8592,12 @@
         <v>40</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>106</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="35"/>
@@ -8617,12 +8617,12 @@
         <v>41</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="35"/>
@@ -8642,16 +8642,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="72"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>152</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>153</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H50" s="35">
         <v>1</v>
@@ -8669,16 +8669,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H51" s="35">
         <v>2</v>
@@ -8696,16 +8696,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="72"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="35">
         <v>1</v>
@@ -8723,16 +8723,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="72"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>110</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="35">
         <v>1</v>
@@ -8750,18 +8750,18 @@
         <v>46</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>112</v>
-      </c>
       <c r="E54" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H54" s="35">
         <v>1</v>
@@ -8779,16 +8779,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="74"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H55" s="35">
         <v>1</v>
@@ -8806,16 +8806,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="74"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>116</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>117</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56" s="35">
         <v>3</v>
@@ -8833,16 +8833,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H57" s="35">
         <v>1</v>
@@ -8860,9 +8860,9 @@
         <v>50</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="72"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>50</v>
@@ -8885,12 +8885,12 @@
         <v>51</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="72"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="35"/>
@@ -8910,9 +8910,9 @@
         <v>52</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="43"/>
@@ -8933,9 +8933,9 @@
         <v>53</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="72"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="43"/>
@@ -8944,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J61" s="35"/>
       <c r="K61" s="31"/>
@@ -8956,16 +8956,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="43"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J62" s="35"/>
       <c r="K62" s="31"/>
@@ -8977,16 +8977,16 @@
         <v>55</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="72"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="43"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J63" s="35"/>
       <c r="K63" s="31"/>
@@ -8998,16 +8998,16 @@
         <v>56</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="72"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="43"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J64" s="35"/>
       <c r="K64" s="31"/>
@@ -9019,16 +9019,16 @@
         <v>57</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="72"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="43"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J65" s="35"/>
       <c r="K65" s="31"/>
@@ -9040,16 +9040,16 @@
         <v>58</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="72"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="43"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J66" s="35"/>
       <c r="K66" s="31"/>
@@ -9061,16 +9061,16 @@
         <v>59</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="72"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="42"/>
       <c r="F67" s="43"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J67" s="35"/>
       <c r="K67" s="31"/>
@@ -9082,16 +9082,16 @@
         <v>60</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="72"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="43"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
       <c r="I68" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J68" s="35"/>
       <c r="K68" s="31"/>
@@ -9103,9 +9103,9 @@
         <v>61</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="72"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="43"/>
@@ -9124,9 +9124,9 @@
         <v>62</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="72"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="43"/>
@@ -9145,9 +9145,9 @@
         <v>63</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="72"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
@@ -9166,9 +9166,9 @@
         <v>64</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="72"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
@@ -9187,9 +9187,9 @@
         <v>65</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="72"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="43"/>
@@ -9208,9 +9208,9 @@
         <v>66</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="72"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="43"/>
@@ -9229,16 +9229,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="72"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="43"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J75" s="35"/>
       <c r="K75" s="31"/>
@@ -9250,16 +9250,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="72"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="43"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J76" s="35"/>
       <c r="K76" s="31"/>
@@ -9271,9 +9271,9 @@
         <v>69</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="72"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="43"/>
@@ -9296,16 +9296,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C77"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C33"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -9313,6 +9303,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C77"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9337,7 +9337,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9357,13 +9357,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1">
       <c r="A1" s="78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
       <c r="E1" s="78" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
@@ -9389,32 +9389,32 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>179</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="G3" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="J3" s="46" t="s">
         <v>179</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>180</v>
       </c>
       <c r="K3" s="46"/>
     </row>
@@ -9423,27 +9423,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>28</v>
@@ -9454,27 +9454,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K5" s="79"/>
     </row>
@@ -9483,20 +9483,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -9508,20 +9508,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
@@ -9533,20 +9533,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
@@ -9558,20 +9558,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
@@ -9583,20 +9583,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
@@ -9608,20 +9608,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
@@ -9633,31 +9633,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="G12" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>201</v>
-      </c>
       <c r="H12" s="46" t="s">
-        <v>256</v>
+        <v>1521</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K12" s="79"/>
       <c r="M12">
@@ -9669,28 +9669,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="G13" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>861</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>203</v>
-      </c>
       <c r="H13" s="46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="79"/>
@@ -9700,28 +9700,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="G14" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>862</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>205</v>
-      </c>
       <c r="H14" s="46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="79"/>
@@ -9731,26 +9731,26 @@
         <v>12</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="79"/>
@@ -9760,25 +9760,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="G16" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>863</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>209</v>
-      </c>
       <c r="H16" s="46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="55"/>
@@ -9789,23 +9789,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="55"/>
@@ -9820,25 +9820,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="G18" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>864</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>213</v>
-      </c>
       <c r="H18" s="46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="55"/>
@@ -9849,25 +9849,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>882</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>883</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>884</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>885</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>216</v>
-      </c>
       <c r="G19" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="55"/>
@@ -9878,10 +9878,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="48"/>
@@ -9891,7 +9891,7 @@
       <c r="I20" s="49"/>
       <c r="J20" s="55"/>
       <c r="K20" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L20" s="50"/>
     </row>
@@ -9900,10 +9900,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="48"/>
@@ -9920,16 +9920,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -9944,16 +9944,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -9968,16 +9968,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -9992,16 +9992,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -10016,16 +10016,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -10040,10 +10040,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="48"/>
@@ -10060,10 +10060,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="48"/>
@@ -10080,10 +10080,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="48"/>
@@ -10100,10 +10100,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="48"/>
@@ -10120,10 +10120,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="48"/>
@@ -10140,10 +10140,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="48"/>
@@ -10160,10 +10160,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="48"/>
@@ -10180,10 +10180,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="48"/>
@@ -10200,10 +10200,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="48"/>
@@ -10224,17 +10224,17 @@
       <c r="D36" s="49"/>
       <c r="E36" s="52"/>
       <c r="F36" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K36" s="77" t="s">
         <v>39</v>
@@ -10249,17 +10249,17 @@
       <c r="D37" s="49"/>
       <c r="E37" s="52"/>
       <c r="F37" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H37" s="49"/>
       <c r="I37" s="46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K37" s="77"/>
     </row>
@@ -10272,17 +10272,17 @@
       <c r="D38" s="49"/>
       <c r="E38" s="52"/>
       <c r="F38" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J38" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K38" s="77"/>
     </row>
@@ -10295,17 +10295,17 @@
       <c r="D39" s="49"/>
       <c r="E39" s="52"/>
       <c r="F39" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="79" t="s">
         <v>292</v>
-      </c>
-      <c r="J39" s="79" t="s">
-        <v>294</v>
       </c>
       <c r="K39" s="77"/>
     </row>
@@ -10318,14 +10318,14 @@
       <c r="D40" s="49"/>
       <c r="E40" s="52"/>
       <c r="F40" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J40" s="79"/>
       <c r="K40" s="77"/>
@@ -10339,17 +10339,17 @@
       <c r="D41" s="49"/>
       <c r="E41" s="52"/>
       <c r="F41" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J41" s="79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K41" s="77"/>
     </row>
@@ -10362,14 +10362,14 @@
       <c r="D42" s="49"/>
       <c r="E42" s="52"/>
       <c r="F42" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" s="79"/>
       <c r="K42" s="77"/>
@@ -10383,14 +10383,14 @@
       <c r="D43" s="49"/>
       <c r="E43" s="52"/>
       <c r="F43" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="46" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J43" s="79"/>
       <c r="K43" s="77"/>
@@ -10404,10 +10404,10 @@
       <c r="D44" s="49"/>
       <c r="E44" s="52"/>
       <c r="F44" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="46"/>
@@ -10423,10 +10423,10 @@
       <c r="D45" s="49"/>
       <c r="E45" s="52"/>
       <c r="F45" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H45" s="49"/>
       <c r="I45" s="46"/>
@@ -10442,17 +10442,17 @@
       <c r="D46" s="49"/>
       <c r="E46" s="52"/>
       <c r="F46" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H46" s="49"/>
       <c r="I46" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J46" s="75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K46" s="77"/>
     </row>
@@ -10465,14 +10465,14 @@
       <c r="D47" s="49"/>
       <c r="E47" s="52"/>
       <c r="F47" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H47" s="49"/>
       <c r="I47" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J47" s="76"/>
       <c r="K47" s="77"/>
@@ -10486,17 +10486,17 @@
       <c r="D48" s="49"/>
       <c r="E48" s="52"/>
       <c r="F48" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J48" s="75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K48" s="77"/>
     </row>
@@ -10509,14 +10509,14 @@
       <c r="D49" s="49"/>
       <c r="E49" s="52"/>
       <c r="F49" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J49" s="76"/>
       <c r="K49" s="77"/>
@@ -10530,17 +10530,17 @@
       <c r="D50" s="49"/>
       <c r="E50" s="52"/>
       <c r="F50" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J50" s="75" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K50" s="77"/>
     </row>
@@ -10553,14 +10553,14 @@
       <c r="D51" s="49"/>
       <c r="E51" s="52"/>
       <c r="F51" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" s="49"/>
       <c r="I51" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J51" s="76"/>
       <c r="K51" s="77"/>
@@ -10698,7 +10698,7 @@
   </sheetPr>
   <dimension ref="P1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="P60" sqref="A31:P60"/>
     </sheetView>
   </sheetViews>
@@ -10706,7 +10706,7 @@
   <sheetData>
     <row r="1" spans="16:17">
       <c r="P1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q1">
         <v>1</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="2" spans="16:17">
       <c r="P2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="3" spans="16:17">
       <c r="P3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -10730,7 +10730,7 @@
     </row>
     <row r="4" spans="16:17">
       <c r="P4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="5" spans="16:17">
       <c r="P5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -10746,7 +10746,7 @@
     </row>
     <row r="6" spans="16:17">
       <c r="P6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -10781,2697 +10781,2697 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E5" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E9" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E11" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D17" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J17" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H24" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F25" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="H25" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J25" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J26" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J28" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H29" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H31" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J31" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H32" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J32" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J33" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H34" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J34" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H35" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J36" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J37" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J38" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H39" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J39" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J40" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E41" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J41" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H42" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J42" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E43" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H43" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J43" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H44" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J44" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E45" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H46" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J46" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H48" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J48" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H49" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J49" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E50" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H50" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J50" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E51" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H51" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I51" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J51" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E52" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H52" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J52" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H53" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J53" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H54" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J54" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H55" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J55" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E56" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H56" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J56" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J57" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E58" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H58" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J58" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E59" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H59" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J59" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E60" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H60" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C61" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E61" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F61" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H61" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J61" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E62" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H62" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J62" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E63" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F63" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H63" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J63" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E64" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H64" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J64" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C65" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F65" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H65" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J65" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H66" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J66" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E67" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F67" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H67" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J67" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E68" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H68" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J68" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E69" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F69" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H69" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J69" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C70" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H70" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J70" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E71" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F71" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H71" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J71" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E72" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H72" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J72" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E73" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F73" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H73" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J73" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H74" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J74" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E75" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F75" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H75" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J75" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E76" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H76" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J76" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E77" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F77" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H77" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J77" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E78" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H78" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J78" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E79" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F79" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H79" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J79" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E80" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H80" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J80" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E81" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F81" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H81" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J81" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E82" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H82" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E83" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F83" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H83" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J83" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E84" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H84" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J84" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E85" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F85" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H85" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J85" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E86" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H86" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J86" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E87" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F87" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H87" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J87" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E88" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H88" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J88" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E89" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F89" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H89" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J89" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C90" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E90" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H90" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J90" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E91" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F91" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H91" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J91" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C92" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E92" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H92" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J92" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F93" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H93" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J93" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C94" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E94" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H94" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J94" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F95" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H95" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J95" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C96" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E96" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H96" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J96" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C97" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E97" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F97" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H97" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J97" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C98" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E98" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H98" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J98" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E99" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F99" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H99" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J99" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C100" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E100" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H100" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J100" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B101" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E101" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F101" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H101" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J101" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B102" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E102" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B103" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E103" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F103" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B104" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E104" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B105" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E105" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F105" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B106" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E106" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B107" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E107" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F107" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B108" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E108" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B109" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E109" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="F109" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B110" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E110" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B111" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E111" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F111" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B112" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E112" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B113" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E113" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F113" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B114" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E114" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B115" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E115" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F115" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B116" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E116" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B117" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E117" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F117" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B118" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E118" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B119" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E119" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F119" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B120" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E120" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B121" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E121" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F121" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B122" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E122" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B123" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E123" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F123" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B124" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E124" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B125" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E125" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B126" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E126" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B127" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E127" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F127" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B128" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E128" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B129" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E129" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F129" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B130" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E130" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B131" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E131" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F131" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B132" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E132" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B133" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E133" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F133" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B134" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E134" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B135" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E135" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F135" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B136" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E136" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B137" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E137" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F137" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B138" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E138" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B139" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E139" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F139" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E140" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B141" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E141" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F141" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E142" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E143" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F143" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E144" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E145" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F145" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E146" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E147" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F147" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E148" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E149" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F149" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E150" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E151" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F151" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E152" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E153" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F153" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E154" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E155" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F155" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E156" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E157" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F157" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E158" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E159" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F159" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E160" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E161" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F161" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E162" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E163" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F163" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E164" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E165" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F165" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E166" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F167" s="62" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G167" s="49">
         <v>73.569999999999993</v>
@@ -13479,23 +13479,23 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E168" s="49" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F168" s="49"/>
       <c r="G168" s="49"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E169" s="49" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F169" s="62" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G169" s="49">
         <v>80.209999999999994</v>
@@ -13503,23 +13503,23 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F170" s="49"/>
       <c r="G170" s="49"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E171" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F171" s="62" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G171" s="49">
         <v>32.5</v>
@@ -13527,23 +13527,23 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E172" s="49" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F172" s="49"/>
       <c r="G172" s="49"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E173" s="49" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F173" s="62" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G173" s="49">
         <v>39.53</v>
@@ -13551,1468 +13551,1468 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E174" s="49" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F174" s="49"/>
       <c r="G174" s="49"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E175" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E176" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E177" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F177" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E178" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E179" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E180" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E181" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E182" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E183" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E184" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E185" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E186" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E187" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E188" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E189" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E190" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E191" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E192" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E193" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E194" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E195" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E196" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E197" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E198" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E199" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E200" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E201" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E202" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E203" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E204" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E205" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E206" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E207" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E208" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E209" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E210" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E211" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E212" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E213" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E214" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E215" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E216" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E217" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E218" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E219" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E220" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E221" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E222" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E223" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E224" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E225" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E226" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E227" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E228" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E229" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E230" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E231" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E232" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E233" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E234" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E235" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E236" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E237" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E238" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E239" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E240" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E241" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E242" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E243" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E244" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E245" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E246" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E247" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E248" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E249" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E250" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E251" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E252" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E253" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E254" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E255" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E256" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E257" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E258" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E259" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E260" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E261" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E262" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E263" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E264" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E265" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E266" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E267" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E268" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E269" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E270" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E271" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E272" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E273" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E274" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E275" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E276" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E277" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E278" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E279" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E280" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E281" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E282" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E283" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E284" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E285" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E286" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E287" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E288" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E289" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E290" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E291" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E292" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E293" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E294" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E295" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E296" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E297" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E298" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E299" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E300" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="E301" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="E302" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="E303" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="E304" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -15026,7 +15026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
@@ -15043,8 +15043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I49" sqref="A37:I49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15054,19 +15054,19 @@
   <sheetData>
     <row r="28" spans="1:5">
       <c r="A28" s="60" t="s">
+        <v>863</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>864</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>865</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="D28" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="60" t="s">
         <v>866</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>867</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15074,7 +15074,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C29" s="60">
         <v>1</v>
@@ -15087,16 +15087,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C30" s="60">
         <v>11</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -15104,7 +15104,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C31" s="60">
         <v>26</v>
@@ -15117,16 +15117,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C32" s="60">
         <v>31</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15134,16 +15134,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C33" s="60">
         <v>32</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15151,16 +15151,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C34" s="60">
         <v>49</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -15198,36 +15198,36 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L1" s="49"/>
       <c r="M1" s="49" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15238,14 +15238,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="77" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H2" s="80">
         <v>4</v>
@@ -15254,14 +15254,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="81" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15270,13 +15270,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F3" s="77"/>
       <c r="H3" s="80"/>
@@ -15284,13 +15284,13 @@
         <v>2</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="77"/>
     </row>
@@ -15300,13 +15300,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F4" s="77"/>
       <c r="H4" s="80"/>
@@ -15314,13 +15314,13 @@
         <v>3</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M4" s="77"/>
     </row>
@@ -15330,13 +15330,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F5" s="77"/>
       <c r="H5" s="80"/>
@@ -15344,13 +15344,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="77"/>
     </row>
@@ -15360,13 +15360,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F6" s="77"/>
       <c r="H6" s="80"/>
@@ -15374,13 +15374,13 @@
         <v>5</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M6" s="77"/>
     </row>
@@ -15390,13 +15390,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F7" s="77"/>
       <c r="H7" s="80"/>
@@ -15404,13 +15404,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M7" s="77"/>
     </row>
@@ -15420,13 +15420,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F8" s="77"/>
       <c r="H8" s="80"/>
@@ -15434,13 +15434,13 @@
         <v>7</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M8" s="77"/>
     </row>
@@ -15450,13 +15450,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F9" s="77"/>
       <c r="H9" s="80"/>
@@ -15464,13 +15464,13 @@
         <v>8</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M9" s="77"/>
     </row>
@@ -15480,13 +15480,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="77"/>
       <c r="H10" s="80"/>
@@ -15494,7 +15494,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -15506,10 +15506,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="77"/>
@@ -15518,10 +15518,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="K11" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="77"/>
@@ -15534,14 +15534,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="81" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H13" s="80">
         <v>5</v>
@@ -15550,14 +15550,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="81" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -15566,13 +15566,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F14" s="77"/>
       <c r="H14" s="80"/>
@@ -15580,13 +15580,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" s="46" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="M14" s="77"/>
     </row>
@@ -15596,13 +15596,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F15" s="77"/>
       <c r="H15" s="80"/>
@@ -15610,13 +15610,13 @@
         <v>3</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M15" s="77"/>
     </row>
@@ -15626,13 +15626,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F16" s="77"/>
       <c r="H16" s="80"/>
@@ -15640,13 +15640,13 @@
         <v>4</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M16" s="77"/>
     </row>
@@ -15656,13 +15656,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F17" s="77"/>
       <c r="H17" s="80"/>
@@ -15670,13 +15670,13 @@
         <v>5</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L17" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M17" s="77"/>
     </row>
@@ -15686,13 +15686,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F18" s="77"/>
       <c r="H18" s="80"/>
@@ -15700,7 +15700,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
@@ -15712,13 +15712,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F19" s="77"/>
       <c r="H19" s="80"/>
@@ -15726,7 +15726,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
@@ -15738,13 +15738,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F20" s="77"/>
       <c r="H20" s="80"/>
@@ -15752,7 +15752,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -15764,13 +15764,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F21" s="77"/>
       <c r="H21" s="80"/>
@@ -15778,7 +15778,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -15790,10 +15790,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="77"/>
@@ -15802,10 +15802,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="K22" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="77"/>
@@ -15818,14 +15818,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="81" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H24" s="80">
         <v>6</v>
@@ -15834,14 +15834,14 @@
         <v>1</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="81" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -15850,13 +15850,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F25" s="77"/>
       <c r="H25" s="80"/>
@@ -15864,13 +15864,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M25" s="77"/>
     </row>
@@ -15880,13 +15880,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F26" s="77"/>
       <c r="H26" s="80"/>
@@ -15894,13 +15894,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="M26" s="77"/>
     </row>
@@ -15910,13 +15910,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F27" s="77"/>
       <c r="H27" s="80"/>
@@ -15924,13 +15924,13 @@
         <v>4</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M27" s="77"/>
     </row>
@@ -15940,13 +15940,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F28" s="77"/>
       <c r="H28" s="80"/>
@@ -15954,13 +15954,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="M28" s="77"/>
     </row>
@@ -15970,13 +15970,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F29" s="77"/>
       <c r="H29" s="80"/>
@@ -15984,7 +15984,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
@@ -15996,13 +15996,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F30" s="77"/>
       <c r="H30" s="80"/>
@@ -16010,7 +16010,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
@@ -16022,7 +16022,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -16032,7 +16032,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16044,7 +16044,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -16054,7 +16054,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
@@ -16066,10 +16066,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="77"/>
@@ -16078,28 +16078,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="K33" s="49" t="s">
         <v>894</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>896</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="M13:M22"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="M24:M33"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="F24:F33"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="M13:M22"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="M24:M33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="PLC使用记录" sheetId="6" r:id="rId5"/>
     <sheet name="特殊线说明" sheetId="7" r:id="rId6"/>
     <sheet name="多芯线" sheetId="8" r:id="rId7"/>
+    <sheet name="电机参数" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1546">
   <si>
     <t>文件编号：</t>
   </si>
@@ -977,10 +978,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>真空电磁阀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">搬产品 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4975,6 +4972,58 @@
   </si>
   <si>
     <t>入料轴拍照位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>导程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空电磁阀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5621,6 +5670,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5638,24 +5705,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7421,12 +7470,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7440,12 +7489,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
@@ -7457,20 +7506,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="11" t="s">
         <v>139</v>
       </c>
@@ -7482,18 +7531,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -7503,10 +7552,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -7532,14 +7581,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -7555,17 +7604,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7595,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="69"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -7623,7 +7672,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -7651,7 +7700,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="69"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -7679,7 +7728,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -7706,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -7733,7 +7782,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -7760,7 +7809,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -7785,7 +7834,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7810,7 +7859,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -7837,7 +7886,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -7864,7 +7913,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="27" t="s">
         <v>164</v>
       </c>
@@ -7892,7 +7941,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="36" t="s">
         <v>168</v>
       </c>
@@ -7919,7 +7968,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -7948,7 +7997,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -7977,7 +8026,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -8000,12 +8049,12 @@
     <row r="24" spans="1:17">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="38" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>1524</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>1525</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="27"/>
@@ -8013,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="31"/>
@@ -8023,22 +8072,22 @@
     <row r="25" spans="1:17">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="38" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>1526</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>1527</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="27" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H25" s="27">
         <v>1</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="31"/>
@@ -8050,7 +8099,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="36" t="s">
         <v>65</v>
       </c>
@@ -8073,7 +8122,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="71"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="36" t="s">
         <v>66</v>
       </c>
@@ -8098,7 +8147,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="65" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -8127,7 +8176,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="41" t="s">
         <v>71</v>
       </c>
@@ -8154,7 +8203,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="72"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="41" t="s">
         <v>142</v>
       </c>
@@ -8181,7 +8230,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="41" t="s">
         <v>71</v>
       </c>
@@ -8208,7 +8257,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="41" t="s">
         <v>266</v>
       </c>
@@ -8233,7 +8282,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>267</v>
       </c>
@@ -8258,7 +8307,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="72"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="41" t="s">
         <v>74</v>
       </c>
@@ -8285,12 +8334,12 @@
         <v>25</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="72"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="35" t="s">
@@ -8312,7 +8361,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="63" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -8341,7 +8390,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="35" t="s">
         <v>82</v>
       </c>
@@ -8368,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="74"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="35" t="s">
         <v>156</v>
       </c>
@@ -8395,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="65" t="s">
         <v>171</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -8422,7 +8471,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="35" t="s">
         <v>86</v>
       </c>
@@ -8449,7 +8498,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="35" t="s">
         <v>88</v>
       </c>
@@ -8476,7 +8525,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="35" t="s">
         <v>90</v>
       </c>
@@ -8499,7 +8548,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
@@ -8522,7 +8571,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="35" t="s">
         <v>92</v>
       </c>
@@ -8547,7 +8596,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="35" t="s">
         <v>94</v>
       </c>
@@ -8574,7 +8623,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="35" t="s">
         <v>97</v>
       </c>
@@ -8601,7 +8650,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="35" t="s">
         <v>99</v>
       </c>
@@ -8628,7 +8677,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="35" t="s">
         <v>100</v>
       </c>
@@ -8655,7 +8704,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="35" t="s">
         <v>102</v>
       </c>
@@ -8682,7 +8731,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="72"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="35" t="s">
         <v>103</v>
       </c>
@@ -8707,7 +8756,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="35" t="s">
         <v>149</v>
       </c>
@@ -8732,7 +8781,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="72"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="35" t="s">
         <v>150</v>
       </c>
@@ -8759,7 +8808,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="72"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="35" t="s">
         <v>261</v>
       </c>
@@ -8786,12 +8835,12 @@
         <v>44</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="72"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="35" t="s">
@@ -8813,7 +8862,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="72"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="35" t="s">
         <v>107</v>
       </c>
@@ -8840,7 +8889,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="63" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="35" t="s">
@@ -8869,7 +8918,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="35" t="s">
         <v>110</v>
       </c>
@@ -8896,7 +8945,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="74"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="35" t="s">
         <v>114</v>
       </c>
@@ -8923,7 +8972,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="74"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="35" t="s">
         <v>116</v>
       </c>
@@ -8950,7 +8999,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="35" t="s">
         <v>119</v>
       </c>
@@ -8975,7 +9024,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="72"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="35" t="s">
         <v>120</v>
       </c>
@@ -9000,7 +9049,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="35" t="s">
         <v>146</v>
       </c>
@@ -9023,7 +9072,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="72"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="35" t="s">
         <v>121</v>
       </c>
@@ -9046,7 +9095,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="72"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="35" t="s">
         <v>122</v>
       </c>
@@ -9067,7 +9116,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="72"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="35" t="s">
         <v>124</v>
       </c>
@@ -9088,7 +9137,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="72"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="35" t="s">
         <v>125</v>
       </c>
@@ -9109,7 +9158,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="72"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="35" t="s">
         <v>126</v>
       </c>
@@ -9130,7 +9179,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="72"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="35" t="s">
         <v>127</v>
       </c>
@@ -9151,7 +9200,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="72"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="35" t="s">
         <v>128</v>
       </c>
@@ -9172,7 +9221,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="72"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="35" t="s">
         <v>129</v>
       </c>
@@ -9193,7 +9242,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="72"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="35" t="s">
         <v>130</v>
       </c>
@@ -9214,7 +9263,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="72"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="35" t="s">
         <v>131</v>
       </c>
@@ -9235,7 +9284,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="72"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="35" t="s">
         <v>132</v>
       </c>
@@ -9256,7 +9305,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="72"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="35" t="s">
         <v>133</v>
       </c>
@@ -9277,7 +9326,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="72"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="35" t="s">
         <v>134</v>
       </c>
@@ -9298,7 +9347,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="72"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="35" t="s">
         <v>135</v>
       </c>
@@ -9319,7 +9368,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="72"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="35" t="s">
         <v>136</v>
       </c>
@@ -9340,7 +9389,7 @@
         <v>68</v>
       </c>
       <c r="B78" s="27"/>
-      <c r="C78" s="72"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="35" t="s">
         <v>137</v>
       </c>
@@ -9361,7 +9410,7 @@
         <v>69</v>
       </c>
       <c r="B79" s="27"/>
-      <c r="C79" s="72"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="35" t="s">
         <v>138</v>
       </c>
@@ -9386,16 +9435,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C79"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C35"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -9403,6 +9442,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C79"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9426,8 +9475,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9453,7 +9502,7 @@
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
       <c r="E1" s="78" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
@@ -9519,7 +9568,7 @@
         <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="46" t="s">
@@ -9550,7 +9599,7 @@
         <v>183</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="46" t="s">
@@ -9579,7 +9628,7 @@
         <v>185</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="46" t="s">
@@ -9604,7 +9653,7 @@
         <v>187</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="46" t="s">
@@ -9629,7 +9678,7 @@
         <v>189</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="46" t="s">
@@ -9654,7 +9703,7 @@
         <v>192</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="46" t="s">
@@ -9679,7 +9728,7 @@
         <v>194</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="46" t="s">
@@ -9704,7 +9753,7 @@
         <v>196</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="46" t="s">
@@ -9729,7 +9778,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>273</v>
@@ -9741,10 +9790,10 @@
         <v>199</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>277</v>
+        <v>1544</v>
       </c>
       <c r="J12" s="55" t="s">
         <v>272</v>
@@ -9765,10 +9814,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>201</v>
@@ -9796,10 +9845,10 @@
         <v>202</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>203</v>
@@ -9827,7 +9876,7 @@
         <v>204</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="46" t="s">
@@ -9840,7 +9889,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="79"/>
@@ -9856,7 +9905,7 @@
         <v>206</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E16" s="75" t="s">
         <v>272</v>
@@ -9885,7 +9934,7 @@
         <v>208</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="46" t="s">
@@ -9916,7 +9965,7 @@
         <v>210</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>274</v>
@@ -9942,13 +9991,13 @@
         <v>213</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D19" s="46" t="s">
+        <v>880</v>
+      </c>
+      <c r="E19" s="48" t="s">
         <v>881</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>882</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>214</v>
@@ -10019,7 +10068,7 @@
         <v>271</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -10040,7 +10089,7 @@
         <v>219</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>273</v>
@@ -10064,7 +10113,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>273</v>
@@ -10088,10 +10137,10 @@
         <v>221</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -10321,7 +10370,7 @@
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J36" s="48" t="s">
         <v>273</v>
@@ -10346,10 +10395,10 @@
       </c>
       <c r="H37" s="49"/>
       <c r="I37" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K37" s="77"/>
     </row>
@@ -10369,10 +10418,10 @@
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" s="59" t="s">
         <v>285</v>
-      </c>
-      <c r="J38" s="59" t="s">
-        <v>286</v>
       </c>
       <c r="K38" s="77"/>
     </row>
@@ -10392,10 +10441,10 @@
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J39" s="79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39" s="77"/>
     </row>
@@ -10415,7 +10464,7 @@
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J40" s="79"/>
       <c r="K40" s="77"/>
@@ -10436,7 +10485,7 @@
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J41" s="79" t="s">
         <v>272</v>
@@ -10480,7 +10529,7 @@
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J43" s="79"/>
       <c r="K43" s="77"/>
@@ -10630,7 +10679,7 @@
         <v>252</v>
       </c>
       <c r="J50" s="75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K50" s="77"/>
     </row>
@@ -10796,7 +10845,7 @@
   <sheetData>
     <row r="1" spans="16:17">
       <c r="P1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q1">
         <v>1</v>
@@ -10804,7 +10853,7 @@
     </row>
     <row r="2" spans="16:17">
       <c r="P2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -10812,7 +10861,7 @@
     </row>
     <row r="3" spans="16:17">
       <c r="P3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -10820,7 +10869,7 @@
     </row>
     <row r="4" spans="16:17">
       <c r="P4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -10828,7 +10877,7 @@
     </row>
     <row r="5" spans="16:17">
       <c r="P5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -10836,7 +10885,7 @@
     </row>
     <row r="6" spans="16:17">
       <c r="P6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -10854,8 +10903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10871,2700 +10920,2721 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" t="s">
         <v>611</v>
       </c>
-      <c r="E1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H1" t="s">
-        <v>612</v>
-      </c>
       <c r="I1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F3" t="s">
         <v>596</v>
       </c>
-      <c r="E3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F3" t="s">
-        <v>597</v>
-      </c>
       <c r="H3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F5" t="s">
         <v>598</v>
       </c>
-      <c r="E5" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F5" t="s">
-        <v>599</v>
-      </c>
       <c r="H5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F7" t="s">
         <v>600</v>
       </c>
-      <c r="E7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F7" t="s">
-        <v>601</v>
-      </c>
       <c r="H7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
+        <v>601</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F9" t="s">
         <v>602</v>
       </c>
-      <c r="E9" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F9" t="s">
-        <v>603</v>
-      </c>
       <c r="H9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
+        <v>843</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H11" t="s">
+        <v>621</v>
+      </c>
+      <c r="I11" t="s">
+        <v>723</v>
+      </c>
+      <c r="J11" t="s">
+        <v>747</v>
+      </c>
+      <c r="K11" t="s">
         <v>844</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F11" t="s">
-        <v>604</v>
-      </c>
-      <c r="H11" t="s">
-        <v>622</v>
-      </c>
-      <c r="I11" t="s">
-        <v>724</v>
-      </c>
-      <c r="J11" t="s">
-        <v>748</v>
-      </c>
-      <c r="K11" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D17" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D21" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I24" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F25" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H25" t="s">
-        <v>636</v>
+        <v>635</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1538</v>
       </c>
       <c r="J25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H26" t="s">
-        <v>637</v>
+        <v>636</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1541</v>
       </c>
       <c r="J26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H27" t="s">
-        <v>638</v>
+        <v>637</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1542</v>
       </c>
       <c r="J27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H28" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1539</v>
       </c>
       <c r="J28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
-        <v>640</v>
+        <v>639</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1543</v>
       </c>
       <c r="J29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H30" t="s">
-        <v>641</v>
+        <v>640</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1540</v>
       </c>
       <c r="J30" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1545</v>
       </c>
       <c r="H31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J36" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H40" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J41" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E44" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H46" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J47" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H49" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J49" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J50" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H51" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J51" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H52" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H53" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J53" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H54" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J54" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J55" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H56" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J56" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H57" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J57" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J58" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E59" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J59" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J60" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F61" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H61" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E63" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F63" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H63" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F65" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E66" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H66" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E67" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F67" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J67" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E68" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H68" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F69" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E70" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E71" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F71" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H71" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J71" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J72" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E73" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F73" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H73" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J73" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E74" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J74" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F75" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H75" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H76" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J76" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E77" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F77" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J77" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C78" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H78" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J78" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F79" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J79" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H80" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J80" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F81" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H81" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J81" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H82" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J82" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F83" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H83" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J83" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E84" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H84" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J84" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E85" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F85" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H85" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J85" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H86" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J86" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F87" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J87" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E88" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H88" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J88" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F89" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H89" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J89" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E90" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J90" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E91" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F91" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H91" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H92" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J92" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F93" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H93" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J93" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E94" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H94" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J94" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E95" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F95" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J95" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E96" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H96" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J96" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C97" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F97" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H97" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J97" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C98" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H98" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J98" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F99" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H99" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J99" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E100" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J100" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B101" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C101" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F101" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H101" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J101" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B102" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E102" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B103" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E103" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F103" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B104" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E104" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B105" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E105" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F105" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B106" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E106" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B107" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E107" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F107" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B108" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E108" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B109" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E109" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F109" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B110" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E110" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B111" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E111" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F111" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B112" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E112" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B113" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E113" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F113" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B114" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E114" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B115" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E115" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F115" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B116" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E116" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B117" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E117" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F117" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B118" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E118" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B119" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E119" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F119" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B120" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E120" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B121" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E121" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F121" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B122" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E122" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B123" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E123" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F123" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B124" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E124" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B125" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E125" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F125" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B126" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E126" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B127" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E127" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F127" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B128" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E128" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B129" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E129" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F129" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B130" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E130" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B131" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E131" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F131" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B132" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E132" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B133" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E133" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F133" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B134" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E134" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B135" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E135" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F135" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B136" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E136" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B137" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E137" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F137" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B138" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E138" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B139" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E139" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F139" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E140" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B141" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E141" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F141" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E142" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E143" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F143" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E144" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E145" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F145" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E146" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E147" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F147" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E148" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E149" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F149" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E150" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E151" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F151" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E152" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E153" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F153" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E154" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E155" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F155" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E156" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E157" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F157" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E158" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E159" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F159" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E160" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E161" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F161" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E162" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E163" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F163" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E164" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E165" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F165" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E166" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F167" s="62" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G167" s="49">
         <v>73.569999999999993</v>
@@ -13572,23 +13642,23 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E168" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F168" s="49"/>
       <c r="G168" s="49"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E169" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F169" s="62" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G169" s="49">
         <v>80.209999999999994</v>
@@ -13596,23 +13666,23 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F170" s="49"/>
       <c r="G170" s="49"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E171" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F171" s="62" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G171" s="49">
         <v>32.5</v>
@@ -13620,23 +13690,23 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E172" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F172" s="49"/>
       <c r="G172" s="49"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E173" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F173" s="62" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G173" s="49">
         <v>39.53</v>
@@ -13644,1477 +13714,1477 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E174" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F174" s="49"/>
       <c r="G174" s="49"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E175" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E176" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E177" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F177" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E178" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E179" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F179" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E180" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E181" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F181" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E182" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E183" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F183" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E184" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E185" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E186" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E188" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E189" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E190" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E191" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E192" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E193" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E194" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E195" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E196" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E197" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E198" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E199" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E200" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E201" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E202" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E203" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E204" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E205" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E206" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E207" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E208" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E209" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E210" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E211" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E212" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E213" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E214" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E215" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E216" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E217" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E218" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E219" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E220" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E221" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E222" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E223" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E224" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E225" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E226" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E227" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E228" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E229" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E230" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E231" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E232" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E233" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E234" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E235" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E236" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E237" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E238" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E239" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E240" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E241" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E242" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E243" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E244" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E245" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E246" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E247" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E248" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E249" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E250" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E251" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E252" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E253" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E254" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E255" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E256" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E257" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E258" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E259" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E260" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E261" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E262" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E263" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E264" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E265" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E266" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E267" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E268" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E269" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E270" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E271" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E272" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E273" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E274" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E275" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E276" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E277" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E278" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E279" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E280" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E281" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E282" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E283" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E284" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E285" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E286" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E287" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E288" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E289" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E290" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E291" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E292" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E293" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E294" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E295" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E296" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E297" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E298" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E299" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E300" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="E301" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="E302" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="E303" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="E304" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -15156,19 +15226,19 @@
   <sheetData>
     <row r="28" spans="1:5">
       <c r="A28" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>862</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="C28" s="60" t="s">
         <v>863</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>864</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>177</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15176,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C29" s="60">
         <v>1</v>
@@ -15189,16 +15259,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C30" s="60">
         <v>11</v>
       </c>
       <c r="D30" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="E30" s="60" t="s">
         <v>868</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -15206,7 +15276,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C31" s="60">
         <v>26</v>
@@ -15219,16 +15289,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C32" s="60">
         <v>31</v>
       </c>
       <c r="D32" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="E32" s="60" t="s">
         <v>872</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15236,16 +15306,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C33" s="60">
         <v>32</v>
       </c>
       <c r="D33" s="60" t="s">
+        <v>874</v>
+      </c>
+      <c r="E33" s="60" t="s">
         <v>875</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15253,16 +15323,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C34" s="60">
         <v>49</v>
       </c>
       <c r="D34" s="60" t="s">
+        <v>877</v>
+      </c>
+      <c r="E34" s="60" t="s">
         <v>878</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -15300,36 +15370,36 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I1" s="60" t="s">
         <v>175</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="L1" s="49"/>
       <c r="M1" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15340,10 +15410,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="77" t="s">
@@ -15356,14 +15426,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="81" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15372,13 +15442,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F3" s="77"/>
       <c r="H3" s="80"/>
@@ -15386,7 +15456,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>242</v>
@@ -15402,13 +15472,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F4" s="77"/>
       <c r="H4" s="80"/>
@@ -15416,7 +15486,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K4" s="49" t="s">
         <v>243</v>
@@ -15432,13 +15502,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>185</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F5" s="77"/>
       <c r="H5" s="80"/>
@@ -15446,7 +15516,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>244</v>
@@ -15462,13 +15532,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>187</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F6" s="77"/>
       <c r="H6" s="80"/>
@@ -15476,7 +15546,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K6" s="49" t="s">
         <v>245</v>
@@ -15492,13 +15562,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F7" s="77"/>
       <c r="H7" s="80"/>
@@ -15506,13 +15576,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>198</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M7" s="77"/>
     </row>
@@ -15522,13 +15592,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F8" s="77"/>
       <c r="H8" s="80"/>
@@ -15536,13 +15606,13 @@
         <v>7</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>219</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M8" s="77"/>
     </row>
@@ -15552,13 +15622,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>210</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F9" s="77"/>
       <c r="H9" s="80"/>
@@ -15566,13 +15636,13 @@
         <v>8</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>220</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M9" s="77"/>
     </row>
@@ -15582,7 +15652,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>222</v>
@@ -15596,7 +15666,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -15608,10 +15678,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="77"/>
@@ -15620,10 +15690,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="77"/>
@@ -15636,14 +15706,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="81" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H13" s="80">
         <v>5</v>
@@ -15652,14 +15722,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="81" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -15668,13 +15738,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F14" s="77"/>
       <c r="H14" s="80"/>
@@ -15682,13 +15752,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>200</v>
       </c>
       <c r="L14" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M14" s="77"/>
     </row>
@@ -15698,13 +15768,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F15" s="77"/>
       <c r="H15" s="80"/>
@@ -15712,13 +15782,13 @@
         <v>3</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>221</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M15" s="77"/>
     </row>
@@ -15728,13 +15798,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F16" s="77"/>
       <c r="H16" s="80"/>
@@ -15742,7 +15812,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>246</v>
@@ -15758,13 +15828,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>206</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F17" s="77"/>
       <c r="H17" s="80"/>
@@ -15772,7 +15842,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K17" s="49" t="s">
         <v>247</v>
@@ -15788,13 +15858,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>208</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="77"/>
       <c r="H18" s="80"/>
@@ -15802,7 +15872,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
@@ -15814,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>218</v>
@@ -15828,7 +15898,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
@@ -15840,13 +15910,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F20" s="77"/>
       <c r="H20" s="80"/>
@@ -15854,7 +15924,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -15866,13 +15936,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F21" s="77"/>
       <c r="H21" s="80"/>
@@ -15880,7 +15950,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -15892,10 +15962,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="77"/>
@@ -15904,10 +15974,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="77"/>
@@ -15920,14 +15990,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="81" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H24" s="80">
         <v>6</v>
@@ -15936,14 +16006,14 @@
         <v>1</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="81" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -15952,13 +16022,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F25" s="77"/>
       <c r="H25" s="80"/>
@@ -15966,13 +16036,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M25" s="77"/>
     </row>
@@ -15982,13 +16052,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>196</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F26" s="77"/>
       <c r="H26" s="80"/>
@@ -15996,13 +16066,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M26" s="77"/>
     </row>
@@ -16012,13 +16082,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F27" s="77"/>
       <c r="H27" s="80"/>
@@ -16026,13 +16096,13 @@
         <v>4</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M27" s="77"/>
     </row>
@@ -16042,13 +16112,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F28" s="77"/>
       <c r="H28" s="80"/>
@@ -16056,13 +16126,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M28" s="77"/>
     </row>
@@ -16072,13 +16142,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>202</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F29" s="77"/>
       <c r="H29" s="80"/>
@@ -16086,7 +16156,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
@@ -16098,13 +16168,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F30" s="77"/>
       <c r="H30" s="80"/>
@@ -16112,7 +16182,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
@@ -16124,7 +16194,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -16134,7 +16204,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16146,7 +16216,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -16156,7 +16226,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
@@ -16168,10 +16238,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="77"/>
@@ -16180,31 +16250,91 @@
         <v>10</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="M13:M22"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="M24:M33"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="F24:F33"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="M13:M22"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="M24:M33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <f>B3*50</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B4">
+        <v>360</v>
+      </c>
+      <c r="D4">
+        <f>B4*50</f>
+        <v>18000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1549">
   <si>
     <t>文件编号：</t>
   </si>
@@ -5024,6 +5024,18 @@
   </si>
   <si>
     <t>产量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘有无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GigE相机准备好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB相机准备好</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5670,24 +5682,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5705,6 +5699,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7470,12 +7482,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7489,10 +7501,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>852</v>
       </c>
@@ -7506,20 +7518,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="11" t="s">
         <v>139</v>
       </c>
@@ -7531,18 +7543,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -7552,10 +7564,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -7581,14 +7593,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -7604,17 +7616,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="66"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7644,7 +7656,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -7672,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="67"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -7700,7 +7712,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -7728,7 +7740,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="67"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -7782,7 +7794,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="67"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -7809,7 +7821,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -7834,7 +7846,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="67"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7859,7 +7871,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="67"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -7886,7 +7898,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="67"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -7913,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="67"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="27" t="s">
         <v>164</v>
       </c>
@@ -7941,7 +7953,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="67"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="36" t="s">
         <v>168</v>
       </c>
@@ -7968,7 +7980,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -7997,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -8026,7 +8038,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="67"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -8049,7 +8061,7 @@
     <row r="24" spans="1:17">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="67"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="38" t="s">
         <v>1523</v>
       </c>
@@ -8072,7 +8084,7 @@
     <row r="25" spans="1:17">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="38" t="s">
         <v>1525</v>
       </c>
@@ -8099,7 +8111,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="36" t="s">
         <v>65</v>
       </c>
@@ -8122,7 +8134,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="36" t="s">
         <v>66</v>
       </c>
@@ -8147,7 +8159,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="72" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -8176,7 +8188,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="41" t="s">
         <v>71</v>
       </c>
@@ -8203,7 +8215,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="41" t="s">
         <v>142</v>
       </c>
@@ -8230,7 +8242,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="65"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="41" t="s">
         <v>71</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="41" t="s">
         <v>266</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="41" t="s">
         <v>267</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="41" t="s">
         <v>74</v>
       </c>
@@ -8334,7 +8346,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="35" t="s">
         <v>77</v>
       </c>
@@ -8361,7 +8373,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="73" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -8390,7 +8402,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="64"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="35" t="s">
         <v>82</v>
       </c>
@@ -8417,7 +8429,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="64"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="35" t="s">
         <v>156</v>
       </c>
@@ -8444,7 +8456,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="72" t="s">
         <v>171</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -8471,7 +8483,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="65"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="35" t="s">
         <v>86</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="65"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="35" t="s">
         <v>88</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="65"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="35" t="s">
         <v>90</v>
       </c>
@@ -8548,7 +8560,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="65"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
@@ -8571,7 +8583,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="65"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="35" t="s">
         <v>92</v>
       </c>
@@ -8596,7 +8608,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="65"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="35" t="s">
         <v>94</v>
       </c>
@@ -8623,7 +8635,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="65"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="35" t="s">
         <v>97</v>
       </c>
@@ -8650,7 +8662,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="65"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="35" t="s">
         <v>99</v>
       </c>
@@ -8677,7 +8689,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="65"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="35" t="s">
         <v>100</v>
       </c>
@@ -8704,7 +8716,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="65"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="35" t="s">
         <v>102</v>
       </c>
@@ -8731,7 +8743,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="65"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="35" t="s">
         <v>103</v>
       </c>
@@ -8756,7 +8768,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="65"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="35" t="s">
         <v>149</v>
       </c>
@@ -8781,7 +8793,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="65"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="35" t="s">
         <v>150</v>
       </c>
@@ -8808,7 +8820,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="65"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="35" t="s">
         <v>261</v>
       </c>
@@ -8835,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="65"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="35" t="s">
         <v>105</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="65"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="35" t="s">
         <v>107</v>
       </c>
@@ -8889,7 +8901,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="73" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="35" t="s">
@@ -8918,7 +8930,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="64"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="35" t="s">
         <v>110</v>
       </c>
@@ -8945,7 +8957,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="64"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="35" t="s">
         <v>114</v>
       </c>
@@ -8972,7 +8984,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="64"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="35" t="s">
         <v>116</v>
       </c>
@@ -8999,7 +9011,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="65"/>
+      <c r="C60" s="72"/>
       <c r="D60" s="35" t="s">
         <v>119</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="65"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="35" t="s">
         <v>120</v>
       </c>
@@ -9049,7 +9061,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="65"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="35" t="s">
         <v>146</v>
       </c>
@@ -9072,7 +9084,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="65"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="35" t="s">
         <v>121</v>
       </c>
@@ -9095,7 +9107,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="65"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="35" t="s">
         <v>122</v>
       </c>
@@ -9116,7 +9128,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="65"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="35" t="s">
         <v>124</v>
       </c>
@@ -9137,7 +9149,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="65"/>
+      <c r="C66" s="72"/>
       <c r="D66" s="35" t="s">
         <v>125</v>
       </c>
@@ -9158,7 +9170,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="65"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="35" t="s">
         <v>126</v>
       </c>
@@ -9179,7 +9191,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="65"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="35" t="s">
         <v>127</v>
       </c>
@@ -9200,7 +9212,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="35" t="s">
         <v>128</v>
       </c>
@@ -9221,7 +9233,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="65"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="35" t="s">
         <v>129</v>
       </c>
@@ -9242,7 +9254,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="65"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="35" t="s">
         <v>130</v>
       </c>
@@ -9263,7 +9275,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="65"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="35" t="s">
         <v>131</v>
       </c>
@@ -9284,7 +9296,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="65"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="35" t="s">
         <v>132</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="65"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="35" t="s">
         <v>133</v>
       </c>
@@ -9326,7 +9338,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="65"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="35" t="s">
         <v>134</v>
       </c>
@@ -9347,7 +9359,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="65"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="35" t="s">
         <v>135</v>
       </c>
@@ -9368,7 +9380,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="65"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="35" t="s">
         <v>136</v>
       </c>
@@ -9389,7 +9401,7 @@
         <v>68</v>
       </c>
       <c r="B78" s="27"/>
-      <c r="C78" s="65"/>
+      <c r="C78" s="72"/>
       <c r="D78" s="35" t="s">
         <v>137</v>
       </c>
@@ -9410,7 +9422,7 @@
         <v>69</v>
       </c>
       <c r="B79" s="27"/>
-      <c r="C79" s="65"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="35" t="s">
         <v>138</v>
       </c>
@@ -9435,6 +9447,16 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C79"/>
+    <mergeCell ref="C8:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C35"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -9442,16 +9464,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C79"/>
-    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9475,8 +9487,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9994,7 +10006,7 @@
         <v>1251</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>880</v>
+        <v>1546</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>881</v>
@@ -10903,8 +10915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13394,6 +13406,9 @@
       <c r="A142" t="s">
         <v>1297</v>
       </c>
+      <c r="B142" t="s">
+        <v>1548</v>
+      </c>
       <c r="E142" t="s">
         <v>958</v>
       </c>
@@ -13401,6 +13416,9 @@
     <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>1298</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1547</v>
       </c>
       <c r="E143" t="s">
         <v>959</v>
@@ -16260,18 +16278,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F24:F33"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="M2:M11"/>
     <mergeCell ref="H13:H22"/>
     <mergeCell ref="M13:M22"/>
     <mergeCell ref="H24:H33"/>
     <mergeCell ref="M24:M33"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F24:F33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -10915,8 +10915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1558">
   <si>
     <t>文件编号：</t>
   </si>
@@ -1006,10 +1006,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>旋转气缸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>入料</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3970,1073 +3966,1108 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>贴胶轴放料位置1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴放料位置12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴放料位置1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴放料位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴等待位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴等待位置1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴等待位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴间距</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴间距</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴间距</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴间距</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20072</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0.15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20062</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码OK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5101</t>
+  </si>
+  <si>
+    <t>有无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5102</t>
+  </si>
+  <si>
+    <t>M5103</t>
+  </si>
+  <si>
+    <t>M5104</t>
+  </si>
+  <si>
+    <t>M5105</t>
+  </si>
+  <si>
+    <t>M5106</t>
+  </si>
+  <si>
+    <t>M5107</t>
+  </si>
+  <si>
+    <t>M5108</t>
+  </si>
+  <si>
+    <t>M5109</t>
+  </si>
+  <si>
+    <t>M5110</t>
+  </si>
+  <si>
+    <t>M5111</t>
+  </si>
+  <si>
+    <t>M5112</t>
+  </si>
+  <si>
+    <t>M5113</t>
+  </si>
+  <si>
+    <t>M5114</t>
+  </si>
+  <si>
+    <t>M5115</t>
+  </si>
+  <si>
+    <t>M5116</t>
+  </si>
+  <si>
+    <t>M5117</t>
+  </si>
+  <si>
+    <t>M5118</t>
+  </si>
+  <si>
+    <t>M5119</t>
+  </si>
+  <si>
+    <t>M5120</t>
+  </si>
+  <si>
+    <t>M5121</t>
+  </si>
+  <si>
+    <t>M5122</t>
+  </si>
+  <si>
+    <t>M5123</t>
+  </si>
+  <si>
+    <t>M5124</t>
+  </si>
+  <si>
+    <t>M5125</t>
+  </si>
+  <si>
+    <t>M5126</t>
+  </si>
+  <si>
+    <t>M5127</t>
+  </si>
+  <si>
+    <t>M5128</t>
+  </si>
+  <si>
+    <t>M5129</t>
+  </si>
+  <si>
+    <t>M5130</t>
+  </si>
+  <si>
+    <t>M5131</t>
+  </si>
+  <si>
+    <t>M5132</t>
+  </si>
+  <si>
+    <t>M5133</t>
+  </si>
+  <si>
+    <t>M5134</t>
+  </si>
+  <si>
+    <t>M5135</t>
+  </si>
+  <si>
+    <t>M5136</t>
+  </si>
+  <si>
+    <t>M5137</t>
+  </si>
+  <si>
+    <t>M5138</t>
+  </si>
+  <si>
+    <t>M5139</t>
+  </si>
+  <si>
+    <t>M5140</t>
+  </si>
+  <si>
+    <t>M5141</t>
+  </si>
+  <si>
+    <t>M5142</t>
+  </si>
+  <si>
+    <t>M5143</t>
+  </si>
+  <si>
+    <t>M5144</t>
+  </si>
+  <si>
+    <t>M5145</t>
+  </si>
+  <si>
+    <t>M5146</t>
+  </si>
+  <si>
+    <t>M5147</t>
+  </si>
+  <si>
+    <t>M5148</t>
+  </si>
+  <si>
+    <t>M5149</t>
+  </si>
+  <si>
+    <t>M5150</t>
+  </si>
+  <si>
+    <t>M5151</t>
+  </si>
+  <si>
+    <t>M5152</t>
+  </si>
+  <si>
+    <t>M5153</t>
+  </si>
+  <si>
+    <t>M5154</t>
+  </si>
+  <si>
+    <t>M5155</t>
+  </si>
+  <si>
+    <t>M5156</t>
+  </si>
+  <si>
+    <t>M5157</t>
+  </si>
+  <si>
+    <t>M5158</t>
+  </si>
+  <si>
+    <t>M5159</t>
+  </si>
+  <si>
+    <t>M5160</t>
+  </si>
+  <si>
+    <t>M5161</t>
+  </si>
+  <si>
+    <t>M5162</t>
+  </si>
+  <si>
+    <t>M5163</t>
+  </si>
+  <si>
+    <t>M5164</t>
+  </si>
+  <si>
+    <t>M5165</t>
+  </si>
+  <si>
+    <t>M5166</t>
+  </si>
+  <si>
+    <t>M5167</t>
+  </si>
+  <si>
+    <t>M5168</t>
+  </si>
+  <si>
+    <t>M5169</t>
+  </si>
+  <si>
+    <t>M5170</t>
+  </si>
+  <si>
+    <t>M5171</t>
+  </si>
+  <si>
+    <t>M5172</t>
+  </si>
+  <si>
+    <t>M5173</t>
+  </si>
+  <si>
+    <t>M5174</t>
+  </si>
+  <si>
+    <t>M5175</t>
+  </si>
+  <si>
+    <t>M5176</t>
+  </si>
+  <si>
+    <t>M5177</t>
+  </si>
+  <si>
+    <t>M5178</t>
+  </si>
+  <si>
+    <t>M5179</t>
+  </si>
+  <si>
+    <t>M5180</t>
+  </si>
+  <si>
+    <t>M5181</t>
+  </si>
+  <si>
+    <t>M5182</t>
+  </si>
+  <si>
+    <t>M5183</t>
+  </si>
+  <si>
+    <t>M5184</t>
+  </si>
+  <si>
+    <t>M5185</t>
+  </si>
+  <si>
+    <t>M5186</t>
+  </si>
+  <si>
+    <t>M5187</t>
+  </si>
+  <si>
+    <t>M5188</t>
+  </si>
+  <si>
+    <t>M5189</t>
+  </si>
+  <si>
+    <t>M5190</t>
+  </si>
+  <si>
+    <t>M5191</t>
+  </si>
+  <si>
+    <t>M5192</t>
+  </si>
+  <si>
+    <t>M5193</t>
+  </si>
+  <si>
+    <t>M5194</t>
+  </si>
+  <si>
+    <t>M5195</t>
+  </si>
+  <si>
+    <t>M5196</t>
+  </si>
+  <si>
+    <t>M5197</t>
+  </si>
+  <si>
+    <t>M5198</t>
+  </si>
+  <si>
+    <t>M5199</t>
+  </si>
+  <si>
+    <t>M5200</t>
+  </si>
+  <si>
+    <t>M5201</t>
+  </si>
+  <si>
+    <t>M5202</t>
+  </si>
+  <si>
+    <t>M5203</t>
+  </si>
+  <si>
+    <t>M5204</t>
+  </si>
+  <si>
+    <t>M5205</t>
+  </si>
+  <si>
+    <t>M5206</t>
+  </si>
+  <si>
+    <t>M5207</t>
+  </si>
+  <si>
+    <t>M5208</t>
+  </si>
+  <si>
+    <t>M5209</t>
+  </si>
+  <si>
+    <t>M5210</t>
+  </si>
+  <si>
+    <t>M5211</t>
+  </si>
+  <si>
+    <t>M5212</t>
+  </si>
+  <si>
+    <t>M5213</t>
+  </si>
+  <si>
+    <t>M5214</t>
+  </si>
+  <si>
+    <t>M5215</t>
+  </si>
+  <si>
+    <t>M5216</t>
+  </si>
+  <si>
+    <t>M5217</t>
+  </si>
+  <si>
+    <t>M5218</t>
+  </si>
+  <si>
+    <t>M5219</t>
+  </si>
+  <si>
+    <t>M5220</t>
+  </si>
+  <si>
+    <t>M5221</t>
+  </si>
+  <si>
+    <t>M5222</t>
+  </si>
+  <si>
+    <t>M5223</t>
+  </si>
+  <si>
+    <t>M5224</t>
+  </si>
+  <si>
+    <t>M5225</t>
+  </si>
+  <si>
+    <t>M5226</t>
+  </si>
+  <si>
+    <t>M5227</t>
+  </si>
+  <si>
+    <t>M5228</t>
+  </si>
+  <si>
+    <t>M5229</t>
+  </si>
+  <si>
+    <t>M5230</t>
+  </si>
+  <si>
+    <t>M5231</t>
+  </si>
+  <si>
+    <t>M5232</t>
+  </si>
+  <si>
+    <t>M5233</t>
+  </si>
+  <si>
+    <t>M5234</t>
+  </si>
+  <si>
+    <t>M5235</t>
+  </si>
+  <si>
+    <t>M5236</t>
+  </si>
+  <si>
+    <t>M5237</t>
+  </si>
+  <si>
+    <t>M5238</t>
+  </si>
+  <si>
+    <t>M5239</t>
+  </si>
+  <si>
+    <t>M5240</t>
+  </si>
+  <si>
+    <t>M5241</t>
+  </si>
+  <si>
+    <t>M5242</t>
+  </si>
+  <si>
+    <t>M5243</t>
+  </si>
+  <si>
+    <t>M5244</t>
+  </si>
+  <si>
+    <t>M5245</t>
+  </si>
+  <si>
+    <t>M5246</t>
+  </si>
+  <si>
+    <t>M5247</t>
+  </si>
+  <si>
+    <t>M5248</t>
+  </si>
+  <si>
+    <t>M5249</t>
+  </si>
+  <si>
+    <t>M5250</t>
+  </si>
+  <si>
+    <t>M5251</t>
+  </si>
+  <si>
+    <t>M5252</t>
+  </si>
+  <si>
+    <t>M5253</t>
+  </si>
+  <si>
+    <t>M5254</t>
+  </si>
+  <si>
+    <t>M5255</t>
+  </si>
+  <si>
+    <t>M5256</t>
+  </si>
+  <si>
+    <t>M5257</t>
+  </si>
+  <si>
+    <t>M5258</t>
+  </si>
+  <si>
+    <t>M5259</t>
+  </si>
+  <si>
+    <t>M5260</t>
+  </si>
+  <si>
+    <t>M5261</t>
+  </si>
+  <si>
+    <t>M5262</t>
+  </si>
+  <si>
+    <t>M5263</t>
+  </si>
+  <si>
+    <t>M5264</t>
+  </si>
+  <si>
+    <t>M5265</t>
+  </si>
+  <si>
+    <t>M5266</t>
+  </si>
+  <si>
+    <t>M5267</t>
+  </si>
+  <si>
+    <t>M5268</t>
+  </si>
+  <si>
+    <t>M5269</t>
+  </si>
+  <si>
+    <t>M5270</t>
+  </si>
+  <si>
+    <t>M5271</t>
+  </si>
+  <si>
+    <t>M5272</t>
+  </si>
+  <si>
+    <t>M5273</t>
+  </si>
+  <si>
+    <t>M5274</t>
+  </si>
+  <si>
+    <t>M5275</t>
+  </si>
+  <si>
+    <t>M5276</t>
+  </si>
+  <si>
+    <t>M5277</t>
+  </si>
+  <si>
+    <t>M5278</t>
+  </si>
+  <si>
+    <t>M5279</t>
+  </si>
+  <si>
+    <t>M5280</t>
+  </si>
+  <si>
+    <t>M5281</t>
+  </si>
+  <si>
+    <t>M5282</t>
+  </si>
+  <si>
+    <t>M5283</t>
+  </si>
+  <si>
+    <t>M5284</t>
+  </si>
+  <si>
+    <t>M5285</t>
+  </si>
+  <si>
+    <t>M5286</t>
+  </si>
+  <si>
+    <t>M5287</t>
+  </si>
+  <si>
+    <t>M5288</t>
+  </si>
+  <si>
+    <t>M5289</t>
+  </si>
+  <si>
+    <t>M5290</t>
+  </si>
+  <si>
+    <t>M5291</t>
+  </si>
+  <si>
+    <t>M5292</t>
+  </si>
+  <si>
+    <t>M5293</t>
+  </si>
+  <si>
+    <t>M5294</t>
+  </si>
+  <si>
+    <t>M5295</t>
+  </si>
+  <si>
+    <t>M5296</t>
+  </si>
+  <si>
+    <t>M5297</t>
+  </si>
+  <si>
+    <t>M5298</t>
+  </si>
+  <si>
+    <t>M5299</t>
+  </si>
+  <si>
+    <t>有无完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置1有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2有</t>
+  </si>
+  <si>
+    <t>位置3有</t>
+  </si>
+  <si>
+    <t>位置4有</t>
+  </si>
+  <si>
+    <t>位置5有</t>
+  </si>
+  <si>
+    <t>位置6有</t>
+  </si>
+  <si>
+    <t>位置7有</t>
+  </si>
+  <si>
+    <t>位置8有</t>
+  </si>
+  <si>
+    <t>位置9有</t>
+  </si>
+  <si>
+    <t>位置10有</t>
+  </si>
+  <si>
+    <t>位置11有</t>
+  </si>
+  <si>
+    <t>位置12有</t>
+  </si>
+  <si>
+    <t>位置13有</t>
+  </si>
+  <si>
+    <t>位置14有</t>
+  </si>
+  <si>
+    <t>位置15有</t>
+  </si>
+  <si>
+    <t>位置16有</t>
+  </si>
+  <si>
+    <t>位置17有</t>
+  </si>
+  <si>
+    <t>位置18有</t>
+  </si>
+  <si>
+    <t>位置19有</t>
+  </si>
+  <si>
+    <t>位置20有</t>
+  </si>
+  <si>
+    <t>位置21有</t>
+  </si>
+  <si>
+    <t>位置22有</t>
+  </si>
+  <si>
+    <t>位置23有</t>
+  </si>
+  <si>
+    <t>位置24有</t>
+  </si>
+  <si>
+    <t>位置25有</t>
+  </si>
+  <si>
+    <t>位置26有</t>
+  </si>
+  <si>
+    <t>位置27有</t>
+  </si>
+  <si>
+    <t>位置28有</t>
+  </si>
+  <si>
+    <t>位置29有</t>
+  </si>
+  <si>
+    <t>位置30有</t>
+  </si>
+  <si>
+    <t>位置31有</t>
+  </si>
+  <si>
+    <t>位置32有</t>
+  </si>
+  <si>
+    <t>位置33有</t>
+  </si>
+  <si>
+    <t>位置34有</t>
+  </si>
+  <si>
+    <t>位置35有</t>
+  </si>
+  <si>
+    <t>位置36有</t>
+  </si>
+  <si>
+    <t>D20090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20162</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20116</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20108</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正拍照完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正拍照</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码FAIL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20106</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20144</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20164</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20160</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20148</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴工作位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>步进电机频率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FQAPEE6自动折弯贴胶机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM542</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转后退位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品拍照躲避位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动2</t>
+  </si>
+  <si>
+    <t>镜头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2518-MPW2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMK 72AUC02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>映美精</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20178</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前拍照序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴拍照位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴拍照位置2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>导程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空电磁阀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘有无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GigE相机准备好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB相机准备好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转气缸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>旋转轴贴胶位置</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>贴胶轴放料位置1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴放料位置12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转轴放料位置1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转轴放料位置2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴位置2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴位置3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴位置4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴位置5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴位置6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴等待位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴等待位置1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴等待位置2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料轴间距</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出料轴间距</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴间距</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴间距</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20072</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X0.15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20062</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码OK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5101</t>
-  </si>
-  <si>
-    <t>有无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5102</t>
-  </si>
-  <si>
-    <t>M5103</t>
-  </si>
-  <si>
-    <t>M5104</t>
-  </si>
-  <si>
-    <t>M5105</t>
-  </si>
-  <si>
-    <t>M5106</t>
-  </si>
-  <si>
-    <t>M5107</t>
-  </si>
-  <si>
-    <t>M5108</t>
-  </si>
-  <si>
-    <t>M5109</t>
-  </si>
-  <si>
-    <t>M5110</t>
-  </si>
-  <si>
-    <t>M5111</t>
-  </si>
-  <si>
-    <t>M5112</t>
-  </si>
-  <si>
-    <t>M5113</t>
-  </si>
-  <si>
-    <t>M5114</t>
-  </si>
-  <si>
-    <t>M5115</t>
-  </si>
-  <si>
-    <t>M5116</t>
-  </si>
-  <si>
-    <t>M5117</t>
-  </si>
-  <si>
-    <t>M5118</t>
-  </si>
-  <si>
-    <t>M5119</t>
-  </si>
-  <si>
-    <t>M5120</t>
-  </si>
-  <si>
-    <t>M5121</t>
-  </si>
-  <si>
-    <t>M5122</t>
-  </si>
-  <si>
-    <t>M5123</t>
-  </si>
-  <si>
-    <t>M5124</t>
-  </si>
-  <si>
-    <t>M5125</t>
-  </si>
-  <si>
-    <t>M5126</t>
-  </si>
-  <si>
-    <t>M5127</t>
-  </si>
-  <si>
-    <t>M5128</t>
-  </si>
-  <si>
-    <t>M5129</t>
-  </si>
-  <si>
-    <t>M5130</t>
-  </si>
-  <si>
-    <t>M5131</t>
-  </si>
-  <si>
-    <t>M5132</t>
-  </si>
-  <si>
-    <t>M5133</t>
-  </si>
-  <si>
-    <t>M5134</t>
-  </si>
-  <si>
-    <t>M5135</t>
-  </si>
-  <si>
-    <t>M5136</t>
-  </si>
-  <si>
-    <t>M5137</t>
-  </si>
-  <si>
-    <t>M5138</t>
-  </si>
-  <si>
-    <t>M5139</t>
-  </si>
-  <si>
-    <t>M5140</t>
-  </si>
-  <si>
-    <t>M5141</t>
-  </si>
-  <si>
-    <t>M5142</t>
-  </si>
-  <si>
-    <t>M5143</t>
-  </si>
-  <si>
-    <t>M5144</t>
-  </si>
-  <si>
-    <t>M5145</t>
-  </si>
-  <si>
-    <t>M5146</t>
-  </si>
-  <si>
-    <t>M5147</t>
-  </si>
-  <si>
-    <t>M5148</t>
-  </si>
-  <si>
-    <t>M5149</t>
-  </si>
-  <si>
-    <t>M5150</t>
-  </si>
-  <si>
-    <t>M5151</t>
-  </si>
-  <si>
-    <t>M5152</t>
-  </si>
-  <si>
-    <t>M5153</t>
-  </si>
-  <si>
-    <t>M5154</t>
-  </si>
-  <si>
-    <t>M5155</t>
-  </si>
-  <si>
-    <t>M5156</t>
-  </si>
-  <si>
-    <t>M5157</t>
-  </si>
-  <si>
-    <t>M5158</t>
-  </si>
-  <si>
-    <t>M5159</t>
-  </si>
-  <si>
-    <t>M5160</t>
-  </si>
-  <si>
-    <t>M5161</t>
-  </si>
-  <si>
-    <t>M5162</t>
-  </si>
-  <si>
-    <t>M5163</t>
-  </si>
-  <si>
-    <t>M5164</t>
-  </si>
-  <si>
-    <t>M5165</t>
-  </si>
-  <si>
-    <t>M5166</t>
-  </si>
-  <si>
-    <t>M5167</t>
-  </si>
-  <si>
-    <t>M5168</t>
-  </si>
-  <si>
-    <t>M5169</t>
-  </si>
-  <si>
-    <t>M5170</t>
-  </si>
-  <si>
-    <t>M5171</t>
-  </si>
-  <si>
-    <t>M5172</t>
-  </si>
-  <si>
-    <t>M5173</t>
-  </si>
-  <si>
-    <t>M5174</t>
-  </si>
-  <si>
-    <t>M5175</t>
-  </si>
-  <si>
-    <t>M5176</t>
-  </si>
-  <si>
-    <t>M5177</t>
-  </si>
-  <si>
-    <t>M5178</t>
-  </si>
-  <si>
-    <t>M5179</t>
-  </si>
-  <si>
-    <t>M5180</t>
-  </si>
-  <si>
-    <t>M5181</t>
-  </si>
-  <si>
-    <t>M5182</t>
-  </si>
-  <si>
-    <t>M5183</t>
-  </si>
-  <si>
-    <t>M5184</t>
-  </si>
-  <si>
-    <t>M5185</t>
-  </si>
-  <si>
-    <t>M5186</t>
-  </si>
-  <si>
-    <t>M5187</t>
-  </si>
-  <si>
-    <t>M5188</t>
-  </si>
-  <si>
-    <t>M5189</t>
-  </si>
-  <si>
-    <t>M5190</t>
-  </si>
-  <si>
-    <t>M5191</t>
-  </si>
-  <si>
-    <t>M5192</t>
-  </si>
-  <si>
-    <t>M5193</t>
-  </si>
-  <si>
-    <t>M5194</t>
-  </si>
-  <si>
-    <t>M5195</t>
-  </si>
-  <si>
-    <t>M5196</t>
-  </si>
-  <si>
-    <t>M5197</t>
-  </si>
-  <si>
-    <t>M5198</t>
-  </si>
-  <si>
-    <t>M5199</t>
-  </si>
-  <si>
-    <t>M5200</t>
-  </si>
-  <si>
-    <t>M5201</t>
-  </si>
-  <si>
-    <t>M5202</t>
-  </si>
-  <si>
-    <t>M5203</t>
-  </si>
-  <si>
-    <t>M5204</t>
-  </si>
-  <si>
-    <t>M5205</t>
-  </si>
-  <si>
-    <t>M5206</t>
-  </si>
-  <si>
-    <t>M5207</t>
-  </si>
-  <si>
-    <t>M5208</t>
-  </si>
-  <si>
-    <t>M5209</t>
-  </si>
-  <si>
-    <t>M5210</t>
-  </si>
-  <si>
-    <t>M5211</t>
-  </si>
-  <si>
-    <t>M5212</t>
-  </si>
-  <si>
-    <t>M5213</t>
-  </si>
-  <si>
-    <t>M5214</t>
-  </si>
-  <si>
-    <t>M5215</t>
-  </si>
-  <si>
-    <t>M5216</t>
-  </si>
-  <si>
-    <t>M5217</t>
-  </si>
-  <si>
-    <t>M5218</t>
-  </si>
-  <si>
-    <t>M5219</t>
-  </si>
-  <si>
-    <t>M5220</t>
-  </si>
-  <si>
-    <t>M5221</t>
-  </si>
-  <si>
-    <t>M5222</t>
-  </si>
-  <si>
-    <t>M5223</t>
-  </si>
-  <si>
-    <t>M5224</t>
-  </si>
-  <si>
-    <t>M5225</t>
-  </si>
-  <si>
-    <t>M5226</t>
-  </si>
-  <si>
-    <t>M5227</t>
-  </si>
-  <si>
-    <t>M5228</t>
-  </si>
-  <si>
-    <t>M5229</t>
-  </si>
-  <si>
-    <t>M5230</t>
-  </si>
-  <si>
-    <t>M5231</t>
-  </si>
-  <si>
-    <t>M5232</t>
-  </si>
-  <si>
-    <t>M5233</t>
-  </si>
-  <si>
-    <t>M5234</t>
-  </si>
-  <si>
-    <t>M5235</t>
-  </si>
-  <si>
-    <t>M5236</t>
-  </si>
-  <si>
-    <t>M5237</t>
-  </si>
-  <si>
-    <t>M5238</t>
-  </si>
-  <si>
-    <t>M5239</t>
-  </si>
-  <si>
-    <t>M5240</t>
-  </si>
-  <si>
-    <t>M5241</t>
-  </si>
-  <si>
-    <t>M5242</t>
-  </si>
-  <si>
-    <t>M5243</t>
-  </si>
-  <si>
-    <t>M5244</t>
-  </si>
-  <si>
-    <t>M5245</t>
-  </si>
-  <si>
-    <t>M5246</t>
-  </si>
-  <si>
-    <t>M5247</t>
-  </si>
-  <si>
-    <t>M5248</t>
-  </si>
-  <si>
-    <t>M5249</t>
-  </si>
-  <si>
-    <t>M5250</t>
-  </si>
-  <si>
-    <t>M5251</t>
-  </si>
-  <si>
-    <t>M5252</t>
-  </si>
-  <si>
-    <t>M5253</t>
-  </si>
-  <si>
-    <t>M5254</t>
-  </si>
-  <si>
-    <t>M5255</t>
-  </si>
-  <si>
-    <t>M5256</t>
-  </si>
-  <si>
-    <t>M5257</t>
-  </si>
-  <si>
-    <t>M5258</t>
-  </si>
-  <si>
-    <t>M5259</t>
-  </si>
-  <si>
-    <t>M5260</t>
-  </si>
-  <si>
-    <t>M5261</t>
-  </si>
-  <si>
-    <t>M5262</t>
-  </si>
-  <si>
-    <t>M5263</t>
-  </si>
-  <si>
-    <t>M5264</t>
-  </si>
-  <si>
-    <t>M5265</t>
-  </si>
-  <si>
-    <t>M5266</t>
-  </si>
-  <si>
-    <t>M5267</t>
-  </si>
-  <si>
-    <t>M5268</t>
-  </si>
-  <si>
-    <t>M5269</t>
-  </si>
-  <si>
-    <t>M5270</t>
-  </si>
-  <si>
-    <t>M5271</t>
-  </si>
-  <si>
-    <t>M5272</t>
-  </si>
-  <si>
-    <t>M5273</t>
-  </si>
-  <si>
-    <t>M5274</t>
-  </si>
-  <si>
-    <t>M5275</t>
-  </si>
-  <si>
-    <t>M5276</t>
-  </si>
-  <si>
-    <t>M5277</t>
-  </si>
-  <si>
-    <t>M5278</t>
-  </si>
-  <si>
-    <t>M5279</t>
-  </si>
-  <si>
-    <t>M5280</t>
-  </si>
-  <si>
-    <t>M5281</t>
-  </si>
-  <si>
-    <t>M5282</t>
-  </si>
-  <si>
-    <t>M5283</t>
-  </si>
-  <si>
-    <t>M5284</t>
-  </si>
-  <si>
-    <t>M5285</t>
-  </si>
-  <si>
-    <t>M5286</t>
-  </si>
-  <si>
-    <t>M5287</t>
-  </si>
-  <si>
-    <t>M5288</t>
-  </si>
-  <si>
-    <t>M5289</t>
-  </si>
-  <si>
-    <t>M5290</t>
-  </si>
-  <si>
-    <t>M5291</t>
-  </si>
-  <si>
-    <t>M5292</t>
-  </si>
-  <si>
-    <t>M5293</t>
-  </si>
-  <si>
-    <t>M5294</t>
-  </si>
-  <si>
-    <t>M5295</t>
-  </si>
-  <si>
-    <t>M5296</t>
-  </si>
-  <si>
-    <t>M5297</t>
-  </si>
-  <si>
-    <t>M5298</t>
-  </si>
-  <si>
-    <t>M5299</t>
-  </si>
-  <si>
-    <t>有无完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置1有</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置2有</t>
-  </si>
-  <si>
-    <t>位置3有</t>
-  </si>
-  <si>
-    <t>位置4有</t>
-  </si>
-  <si>
-    <t>位置5有</t>
-  </si>
-  <si>
-    <t>位置6有</t>
-  </si>
-  <si>
-    <t>位置7有</t>
-  </si>
-  <si>
-    <t>位置8有</t>
-  </si>
-  <si>
-    <t>位置9有</t>
-  </si>
-  <si>
-    <t>位置10有</t>
-  </si>
-  <si>
-    <t>位置11有</t>
-  </si>
-  <si>
-    <t>位置12有</t>
-  </si>
-  <si>
-    <t>位置13有</t>
-  </si>
-  <si>
-    <t>位置14有</t>
-  </si>
-  <si>
-    <t>位置15有</t>
-  </si>
-  <si>
-    <t>位置16有</t>
-  </si>
-  <si>
-    <t>位置17有</t>
-  </si>
-  <si>
-    <t>位置18有</t>
-  </si>
-  <si>
-    <t>位置19有</t>
-  </si>
-  <si>
-    <t>位置20有</t>
-  </si>
-  <si>
-    <t>位置21有</t>
-  </si>
-  <si>
-    <t>位置22有</t>
-  </si>
-  <si>
-    <t>位置23有</t>
-  </si>
-  <si>
-    <t>位置24有</t>
-  </si>
-  <si>
-    <t>位置25有</t>
-  </si>
-  <si>
-    <t>位置26有</t>
-  </si>
-  <si>
-    <t>位置27有</t>
-  </si>
-  <si>
-    <t>位置28有</t>
-  </si>
-  <si>
-    <t>位置29有</t>
-  </si>
-  <si>
-    <t>位置30有</t>
-  </si>
-  <si>
-    <t>位置31有</t>
-  </si>
-  <si>
-    <t>位置32有</t>
-  </si>
-  <si>
-    <t>位置33有</t>
-  </si>
-  <si>
-    <t>位置34有</t>
-  </si>
-  <si>
-    <t>位置35有</t>
-  </si>
-  <si>
-    <t>位置36有</t>
-  </si>
-  <si>
-    <t>D20090</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20162</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20116</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20108</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>矫正拍照完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y偏移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>U偏移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X偏移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>矫正拍照</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码FAIL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20106</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20144</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20164</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20160</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20148</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴工作位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>步进电机频率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FQAPEE6自动折弯贴胶机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM542</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转后退位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品拍照躲避位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动2</t>
-  </si>
-  <si>
-    <t>镜头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2518-MPW2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMK 72AUC02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>映美精</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20178</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前拍照序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料轴拍照位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料轴拍照位置2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>导程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分辨率1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分辨率2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出料轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴胶轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入料轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬产品轴停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>真空电磁阀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>产量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>料盘有无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GigE相机准备好</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB相机准备好</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>旋转轴贴胶补偿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴胶轴吐膜位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬产品轴位置8</t>
+  </si>
+  <si>
+    <t>搬产品轴位置9</t>
+  </si>
+  <si>
+    <t>搬产品轴位置10</t>
+  </si>
+  <si>
+    <t>搬产品轴位置11</t>
+  </si>
+  <si>
+    <t>搬产品轴位置12</t>
   </si>
 </sst>
 </file>
@@ -7446,19 +7477,19 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="77.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -7506,7 +7537,7 @@
       </c>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
@@ -7621,7 +7652,7 @@
       </c>
       <c r="M7" s="70"/>
     </row>
-    <row r="8" spans="1:17" ht="13.5">
+    <row r="8" spans="1:17" ht="14.4">
       <c r="A8" s="26">
         <v>1</v>
       </c>
@@ -7920,7 +7951,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5">
+    <row r="19" spans="1:17" ht="14.4">
       <c r="A19" s="26">
         <v>12</v>
       </c>
@@ -7975,7 +8006,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5">
+    <row r="21" spans="1:17" ht="14.4">
       <c r="A21" s="26">
         <v>14</v>
       </c>
@@ -8063,10 +8094,10 @@
       <c r="B24" s="27"/>
       <c r="C24" s="69"/>
       <c r="D24" s="38" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="27"/>
@@ -8074,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="31"/>
@@ -8086,20 +8117,20 @@
       <c r="B25" s="27"/>
       <c r="C25" s="69"/>
       <c r="D25" s="38" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="27" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H25" s="27">
         <v>1</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="31"/>
@@ -8314,7 +8345,7 @@
       <c r="L33" s="28"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" ht="13.5">
+    <row r="34" spans="1:13" ht="14.4">
       <c r="A34" s="26">
         <v>24</v>
       </c>
@@ -8351,7 +8382,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="35" t="s">
@@ -8711,7 +8742,7 @@
       <c r="L48" s="28"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="1:13" ht="13.5">
+    <row r="49" spans="1:13" ht="14.4">
       <c r="A49" s="26">
         <v>39</v>
       </c>
@@ -8852,7 +8883,7 @@
         <v>105</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="35" t="s">
@@ -9487,23 +9518,23 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="57" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1">
@@ -9514,7 +9545,7 @@
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
       <c r="E1" s="78" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
@@ -9580,7 +9611,7 @@
         <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="46" t="s">
@@ -9611,7 +9642,7 @@
         <v>183</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="46" t="s">
@@ -9640,7 +9671,7 @@
         <v>185</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="46" t="s">
@@ -9665,7 +9696,7 @@
         <v>187</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="46" t="s">
@@ -9690,7 +9721,7 @@
         <v>189</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="46" t="s">
@@ -9715,7 +9746,7 @@
         <v>192</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="46" t="s">
@@ -9740,7 +9771,7 @@
         <v>194</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="46" t="s">
@@ -9765,7 +9796,7 @@
         <v>196</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="46" t="s">
@@ -9790,7 +9821,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>273</v>
@@ -9802,10 +9833,10 @@
         <v>199</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="J12" s="55" t="s">
         <v>272</v>
@@ -9826,7 +9857,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>278</v>
@@ -9857,10 +9888,10 @@
         <v>202</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>203</v>
@@ -9888,7 +9919,7 @@
         <v>204</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="46" t="s">
@@ -9901,7 +9932,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="79"/>
@@ -9917,7 +9948,7 @@
         <v>206</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E16" s="75" t="s">
         <v>272</v>
@@ -9946,7 +9977,7 @@
         <v>208</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="46" t="s">
@@ -9977,7 +10008,7 @@
         <v>210</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>274</v>
@@ -10003,13 +10034,13 @@
         <v>213</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>214</v>
@@ -10080,7 +10111,7 @@
         <v>271</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -10256,7 +10287,9 @@
       <c r="C30" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>1548</v>
+      </c>
       <c r="E30" s="48"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
@@ -10430,10 +10463,10 @@
       </c>
       <c r="H38" s="49"/>
       <c r="I38" s="46" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J38" s="59" t="s">
         <v>284</v>
-      </c>
-      <c r="J38" s="59" t="s">
-        <v>285</v>
       </c>
       <c r="K38" s="77"/>
     </row>
@@ -10453,10 +10486,10 @@
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J39" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K39" s="77"/>
     </row>
@@ -10476,7 +10509,7 @@
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J40" s="79"/>
       <c r="K40" s="77"/>
@@ -10497,7 +10530,7 @@
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J41" s="79" t="s">
         <v>272</v>
@@ -10541,7 +10574,7 @@
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J43" s="79"/>
       <c r="K43" s="77"/>
@@ -10853,11 +10886,11 @@
       <selection activeCell="P60" sqref="A31:P60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="16:17">
       <c r="P1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q1">
         <v>1</v>
@@ -10865,7 +10898,7 @@
     </row>
     <row r="2" spans="16:17">
       <c r="P2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -10873,7 +10906,7 @@
     </row>
     <row r="3" spans="16:17">
       <c r="P3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -10881,7 +10914,7 @@
     </row>
     <row r="4" spans="16:17">
       <c r="P4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -10889,7 +10922,7 @@
     </row>
     <row r="5" spans="16:17">
       <c r="P5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -10897,7 +10930,7 @@
     </row>
     <row r="6" spans="16:17">
       <c r="P6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -10915,2744 +10948,2745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="6" max="7" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" t="s">
         <v>610</v>
       </c>
-      <c r="E1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H1" t="s">
-        <v>611</v>
-      </c>
       <c r="I1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F3" t="s">
         <v>595</v>
       </c>
-      <c r="E3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F3" t="s">
-        <v>596</v>
-      </c>
       <c r="H3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F5" t="s">
         <v>597</v>
       </c>
-      <c r="E5" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F5" t="s">
-        <v>598</v>
-      </c>
       <c r="H5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
+        <v>598</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F7" t="s">
         <v>599</v>
       </c>
-      <c r="E7" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F7" t="s">
-        <v>600</v>
-      </c>
       <c r="H7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F9" t="s">
         <v>601</v>
       </c>
-      <c r="E9" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F9" t="s">
-        <v>602</v>
-      </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D11" t="s">
+        <v>842</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" t="s">
+        <v>620</v>
+      </c>
+      <c r="I11" t="s">
+        <v>722</v>
+      </c>
+      <c r="J11" t="s">
+        <v>746</v>
+      </c>
+      <c r="K11" t="s">
         <v>843</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H11" t="s">
-        <v>621</v>
-      </c>
-      <c r="I11" t="s">
-        <v>723</v>
-      </c>
-      <c r="J11" t="s">
-        <v>747</v>
-      </c>
-      <c r="K11" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D17" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I25" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="J25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I26" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="J26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I27" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="J27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I28" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="J28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I29" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="J29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I30" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="J30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H31" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H40" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J41" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H44" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J44" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J47" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J48" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H50" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J51" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H52" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J52" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J53" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H54" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J54" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J55" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H56" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H57" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J57" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J58" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E59" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J59" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E60" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J60" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F61" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H61" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J61" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E62" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H62" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E63" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F63" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H64" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F65" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H65" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E66" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E67" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F67" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J67" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C68" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H68" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J68" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F69" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E70" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E71" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F71" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H71" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C72" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H72" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E73" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F73" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H73" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J73" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H74" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J74" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E75" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F75" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H75" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H76" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J76" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F77" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H77" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J77" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E78" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H78" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J78" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F79" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H79" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J79" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H80" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J80" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F81" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H81" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J81" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H82" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F83" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J83" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C84" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J84" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F85" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H85" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J85" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E86" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H86" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J86" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F87" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H87" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J87" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C88" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E88" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H88" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J88" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F89" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H89" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J90" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E91" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F91" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H91" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J91" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E92" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H92" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J92" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E93" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F93" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H93" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J93" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E94" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H94" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J94" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C95" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E95" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F95" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H95" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J95" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H96" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J96" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E97" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F97" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H97" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J97" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H98" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J98" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F99" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H99" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J99" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E100" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J100" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B101" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C101" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E101" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F101" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H101" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J101" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B102" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E102" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B103" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E103" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F103" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B104" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E104" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B105" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E105" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F105" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B106" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B107" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E107" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F107" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B108" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E108" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B109" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E109" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F109" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B110" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E110" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B111" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E111" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F111" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B112" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E112" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B113" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E113" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F113" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B114" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E114" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B115" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E115" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F115" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B116" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E116" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B117" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E117" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F117" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B118" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E118" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B119" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E119" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F119" t="s">
-        <v>1223</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B120" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E120" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B121" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E121" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F121" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B122" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E122" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B123" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E123" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F123" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B124" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E124" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B125" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E125" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B126" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E126" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B127" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E127" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F127" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B128" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E128" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B129" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E129" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F129" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B130" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E130" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B131" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E131" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F131" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B132" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E132" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B133" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E133" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F133" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B134" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E134" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B135" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E135" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F135" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B136" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E136" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B137" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E137" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F137" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B138" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E138" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B139" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E139" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F139" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E140" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B141" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E141" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F141" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B142" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E142" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B143" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E143" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F143" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E144" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E145" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F145" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E146" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E147" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F147" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E148" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E149" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F149" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E150" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E151" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F151" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E152" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E153" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F153" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E154" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E155" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F155" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E156" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E157" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F157" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E158" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E159" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F159" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E160" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E161" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F161" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E162" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E163" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="F163" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E164" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E165" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F165" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E166" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F167" s="62" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G167" s="49">
         <v>73.569999999999993</v>
@@ -13660,23 +13694,23 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E168" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F168" s="49"/>
       <c r="G168" s="49"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E169" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F169" s="62" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G169" s="49">
         <v>80.209999999999994</v>
@@ -13684,23 +13718,23 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F170" s="49"/>
       <c r="G170" s="49"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E171" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F171" s="62" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G171" s="49">
         <v>32.5</v>
@@ -13708,23 +13742,23 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E172" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F172" s="49"/>
       <c r="G172" s="49"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E173" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F173" s="62" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G173" s="49">
         <v>39.53</v>
@@ -13732,1477 +13766,1501 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E174" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F174" s="49"/>
       <c r="G174" s="49"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E175" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E176" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E177" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F177" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E178" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E179" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="F179" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E180" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E181" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F181" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E182" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E183" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F183" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E184" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E185" t="s">
-        <v>998</v>
+        <v>997</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E186" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E187" t="s">
-        <v>1000</v>
+        <v>999</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E188" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E189" t="s">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E190" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E191" t="s">
-        <v>1004</v>
+        <v>1003</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
         <v>1347</v>
       </c>
-      <c r="E192" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
+      <c r="E194" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
         <v>1348</v>
       </c>
-      <c r="E193" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
+      <c r="E195" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
         <v>1349</v>
       </c>
-      <c r="E194" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
+      <c r="E196" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
         <v>1350</v>
       </c>
-      <c r="E195" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
+      <c r="E197" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
         <v>1351</v>
       </c>
-      <c r="E196" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
+      <c r="E198" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
         <v>1352</v>
       </c>
-      <c r="E197" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
+      <c r="E199" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
         <v>1353</v>
       </c>
-      <c r="E198" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
+      <c r="E200" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
         <v>1354</v>
       </c>
-      <c r="E199" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
+      <c r="E201" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
         <v>1355</v>
       </c>
-      <c r="E200" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
+      <c r="E202" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
         <v>1356</v>
       </c>
-      <c r="E201" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
+      <c r="E203" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
         <v>1357</v>
       </c>
-      <c r="E202" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
+      <c r="E204" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
         <v>1358</v>
       </c>
-      <c r="E203" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
+      <c r="E205" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
         <v>1359</v>
       </c>
-      <c r="E204" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
+      <c r="E206" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
         <v>1360</v>
       </c>
-      <c r="E205" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
+      <c r="E207" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
         <v>1361</v>
       </c>
-      <c r="E206" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>1020</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E209" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E210" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E211" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E212" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E213" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E214" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E215" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E216" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E217" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E218" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E219" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E220" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E221" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E222" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E223" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E224" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E225" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E226" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E227" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E228" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E229" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E230" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E231" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E232" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E233" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E234" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E235" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E236" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E237" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E238" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E239" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E240" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E241" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E242" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E243" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E244" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E245" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E246" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E247" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E248" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E249" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E250" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E251" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E252" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E253" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E254" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E255" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E256" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E257" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E258" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E259" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E260" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E261" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E262" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E263" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E264" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E265" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E266" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E267" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E268" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E269" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E270" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E271" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E272" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E273" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E274" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E275" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E276" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E277" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E278" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E279" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E280" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E281" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E282" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E283" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E284" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E285" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E286" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E287" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E288" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E289" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E290" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E291" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E292" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E293" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E294" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E295" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E296" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E297" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E298" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E299" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E300" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="E301" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="E302" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="E303" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="E304" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -15220,7 +15278,7 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15237,26 +15295,26 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="1:5">
       <c r="A28" s="60" t="s">
+        <v>860</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>861</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="C28" s="60" t="s">
         <v>862</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>863</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>177</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15264,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C29" s="60">
         <v>1</v>
@@ -15277,16 +15335,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C30" s="60">
         <v>11</v>
       </c>
       <c r="D30" s="60" t="s">
+        <v>866</v>
+      </c>
+      <c r="E30" s="60" t="s">
         <v>867</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -15294,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C31" s="60">
         <v>26</v>
@@ -15307,16 +15365,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C32" s="60">
         <v>31</v>
       </c>
       <c r="D32" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E32" s="60" t="s">
         <v>871</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15324,16 +15382,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C33" s="60">
         <v>32</v>
       </c>
       <c r="D33" s="60" t="s">
+        <v>873</v>
+      </c>
+      <c r="E33" s="60" t="s">
         <v>874</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15341,16 +15399,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C34" s="60">
         <v>49</v>
       </c>
       <c r="D34" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="E34" s="60" t="s">
         <v>877</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -15372,52 +15430,52 @@
       <selection activeCell="M24" sqref="A1:M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="49" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I1" s="60" t="s">
         <v>175</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="L1" s="49"/>
       <c r="M1" s="49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15428,10 +15486,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="77" t="s">
@@ -15444,14 +15502,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="81" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15460,13 +15518,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>181</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F3" s="77"/>
       <c r="H3" s="80"/>
@@ -15474,7 +15532,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>242</v>
@@ -15490,13 +15548,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F4" s="77"/>
       <c r="H4" s="80"/>
@@ -15504,7 +15562,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K4" s="49" t="s">
         <v>243</v>
@@ -15520,13 +15578,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>185</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F5" s="77"/>
       <c r="H5" s="80"/>
@@ -15534,7 +15592,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>244</v>
@@ -15550,13 +15608,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>187</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F6" s="77"/>
       <c r="H6" s="80"/>
@@ -15564,7 +15622,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K6" s="49" t="s">
         <v>245</v>
@@ -15580,13 +15638,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F7" s="77"/>
       <c r="H7" s="80"/>
@@ -15594,13 +15652,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>198</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M7" s="77"/>
     </row>
@@ -15610,13 +15668,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F8" s="77"/>
       <c r="H8" s="80"/>
@@ -15624,7 +15682,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>219</v>
@@ -15640,13 +15698,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>210</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F9" s="77"/>
       <c r="H9" s="80"/>
@@ -15654,7 +15712,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>220</v>
@@ -15670,7 +15728,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>222</v>
@@ -15684,7 +15742,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -15696,10 +15754,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="77"/>
@@ -15708,10 +15766,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="77"/>
@@ -15724,14 +15782,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="81" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H13" s="80">
         <v>5</v>
@@ -15740,14 +15798,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="81" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -15756,13 +15814,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F14" s="77"/>
       <c r="H14" s="80"/>
@@ -15770,13 +15828,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>200</v>
       </c>
       <c r="L14" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M14" s="77"/>
     </row>
@@ -15786,13 +15844,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F15" s="77"/>
       <c r="H15" s="80"/>
@@ -15800,7 +15858,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>221</v>
@@ -15816,13 +15874,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F16" s="77"/>
       <c r="H16" s="80"/>
@@ -15830,7 +15888,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>246</v>
@@ -15846,13 +15904,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>206</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F17" s="77"/>
       <c r="H17" s="80"/>
@@ -15860,7 +15918,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K17" s="49" t="s">
         <v>247</v>
@@ -15876,13 +15934,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>208</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="77"/>
       <c r="H18" s="80"/>
@@ -15890,7 +15948,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
@@ -15902,7 +15960,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>218</v>
@@ -15916,7 +15974,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
@@ -15928,13 +15986,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F20" s="77"/>
       <c r="H20" s="80"/>
@@ -15942,7 +16000,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -15954,13 +16012,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F21" s="77"/>
       <c r="H21" s="80"/>
@@ -15968,7 +16026,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -15980,10 +16038,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="77"/>
@@ -15992,10 +16050,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="77"/>
@@ -16008,14 +16066,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="81" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H24" s="80">
         <v>6</v>
@@ -16024,14 +16082,14 @@
         <v>1</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="81" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -16040,13 +16098,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F25" s="77"/>
       <c r="H25" s="80"/>
@@ -16054,13 +16112,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M25" s="77"/>
     </row>
@@ -16070,13 +16128,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>196</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F26" s="77"/>
       <c r="H26" s="80"/>
@@ -16084,13 +16142,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M26" s="77"/>
     </row>
@@ -16100,13 +16158,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F27" s="77"/>
       <c r="H27" s="80"/>
@@ -16114,13 +16172,13 @@
         <v>4</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M27" s="77"/>
     </row>
@@ -16130,13 +16188,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F28" s="77"/>
       <c r="H28" s="80"/>
@@ -16144,13 +16202,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M28" s="77"/>
     </row>
@@ -16160,13 +16218,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>202</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F29" s="77"/>
       <c r="H29" s="80"/>
@@ -16174,7 +16232,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
@@ -16186,13 +16244,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F30" s="77"/>
       <c r="H30" s="80"/>
@@ -16200,7 +16258,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
@@ -16212,7 +16270,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -16222,7 +16280,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16234,7 +16292,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -16244,7 +16302,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
@@ -16256,10 +16314,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="77"/>
@@ -16268,10 +16326,10 @@
         <v>10</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="77"/>
@@ -16305,22 +16363,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -16328,7 +16386,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -16340,7 +16398,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B4">
         <v>360</v>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="5568" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="物料清单 采购格式" sheetId="4" r:id="rId1"/>
-    <sheet name="IO表" sheetId="5" r:id="rId2"/>
-    <sheet name="装配指导" sheetId="2" r:id="rId3"/>
-    <sheet name="编程规划" sheetId="3" r:id="rId4"/>
-    <sheet name="PLC使用记录" sheetId="6" r:id="rId5"/>
-    <sheet name="特殊线说明" sheetId="7" r:id="rId6"/>
-    <sheet name="多芯线" sheetId="8" r:id="rId7"/>
-    <sheet name="电机参数" sheetId="9" r:id="rId8"/>
+    <sheet name="直线交点计算" sheetId="10" r:id="rId1"/>
+    <sheet name="物料清单 采购格式" sheetId="4" r:id="rId2"/>
+    <sheet name="IO表" sheetId="5" r:id="rId3"/>
+    <sheet name="装配指导" sheetId="2" r:id="rId4"/>
+    <sheet name="编程规划" sheetId="3" r:id="rId5"/>
+    <sheet name="PLC使用记录" sheetId="6" r:id="rId6"/>
+    <sheet name="特殊线说明" sheetId="7" r:id="rId7"/>
+    <sheet name="多芯线" sheetId="8" r:id="rId8"/>
+    <sheet name="电机参数" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1882">
   <si>
     <t>文件编号：</t>
   </si>
@@ -5999,6 +6000,86 @@
   </si>
   <si>
     <t>气压报警</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯-红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯-黄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三色灯-绿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光栅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后门2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽安全门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后门1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯子真空吸</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6485,7 +6566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -6701,6 +6782,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -8400,6 +8484,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="57" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B2" s="57">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="57">
+        <f>B3/SIN(B2)</f>
+        <v>200.08335764529761</v>
+      </c>
+      <c r="D2" s="57">
+        <f>TAN(B2-PI()/2)</f>
+        <v>-19.983330554893971</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57">
+        <f>(C6-C2)/(D2-D6)</f>
+        <v>-89.97500090844126</v>
+      </c>
+      <c r="G2">
+        <f>F2*D6+C6</f>
+        <v>1998.0835424755646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="57" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B3" s="57">
+        <v>10</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B6" s="57">
+        <f>0.06</f>
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="57">
+        <f>B7/SIN(B6)</f>
+        <v>500.30012604784622</v>
+      </c>
+      <c r="D6" s="57">
+        <f>TAN(B6-PI()/2)</f>
+        <v>-16.646661865020327</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="57" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B7" s="57">
+        <v>30</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10443,15 +10666,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10894,7 +11117,9 @@
       <c r="H16" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="46" t="s">
+        <v>1870</v>
+      </c>
       <c r="J16" s="55"/>
       <c r="K16" s="79"/>
     </row>
@@ -10921,7 +11146,9 @@
       <c r="H17" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="46" t="s">
+        <v>1871</v>
+      </c>
       <c r="J17" s="55"/>
       <c r="K17" s="79"/>
       <c r="L17">
@@ -10954,7 +11181,9 @@
       <c r="H18" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="46" t="s">
+        <v>1872</v>
+      </c>
       <c r="J18" s="55"/>
       <c r="K18" s="79"/>
     </row>
@@ -10983,7 +11212,9 @@
       <c r="H19" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="46" t="s">
+        <v>1873</v>
+      </c>
       <c r="J19" s="55"/>
       <c r="K19" s="79"/>
     </row>
@@ -11179,7 +11410,9 @@
       <c r="C28" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="46" t="s">
+        <v>1875</v>
+      </c>
       <c r="E28" s="48"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -11464,7 +11697,7 @@
       <c r="I41" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="J41" s="79" t="s">
+      <c r="J41" s="75" t="s">
         <v>272</v>
       </c>
       <c r="K41" s="77"/>
@@ -11487,7 +11720,7 @@
       <c r="I42" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="J42" s="79"/>
+      <c r="J42" s="82"/>
       <c r="K42" s="77"/>
     </row>
     <row r="43" spans="1:12">
@@ -11508,7 +11741,7 @@
       <c r="I43" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="J43" s="79"/>
+      <c r="J43" s="82"/>
       <c r="K43" s="77"/>
     </row>
     <row r="44" spans="1:12">
@@ -11526,8 +11759,10 @@
         <v>240</v>
       </c>
       <c r="H44" s="49"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="48"/>
+      <c r="I44" s="46" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J44" s="76"/>
       <c r="K44" s="77"/>
     </row>
     <row r="45" spans="1:12">
@@ -11794,12 +12029,12 @@
     <mergeCell ref="K4:K19"/>
     <mergeCell ref="K20:K35"/>
     <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J43"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J41:J44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11807,7 +12042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11876,12 +12111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12007,6 +12242,9 @@
       <c r="A4" t="s">
         <v>302</v>
       </c>
+      <c r="B4" t="s">
+        <v>1874</v>
+      </c>
       <c r="C4" t="s">
         <v>1564</v>
       </c>
@@ -12396,6 +12634,9 @@
       <c r="C17" t="s">
         <v>1577</v>
       </c>
+      <c r="D17" t="s">
+        <v>1876</v>
+      </c>
       <c r="E17" t="s">
         <v>414</v>
       </c>
@@ -12425,6 +12666,9 @@
       <c r="C18" t="s">
         <v>1578</v>
       </c>
+      <c r="D18" t="s">
+        <v>1877</v>
+      </c>
       <c r="E18" t="s">
         <v>415</v>
       </c>
@@ -12448,6 +12692,9 @@
       <c r="C19" t="s">
         <v>1579</v>
       </c>
+      <c r="D19" t="s">
+        <v>1880</v>
+      </c>
       <c r="E19" t="s">
         <v>416</v>
       </c>
@@ -12474,6 +12721,9 @@
       <c r="C20" t="s">
         <v>1580</v>
       </c>
+      <c r="D20" t="s">
+        <v>1878</v>
+      </c>
       <c r="E20" t="s">
         <v>417</v>
       </c>
@@ -12497,6 +12747,9 @@
       <c r="C21" t="s">
         <v>1581</v>
       </c>
+      <c r="D21" t="s">
+        <v>1879</v>
+      </c>
       <c r="E21" t="s">
         <v>418</v>
       </c>
@@ -12525,6 +12778,9 @@
       </c>
       <c r="C22" t="s">
         <v>1582</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1875</v>
       </c>
       <c r="E22" t="s">
         <v>419</v>
@@ -17113,7 +17369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17130,7 +17386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:E34"/>
   <sheetViews>
@@ -17262,7 +17518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -18198,7 +18454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="5568" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="12504" windowHeight="5568" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="直线交点计算" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1884">
   <si>
     <t>文件编号：</t>
   </si>
@@ -6080,6 +6080,14 @@
   </si>
   <si>
     <t>芯子真空吸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转真空报警2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>压合时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6726,6 +6734,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6744,24 +6770,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6777,14 +6785,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -8668,12 +8676,12 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -8687,10 +8695,10 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="7" t="s">
         <v>851</v>
       </c>
@@ -8704,20 +8712,20 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="11">
         <v>20171024</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="11" t="s">
         <v>139</v>
       </c>
@@ -8729,18 +8737,18 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="8"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -8750,10 +8758,10 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
     </row>
@@ -8779,14 +8787,14 @@
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -8802,17 +8810,17 @@
       <c r="K7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="14.4">
       <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="27"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -8842,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="69"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="34" t="s">
         <v>27</v>
       </c>
@@ -8870,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="34" t="s">
         <v>31</v>
       </c>
@@ -8898,7 +8906,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="69"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34" t="s">
         <v>35</v>
       </c>
@@ -8926,7 +8934,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="69"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
@@ -8953,7 +8961,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
@@ -8980,7 +8988,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="69"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="36" t="s">
         <v>46</v>
       </c>
@@ -9007,7 +9015,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="36" t="s">
         <v>49</v>
       </c>
@@ -9032,7 +9040,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
@@ -9057,7 +9065,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="69"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="69"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="36" t="s">
         <v>56</v>
       </c>
@@ -9111,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="27" t="s">
         <v>164</v>
       </c>
@@ -9139,7 +9147,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="36" t="s">
         <v>168</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="71"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -9195,7 +9203,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -9224,7 +9232,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="27"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="38" t="s">
         <v>63</v>
       </c>
@@ -9247,7 +9255,7 @@
     <row r="24" spans="1:17">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="38" t="s">
         <v>1521</v>
       </c>
@@ -9270,7 +9278,7 @@
     <row r="25" spans="1:17">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="38" t="s">
         <v>1523</v>
       </c>
@@ -9297,7 +9305,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="69"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="36" t="s">
         <v>65</v>
       </c>
@@ -9320,7 +9328,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="71"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="36" t="s">
         <v>66</v>
       </c>
@@ -9345,7 +9353,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="65" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -9374,7 +9382,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="72"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="41" t="s">
         <v>71</v>
       </c>
@@ -9401,7 +9409,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="72"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="41" t="s">
         <v>142</v>
       </c>
@@ -9428,7 +9436,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="41" t="s">
         <v>71</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="41" t="s">
         <v>266</v>
       </c>
@@ -9480,7 +9488,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>267</v>
       </c>
@@ -9505,7 +9513,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="72"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="41" t="s">
         <v>74</v>
       </c>
@@ -9532,7 +9540,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="72"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="35" t="s">
         <v>77</v>
       </c>
@@ -9559,7 +9567,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="63" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -9588,7 +9596,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="35" t="s">
         <v>82</v>
       </c>
@@ -9615,7 +9623,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="74"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="35" t="s">
         <v>156</v>
       </c>
@@ -9642,7 +9650,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="27"/>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="65" t="s">
         <v>171</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -9669,7 +9677,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="35" t="s">
         <v>86</v>
       </c>
@@ -9696,7 +9704,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="27"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="35" t="s">
         <v>88</v>
       </c>
@@ -9723,7 +9731,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="35" t="s">
         <v>90</v>
       </c>
@@ -9746,7 +9754,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="27"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
@@ -9769,7 +9777,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="27"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="35" t="s">
         <v>92</v>
       </c>
@@ -9794,7 +9802,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="27"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="35" t="s">
         <v>94</v>
       </c>
@@ -9821,7 +9829,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="27"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="35" t="s">
         <v>97</v>
       </c>
@@ -9848,7 +9856,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="35" t="s">
         <v>99</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="27"/>
-      <c r="C48" s="72"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="35" t="s">
         <v>100</v>
       </c>
@@ -9902,7 +9910,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="27"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="35" t="s">
         <v>102</v>
       </c>
@@ -9929,7 +9937,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="27"/>
-      <c r="C50" s="72"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="35" t="s">
         <v>103</v>
       </c>
@@ -9954,7 +9962,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="27"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="35" t="s">
         <v>149</v>
       </c>
@@ -9979,7 +9987,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="27"/>
-      <c r="C52" s="72"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="35" t="s">
         <v>150</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="27"/>
-      <c r="C53" s="72"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="35" t="s">
         <v>261</v>
       </c>
@@ -10033,7 +10041,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="C54" s="72"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="35" t="s">
         <v>105</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="27"/>
-      <c r="C55" s="72"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="35" t="s">
         <v>107</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="27"/>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="63" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="35" t="s">
@@ -10116,7 +10124,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="27"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="35" t="s">
         <v>110</v>
       </c>
@@ -10143,7 +10151,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="27"/>
-      <c r="C58" s="74"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="35" t="s">
         <v>114</v>
       </c>
@@ -10170,7 +10178,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="74"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="35" t="s">
         <v>116</v>
       </c>
@@ -10197,7 +10205,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="27"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="35" t="s">
         <v>119</v>
       </c>
@@ -10222,7 +10230,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="27"/>
-      <c r="C61" s="72"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="35" t="s">
         <v>120</v>
       </c>
@@ -10247,7 +10255,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="27"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="35" t="s">
         <v>146</v>
       </c>
@@ -10270,7 +10278,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="72"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="35" t="s">
         <v>121</v>
       </c>
@@ -10293,7 +10301,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="27"/>
-      <c r="C64" s="72"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="35" t="s">
         <v>122</v>
       </c>
@@ -10314,7 +10322,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="27"/>
-      <c r="C65" s="72"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="35" t="s">
         <v>124</v>
       </c>
@@ -10335,7 +10343,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="27"/>
-      <c r="C66" s="72"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="35" t="s">
         <v>125</v>
       </c>
@@ -10356,7 +10364,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="72"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="35" t="s">
         <v>126</v>
       </c>
@@ -10377,7 +10385,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="27"/>
-      <c r="C68" s="72"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="35" t="s">
         <v>127</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="72"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="35" t="s">
         <v>128</v>
       </c>
@@ -10419,7 +10427,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="27"/>
-      <c r="C70" s="72"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="35" t="s">
         <v>129</v>
       </c>
@@ -10440,7 +10448,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="27"/>
-      <c r="C71" s="72"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="35" t="s">
         <v>130</v>
       </c>
@@ -10461,7 +10469,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="27"/>
-      <c r="C72" s="72"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="35" t="s">
         <v>131</v>
       </c>
@@ -10482,7 +10490,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="27"/>
-      <c r="C73" s="72"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="35" t="s">
         <v>132</v>
       </c>
@@ -10503,7 +10511,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="72"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="35" t="s">
         <v>133</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="72"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="35" t="s">
         <v>134</v>
       </c>
@@ -10545,7 +10553,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="27"/>
-      <c r="C76" s="72"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="35" t="s">
         <v>135</v>
       </c>
@@ -10566,7 +10574,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="72"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="35" t="s">
         <v>136</v>
       </c>
@@ -10587,7 +10595,7 @@
         <v>68</v>
       </c>
       <c r="B78" s="27"/>
-      <c r="C78" s="72"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="35" t="s">
         <v>137</v>
       </c>
@@ -10608,7 +10616,7 @@
         <v>69</v>
       </c>
       <c r="B79" s="27"/>
-      <c r="C79" s="72"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="35" t="s">
         <v>138</v>
       </c>
@@ -10633,16 +10641,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C79"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C35"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:D2"/>
@@ -10650,6 +10648,16 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C79"/>
+    <mergeCell ref="C8:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10673,8 +10681,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11720,7 +11728,7 @@
       <c r="I42" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="J42" s="82"/>
+      <c r="J42" s="80"/>
       <c r="K42" s="77"/>
     </row>
     <row r="43" spans="1:12">
@@ -11741,7 +11749,7 @@
       <c r="I43" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="J43" s="82"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="77"/>
     </row>
     <row r="44" spans="1:12">
@@ -12115,8 +12123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M389"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12805,6 +12813,9 @@
       <c r="C23" t="s">
         <v>1583</v>
       </c>
+      <c r="D23" t="s">
+        <v>1882</v>
+      </c>
       <c r="E23" t="s">
         <v>420</v>
       </c>
@@ -13043,6 +13054,9 @@
       </c>
       <c r="G33" t="s">
         <v>527</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1883</v>
       </c>
       <c r="J33" t="s">
         <v>642</v>
@@ -17578,7 +17592,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="80">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
       <c r="B2" s="49">
@@ -17594,7 +17608,7 @@
       <c r="F2" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="81">
         <v>4</v>
       </c>
       <c r="I2" s="49">
@@ -17607,12 +17621,12 @@
         <v>890</v>
       </c>
       <c r="L2" s="49"/>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="82" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="49">
         <v>2</v>
       </c>
@@ -17626,7 +17640,7 @@
         <v>853</v>
       </c>
       <c r="F3" s="77"/>
-      <c r="H3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="49">
         <v>2</v>
       </c>
@@ -17642,7 +17656,7 @@
       <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="80"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="49">
         <v>3</v>
       </c>
@@ -17656,7 +17670,7 @@
         <v>854</v>
       </c>
       <c r="F4" s="77"/>
-      <c r="H4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="49">
         <v>3</v>
       </c>
@@ -17672,7 +17686,7 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="49">
         <v>4</v>
       </c>
@@ -17686,7 +17700,7 @@
         <v>845</v>
       </c>
       <c r="F5" s="77"/>
-      <c r="H5" s="80"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="49">
         <v>4</v>
       </c>
@@ -17702,7 +17716,7 @@
       <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="80"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="49">
         <v>5</v>
       </c>
@@ -17716,7 +17730,7 @@
         <v>846</v>
       </c>
       <c r="F6" s="77"/>
-      <c r="H6" s="80"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="49">
         <v>5</v>
       </c>
@@ -17732,7 +17746,7 @@
       <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="80"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="49">
         <v>6</v>
       </c>
@@ -17746,7 +17760,7 @@
         <v>855</v>
       </c>
       <c r="F7" s="77"/>
-      <c r="H7" s="80"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="49">
         <v>6</v>
       </c>
@@ -17762,7 +17776,7 @@
       <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="80"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="49">
         <v>7</v>
       </c>
@@ -17776,7 +17790,7 @@
         <v>847</v>
       </c>
       <c r="F8" s="77"/>
-      <c r="H8" s="80"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="49">
         <v>7</v>
       </c>
@@ -17792,7 +17806,7 @@
       <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="80"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="49">
         <v>8</v>
       </c>
@@ -17806,7 +17820,7 @@
         <v>859</v>
       </c>
       <c r="F9" s="77"/>
-      <c r="H9" s="80"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="49">
         <v>8</v>
       </c>
@@ -17822,7 +17836,7 @@
       <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="80"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="49">
         <v>9</v>
       </c>
@@ -17836,7 +17850,7 @@
         <v>190</v>
       </c>
       <c r="F10" s="77"/>
-      <c r="H10" s="80"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="49">
         <v>9</v>
       </c>
@@ -17848,7 +17862,7 @@
       <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="49">
         <v>10</v>
       </c>
@@ -17860,7 +17874,7 @@
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="77"/>
-      <c r="H11" s="80"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="49">
         <v>10</v>
       </c>
@@ -17874,7 +17888,7 @@
       <c r="M11" s="77"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="80">
+      <c r="A13" s="81">
         <v>2</v>
       </c>
       <c r="B13" s="49">
@@ -17887,10 +17901,10 @@
         <v>890</v>
       </c>
       <c r="E13" s="49"/>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="82" t="s">
         <v>896</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="81">
         <v>5</v>
       </c>
       <c r="I13" s="49">
@@ -17903,12 +17917,12 @@
         <v>890</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="82" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="80"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="49">
         <v>2</v>
       </c>
@@ -17922,7 +17936,7 @@
         <v>879</v>
       </c>
       <c r="F14" s="77"/>
-      <c r="H14" s="80"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="49">
         <v>2</v>
       </c>
@@ -17938,7 +17952,7 @@
       <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="80"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="49">
         <v>3</v>
       </c>
@@ -17952,7 +17966,7 @@
         <v>892</v>
       </c>
       <c r="F15" s="77"/>
-      <c r="H15" s="80"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="49">
         <v>3</v>
       </c>
@@ -17968,7 +17982,7 @@
       <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="80"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="49">
         <v>4</v>
       </c>
@@ -17982,7 +17996,7 @@
         <v>893</v>
       </c>
       <c r="F16" s="77"/>
-      <c r="H16" s="80"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="49">
         <v>4</v>
       </c>
@@ -17998,7 +18012,7 @@
       <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="80"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="49">
         <v>5</v>
       </c>
@@ -18012,7 +18026,7 @@
         <v>858</v>
       </c>
       <c r="F17" s="77"/>
-      <c r="H17" s="80"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="49">
         <v>5</v>
       </c>
@@ -18028,7 +18042,7 @@
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="80"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="49">
         <v>6</v>
       </c>
@@ -18042,7 +18056,7 @@
         <v>292</v>
       </c>
       <c r="F18" s="77"/>
-      <c r="H18" s="80"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="49">
         <v>6</v>
       </c>
@@ -18054,7 +18068,7 @@
       <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="49">
         <v>7</v>
       </c>
@@ -18068,7 +18082,7 @@
         <v>271</v>
       </c>
       <c r="F19" s="77"/>
-      <c r="H19" s="80"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="49">
         <v>7</v>
       </c>
@@ -18080,7 +18094,7 @@
       <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="80"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="49">
         <v>8</v>
       </c>
@@ -18094,7 +18108,7 @@
         <v>894</v>
       </c>
       <c r="F20" s="77"/>
-      <c r="H20" s="80"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="49">
         <v>8</v>
       </c>
@@ -18106,7 +18120,7 @@
       <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="80"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="49">
         <v>9</v>
       </c>
@@ -18120,7 +18134,7 @@
         <v>895</v>
       </c>
       <c r="F21" s="77"/>
-      <c r="H21" s="80"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="49">
         <v>9</v>
       </c>
@@ -18132,7 +18146,7 @@
       <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="80"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="49">
         <v>10</v>
       </c>
@@ -18144,7 +18158,7 @@
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="77"/>
-      <c r="H22" s="80"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="49">
         <v>10</v>
       </c>
@@ -18158,7 +18172,7 @@
       <c r="M22" s="77"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="80">
+      <c r="A24" s="81">
         <v>3</v>
       </c>
       <c r="B24" s="49">
@@ -18171,10 +18185,10 @@
         <v>890</v>
       </c>
       <c r="E24" s="49"/>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="82" t="s">
         <v>897</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="81">
         <v>6</v>
       </c>
       <c r="I24" s="49">
@@ -18187,12 +18201,12 @@
         <v>890</v>
       </c>
       <c r="L24" s="49"/>
-      <c r="M24" s="81" t="s">
+      <c r="M24" s="82" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="80"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="49">
         <v>2</v>
       </c>
@@ -18206,7 +18220,7 @@
         <v>848</v>
       </c>
       <c r="F25" s="77"/>
-      <c r="H25" s="80"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="49">
         <v>2</v>
       </c>
@@ -18222,7 +18236,7 @@
       <c r="M25" s="77"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="80"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="49">
         <v>3</v>
       </c>
@@ -18236,7 +18250,7 @@
         <v>849</v>
       </c>
       <c r="F26" s="77"/>
-      <c r="H26" s="80"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="49">
         <v>3</v>
       </c>
@@ -18252,7 +18266,7 @@
       <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="80"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="49">
         <v>4</v>
       </c>
@@ -18266,7 +18280,7 @@
         <v>898</v>
       </c>
       <c r="F27" s="77"/>
-      <c r="H27" s="80"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="49">
         <v>4</v>
       </c>
@@ -18282,7 +18296,7 @@
       <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="80"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="49">
         <v>5</v>
       </c>
@@ -18296,7 +18310,7 @@
         <v>899</v>
       </c>
       <c r="F28" s="77"/>
-      <c r="H28" s="80"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="49">
         <v>5</v>
       </c>
@@ -18312,7 +18326,7 @@
       <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="80"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="49">
         <v>6</v>
       </c>
@@ -18326,7 +18340,7 @@
         <v>857</v>
       </c>
       <c r="F29" s="77"/>
-      <c r="H29" s="80"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="49">
         <v>6</v>
       </c>
@@ -18338,7 +18352,7 @@
       <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="80"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="49">
         <v>7</v>
       </c>
@@ -18352,7 +18366,7 @@
         <v>286</v>
       </c>
       <c r="F30" s="77"/>
-      <c r="H30" s="80"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="49">
         <v>7</v>
       </c>
@@ -18364,7 +18378,7 @@
       <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="80"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="49">
         <v>8</v>
       </c>
@@ -18374,7 +18388,7 @@
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="77"/>
-      <c r="H31" s="80"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="49">
         <v>8</v>
       </c>
@@ -18386,7 +18400,7 @@
       <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="80"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="49">
         <v>9</v>
       </c>
@@ -18396,7 +18410,7 @@
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="77"/>
-      <c r="H32" s="80"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="49">
         <v>9</v>
       </c>
@@ -18408,7 +18422,7 @@
       <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="80"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="49">
         <v>10</v>
       </c>
@@ -18420,7 +18434,7 @@
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="77"/>
-      <c r="H33" s="80"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="49">
         <v>10</v>
       </c>
@@ -18435,18 +18449,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="M13:M22"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="M24:M33"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="F24:F33"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="M13:M22"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="M24:M33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FQAPEE6自动折弯贴胶机资料.xlsx
+++ b/FQAPEE6自动折弯贴胶机资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="7"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="直线交点计算" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876">
   <si>
     <t>b1</t>
   </si>
@@ -1428,6 +1428,9 @@
   </si>
   <si>
     <t>D20037</t>
+  </si>
+  <si>
+    <t>吐膜次数报警</t>
   </si>
   <si>
     <t>M337</t>
@@ -5746,7 +5749,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5754,6 +5765,58 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5776,104 +5839,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5889,9 +5856,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5903,9 +5870,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5914,8 +5880,45 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -5933,6 +5936,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5945,19 +6080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5969,151 +6110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6349,13 +6352,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6384,15 +6400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6410,24 +6417,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6446,16 +6440,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6471,154 +6474,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6631,212 +6634,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="62" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="61" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="62" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="61" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="57" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="57" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="62" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="61" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="62" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="61" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="62" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="61" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="83" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="83" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="56" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -6921,8 +6924,8 @@
     <cellStyle name="警告文本" xfId="19" builtinId="11"/>
     <cellStyle name="标题" xfId="20" builtinId="15"/>
     <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="常规 12" xfId="22"/>
-    <cellStyle name="常规 2 5" xfId="23"/>
+    <cellStyle name="常规 2 5" xfId="22"/>
+    <cellStyle name="常规 12" xfId="23"/>
     <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
     <cellStyle name="标题 1" xfId="25" builtinId="16"/>
     <cellStyle name="标题 2" xfId="26" builtinId="17"/>
@@ -6955,15 +6958,15 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="56"/>
-    <cellStyle name="常规 2 3" xfId="57"/>
+    <cellStyle name="常规 2 3" xfId="56"/>
+    <cellStyle name="常规 10" xfId="57"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
     <cellStyle name="常规 10 2" xfId="59"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
-    <cellStyle name="差_302" xfId="61"/>
-    <cellStyle name="常规 2" xfId="62"/>
-    <cellStyle name="常规 11" xfId="63"/>
-    <cellStyle name="常规 2 4" xfId="64"/>
+    <cellStyle name="常规 2" xfId="61"/>
+    <cellStyle name="差_302" xfId="62"/>
+    <cellStyle name="常规 2 4" xfId="63"/>
+    <cellStyle name="常规 11" xfId="64"/>
     <cellStyle name="常规 2 6" xfId="65"/>
     <cellStyle name="常规 13" xfId="66"/>
     <cellStyle name="常规 2 7" xfId="67"/>
@@ -9036,36 +9039,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="69" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C1" s="69" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>1695</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>1694</v>
-      </c>
       <c r="E1" s="69" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="69" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9073,7 +9076,7 @@
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="69" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E3" s="69"/>
     </row>
@@ -9122,16 +9125,16 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="49" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="M1" s="49"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:13">
       <c r="A2" s="6" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9143,31 +9146,31 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="50" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="51"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="10" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="14"/>
@@ -9175,22 +9178,22 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="14" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
       <c r="F4" s="10" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="10" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
@@ -9198,20 +9201,20 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:13">
       <c r="A5" s="16" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="17" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="10" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="18"/>
@@ -9237,33 +9240,33 @@
         <v>10</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="M7" s="27"/>
     </row>
@@ -9273,23 +9276,23 @@
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="26" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H8" s="26">
         <v>1</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="31"/>
@@ -9304,20 +9307,20 @@
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
       <c r="D9" s="30" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H9" s="26">
         <v>1</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="31"/>
@@ -9332,20 +9335,20 @@
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
       <c r="D10" s="30" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H10" s="26">
         <v>1</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="31"/>
@@ -9360,20 +9363,20 @@
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
       <c r="D11" s="30" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H11" s="26">
         <v>1</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="31"/>
@@ -9388,20 +9391,20 @@
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
       <c r="D12" s="30" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H12" s="26">
         <v>1</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="31"/>
@@ -9415,20 +9418,20 @@
       <c r="B13" s="26"/>
       <c r="C13" s="24"/>
       <c r="D13" s="33" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H13" s="26">
         <v>1</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="31"/>
@@ -9442,20 +9445,20 @@
       <c r="B14" s="26"/>
       <c r="C14" s="24"/>
       <c r="D14" s="33" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H14" s="26">
         <v>1</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="31"/>
@@ -9469,10 +9472,10 @@
       <c r="B15" s="26"/>
       <c r="C15" s="24"/>
       <c r="D15" s="33" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="26"/>
@@ -9480,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="31"/>
@@ -9494,10 +9497,10 @@
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
       <c r="D16" s="33" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="26"/>
@@ -9505,7 +9508,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="31"/>
@@ -9519,20 +9522,20 @@
       <c r="B17" s="26"/>
       <c r="C17" s="24"/>
       <c r="D17" s="35" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="26" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H17" s="26">
         <v>1</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="31"/>
@@ -9546,20 +9549,20 @@
       <c r="B18" s="26"/>
       <c r="C18" s="24"/>
       <c r="D18" s="33" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E18" s="36">
         <v>20219</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H18" s="29">
         <v>1</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="31"/>
@@ -9572,20 +9575,20 @@
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
       <c r="D19" s="33" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="29" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H19" s="29">
         <v>1</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J19" s="45"/>
       <c r="K19" s="31"/>
@@ -9598,20 +9601,20 @@
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
       <c r="D20" s="33" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="29" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H20" s="29">
         <v>1</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="31"/>
@@ -9625,20 +9628,20 @@
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
       <c r="D21" s="33" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="26" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H21" s="26">
         <v>1</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="31"/>
@@ -9652,20 +9655,20 @@
       <c r="B22" s="26"/>
       <c r="C22" s="39"/>
       <c r="D22" s="33" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="26" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H22" s="26">
         <v>1</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="31"/>
@@ -9678,23 +9681,23 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="27" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H23" s="26">
         <v>1</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="62"/>
@@ -9708,10 +9711,10 @@
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
       <c r="D24" s="26" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -9719,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="62"/>
@@ -9733,10 +9736,10 @@
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="40" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -9744,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="64"/>
@@ -9757,10 +9760,10 @@
       <c r="B26" s="40"/>
       <c r="C26" s="42"/>
       <c r="D26" s="40" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -9768,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="63" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="64"/>
@@ -9780,23 +9783,23 @@
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="43" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H27" s="29">
         <v>5</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="31"/>
@@ -9810,20 +9813,20 @@
       <c r="B28" s="26"/>
       <c r="C28" s="43"/>
       <c r="D28" s="44" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H28" s="29">
         <v>5</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="31"/>
@@ -9837,20 +9840,20 @@
       <c r="B29" s="26"/>
       <c r="C29" s="43"/>
       <c r="D29" s="44" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H29" s="29">
         <v>1</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="31"/>
@@ -9864,20 +9867,20 @@
       <c r="B30" s="26"/>
       <c r="C30" s="43"/>
       <c r="D30" s="44" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H30" s="29">
         <v>1</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="31"/>
@@ -9889,14 +9892,14 @@
       <c r="B31" s="26"/>
       <c r="C31" s="43"/>
       <c r="D31" s="44" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H31" s="29">
         <v>6</v>
@@ -9914,20 +9917,20 @@
       <c r="B32" s="26"/>
       <c r="C32" s="43"/>
       <c r="D32" s="44" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F32" s="45"/>
       <c r="G32" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H32" s="29">
         <v>5</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="31"/>
@@ -9941,20 +9944,20 @@
       <c r="B33" s="26"/>
       <c r="C33" s="43"/>
       <c r="D33" s="44" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F33" s="46"/>
       <c r="G33" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H33" s="29">
         <v>1</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="31"/>
@@ -9966,20 +9969,20 @@
       <c r="B34" s="26"/>
       <c r="C34" s="43"/>
       <c r="D34" s="44" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="F34" s="46"/>
       <c r="G34" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H34" s="29">
         <v>2</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="31"/>
@@ -9991,20 +9994,20 @@
       <c r="B35" s="26"/>
       <c r="C35" s="43"/>
       <c r="D35" s="44" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F35" s="46"/>
       <c r="G35" s="29" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H35" s="29">
         <v>6</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="31"/>
@@ -10018,20 +10021,20 @@
       <c r="B36" s="26"/>
       <c r="C36" s="43"/>
       <c r="D36" s="44" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="F36" s="46"/>
       <c r="G36" s="29" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H36" s="29">
         <v>1</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="31"/>
@@ -10045,20 +10048,20 @@
       <c r="B37" s="26"/>
       <c r="C37" s="43"/>
       <c r="D37" s="29" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="29" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H37" s="29">
         <v>1</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="31"/>
@@ -10071,23 +10074,23 @@
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="47" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="F38" s="46"/>
       <c r="G38" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H38" s="29">
         <v>3</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="31"/>
@@ -10101,20 +10104,20 @@
       <c r="B39" s="26"/>
       <c r="C39" s="48"/>
       <c r="D39" s="29" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="F39" s="46"/>
       <c r="G39" s="29" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H39" s="29">
         <v>1</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="31"/>
@@ -10128,20 +10131,20 @@
       <c r="B40" s="26"/>
       <c r="C40" s="48"/>
       <c r="D40" s="29" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="F40" s="46"/>
       <c r="G40" s="29" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H40" s="29">
         <v>1</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="31"/>
@@ -10154,13 +10157,13 @@
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="43" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="F41" s="46"/>
       <c r="G41" s="29"/>
@@ -10168,7 +10171,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="31"/>
@@ -10182,20 +10185,20 @@
       <c r="B42" s="26"/>
       <c r="C42" s="43"/>
       <c r="D42" s="29" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="F42" s="46"/>
       <c r="G42" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H42" s="29">
         <v>3</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="31"/>
@@ -10209,20 +10212,20 @@
       <c r="B43" s="26"/>
       <c r="C43" s="43"/>
       <c r="D43" s="29" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H43" s="29">
         <v>2</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="31"/>
@@ -10236,20 +10239,20 @@
       <c r="B44" s="26"/>
       <c r="C44" s="43"/>
       <c r="D44" s="29" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="29" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H44" s="29">
         <v>1</v>
       </c>
       <c r="I44" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="31"/>
@@ -10263,7 +10266,7 @@
       <c r="B45" s="26"/>
       <c r="C45" s="43"/>
       <c r="D45" s="29" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="46"/>
@@ -10272,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J45" s="29"/>
       <c r="K45" s="31"/>
@@ -10286,7 +10289,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="43"/>
       <c r="D46" s="29" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="46"/>
@@ -10295,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="31"/>
@@ -10309,10 +10312,10 @@
       <c r="B47" s="26"/>
       <c r="C47" s="43"/>
       <c r="D47" s="29" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="29"/>
@@ -10320,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="31"/>
@@ -10334,20 +10337,20 @@
       <c r="B48" s="26"/>
       <c r="C48" s="43"/>
       <c r="D48" s="29" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="29" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H48" s="29">
         <v>1</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="31"/>
@@ -10361,20 +10364,20 @@
       <c r="B49" s="26"/>
       <c r="C49" s="43"/>
       <c r="D49" s="29" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H49" s="29">
         <v>8</v>
       </c>
       <c r="I49" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J49" s="29"/>
       <c r="K49" s="31"/>
@@ -10388,20 +10391,20 @@
       <c r="B50" s="26"/>
       <c r="C50" s="43"/>
       <c r="D50" s="29" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="F50" s="46"/>
       <c r="G50" s="29" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H50" s="29">
         <v>1</v>
       </c>
       <c r="I50" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="31"/>
@@ -10415,20 +10418,20 @@
       <c r="B51" s="26"/>
       <c r="C51" s="43"/>
       <c r="D51" s="29" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F51" s="46"/>
       <c r="G51" s="29" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H51" s="29">
         <v>1</v>
       </c>
       <c r="I51" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="31"/>
@@ -10442,20 +10445,20 @@
       <c r="B52" s="26"/>
       <c r="C52" s="43"/>
       <c r="D52" s="29" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F52" s="46"/>
       <c r="G52" s="29" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H52" s="29">
         <v>2</v>
       </c>
       <c r="I52" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J52" s="29"/>
       <c r="K52" s="31"/>
@@ -10469,20 +10472,20 @@
       <c r="B53" s="26"/>
       <c r="C53" s="43"/>
       <c r="D53" s="29" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="F53" s="46"/>
       <c r="G53" s="29" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H53" s="29">
         <v>10</v>
       </c>
       <c r="I53" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="31"/>
@@ -10496,10 +10499,10 @@
       <c r="B54" s="26"/>
       <c r="C54" s="43"/>
       <c r="D54" s="29" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="F54" s="46"/>
       <c r="G54" s="29"/>
@@ -10507,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="31"/>
@@ -10524,7 +10527,7 @@
         <v>57</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="F55" s="46"/>
       <c r="G55" s="29"/>
@@ -10532,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="31"/>
@@ -10546,20 +10549,20 @@
       <c r="B56" s="26"/>
       <c r="C56" s="43"/>
       <c r="D56" s="29" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="F56" s="46"/>
       <c r="G56" s="29" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H56" s="29">
         <v>1</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="31"/>
@@ -10576,17 +10579,17 @@
         <v>15</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="F57" s="46"/>
       <c r="G57" s="29" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H57" s="29">
         <v>2</v>
       </c>
       <c r="I57" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="31"/>
@@ -10600,17 +10603,17 @@
       <c r="B58" s="29"/>
       <c r="C58" s="43"/>
       <c r="D58" s="29" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29">
         <v>1</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="28"/>
@@ -10623,20 +10626,20 @@
       <c r="B59" s="26"/>
       <c r="C59" s="43"/>
       <c r="D59" s="29" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="29" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H59" s="29">
         <v>1</v>
       </c>
       <c r="I59" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="31"/>
@@ -10650,14 +10653,14 @@
       <c r="B60" s="26"/>
       <c r="C60" s="43"/>
       <c r="D60" s="29" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="60"/>
@@ -10673,14 +10676,14 @@
       <c r="B61" s="26"/>
       <c r="C61" s="43"/>
       <c r="D61" s="29" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E61" s="28" t="s">
         <v>1847</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>1846</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="29" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="60"/>
@@ -10696,20 +10699,20 @@
       <c r="B62" s="26"/>
       <c r="C62" s="43"/>
       <c r="D62" s="29" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="F62" s="46"/>
       <c r="G62" s="29" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H62" s="29">
         <v>1</v>
       </c>
       <c r="I62" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="31"/>
@@ -10722,23 +10725,23 @@
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="48" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F63" s="46"/>
       <c r="G63" s="29" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H63" s="29">
         <v>1</v>
       </c>
       <c r="I63" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="31"/>
@@ -10755,17 +10758,17 @@
         <v>93</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="29" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H64" s="29">
         <v>1</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J64" s="29"/>
       <c r="K64" s="31"/>
@@ -10779,10 +10782,10 @@
       <c r="B65" s="26"/>
       <c r="C65" s="43"/>
       <c r="D65" s="29" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F65" s="46"/>
       <c r="G65" s="29"/>
@@ -10790,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="60" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="31"/>
@@ -10804,7 +10807,7 @@
       <c r="B66" s="26"/>
       <c r="C66" s="43"/>
       <c r="D66" s="29" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E66" s="67"/>
       <c r="F66" s="46"/>
@@ -10813,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="60" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="31"/>
@@ -10827,7 +10830,7 @@
       <c r="B67" s="26"/>
       <c r="C67" s="43"/>
       <c r="D67" s="29" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="46"/>
@@ -10836,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="60" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="31"/>
@@ -10850,14 +10853,14 @@
       <c r="B68" s="26"/>
       <c r="C68" s="43"/>
       <c r="D68" s="29" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="46"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="31"/>
@@ -10871,14 +10874,14 @@
       <c r="B69" s="26"/>
       <c r="C69" s="43"/>
       <c r="D69" s="29" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="46"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="31"/>
@@ -10892,14 +10895,14 @@
       <c r="B70" s="26"/>
       <c r="C70" s="43"/>
       <c r="D70" s="29" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="46"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="31"/>
@@ -10913,14 +10916,14 @@
       <c r="B71" s="26"/>
       <c r="C71" s="43"/>
       <c r="D71" s="29" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="46"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="31"/>
@@ -10934,14 +10937,14 @@
       <c r="B72" s="26"/>
       <c r="C72" s="43"/>
       <c r="D72" s="29" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="46"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="31"/>
@@ -10955,14 +10958,14 @@
       <c r="B73" s="26"/>
       <c r="C73" s="43"/>
       <c r="D73" s="29" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="46"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="31"/>
@@ -10976,14 +10979,14 @@
       <c r="B74" s="26"/>
       <c r="C74" s="43"/>
       <c r="D74" s="29" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="46"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J74" s="29"/>
       <c r="K74" s="31"/>
@@ -10997,14 +11000,14 @@
       <c r="B75" s="26"/>
       <c r="C75" s="43"/>
       <c r="D75" s="29" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="46"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J75" s="29"/>
       <c r="K75" s="31"/>
@@ -11018,14 +11021,14 @@
       <c r="B76" s="26"/>
       <c r="C76" s="43"/>
       <c r="D76" s="29" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="46"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="31"/>
@@ -11039,14 +11042,14 @@
       <c r="B77" s="26"/>
       <c r="C77" s="43"/>
       <c r="D77" s="29" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="46"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="31"/>
@@ -11060,14 +11063,14 @@
       <c r="B78" s="26"/>
       <c r="C78" s="43"/>
       <c r="D78" s="29" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="46"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="31"/>
@@ -11081,14 +11084,14 @@
       <c r="B79" s="26"/>
       <c r="C79" s="43"/>
       <c r="D79" s="29" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="46"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J79" s="29"/>
       <c r="K79" s="31"/>
@@ -11102,14 +11105,14 @@
       <c r="B80" s="26"/>
       <c r="C80" s="43"/>
       <c r="D80" s="29" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="46"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J80" s="29"/>
       <c r="K80" s="31"/>
@@ -11123,14 +11126,14 @@
       <c r="B81" s="26"/>
       <c r="C81" s="43"/>
       <c r="D81" s="29" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="46"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="31"/>
@@ -11144,14 +11147,14 @@
       <c r="B82" s="26"/>
       <c r="C82" s="43"/>
       <c r="D82" s="29" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="46"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="60" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="31"/>
@@ -11165,7 +11168,7 @@
       <c r="B83" s="26"/>
       <c r="C83" s="43"/>
       <c r="D83" s="29" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="46"/>
@@ -11174,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="60" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="31"/>
@@ -12669,8 +12672,8 @@
   <sheetPr/>
   <dimension ref="A1:M389"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13719,2294 +13722,2297 @@
       <c r="G38" t="s">
         <v>466</v>
       </c>
+      <c r="H38" t="s">
+        <v>467</v>
+      </c>
       <c r="J38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B39" t="s">
         <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G39" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L40" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H41" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C43" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E43" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G43" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L43" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C44" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J44" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G45" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J45" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L45" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C46" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E46" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G46" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J46" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L46" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C47" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E47" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L47" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E48" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G48" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E49" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G49" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J49" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L49" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E50" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G50" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J50" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C51" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E51" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G51" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K51" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L51" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C52" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E52" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J52" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L52" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E53" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G53" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J53" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L53" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C54" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E54" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G54" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J54" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L54" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C55" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G55" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J55" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L55" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E56" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G56" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J56" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C57" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E57" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G57" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J57" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L57" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C58" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E58" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G58" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J58" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L58" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E59" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G59" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J59" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L59" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E60" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G60" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J60" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L60" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E61" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G61" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H61" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J61" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L61" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C62" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E62" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G62" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J62" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L62" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C63" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E63" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G63" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H63" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J63" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L63" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C64" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E64" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G64" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J64" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L64" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C65" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E65" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G65" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H65" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J65" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L65" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C66" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E66" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G66" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J66" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L66" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C67" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E67" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G67" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H67" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J67" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L67" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J68" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E69" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G69" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H69" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J69" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L69" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C70" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E70" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G70" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J70" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L70" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C71" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E71" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G71" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H71" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J71" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L71" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C72" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E72" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G72" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J72" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L72" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C73" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E73" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G73" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H73" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J73" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L73" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C74" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E74" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G74" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J74" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L74" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C75" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E75" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G75" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H75" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J75" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L75" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C76" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E76" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G76" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J76" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L76" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C77" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E77" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G77" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H77" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J77" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L77" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C78" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E78" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G78" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J78" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L78" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E79" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G79" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H79" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J79" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L79" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E80" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G80" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J80" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C81" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E81" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G81" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H81" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J81" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L81" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C82" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E82" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G82" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J82" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L82" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C83" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E83" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G83" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H83" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J83" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L83" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C84" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E84" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G84" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J84" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L84" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C85" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E85" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G85" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H85" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J85" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L85" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C86" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E86" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G86" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J86" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L86" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C87" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E87" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G87" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H87" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J87" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L87" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C88" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E88" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G88" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J88" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L88" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C89" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E89" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G89" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H89" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J89" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L89" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C90" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E90" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G90" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J90" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L90" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C91" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E91" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G91" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H91" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J91" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L91" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C92" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E92" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G92" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J92" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L92" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C93" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E93" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G93" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H93" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J93" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L93" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C94" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E94" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G94" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J94" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L94" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C95" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E95" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G95" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H95" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J95" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L95" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C96" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E96" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G96" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J96" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L96" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C97" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E97" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G97" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H97" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J97" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L97" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C98" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E98" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G98" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J98" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L98" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C99" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E99" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G99" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H99" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J99" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="L99" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C100" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E100" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G100" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J100" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L100" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B101" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C101" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E101" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G101" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H101" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J101" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L101" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B102" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C102" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G102" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B103" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C103" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G103" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H103" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B104" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C104" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G104" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B105" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G105" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H105" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B106" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C106" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G106" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B107" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C107" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G107" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H107" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B108" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C108" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G108" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B109" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C109" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G109" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H109" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B110" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C110" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G110" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B111" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C111" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G111" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H111" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B112" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C112" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G112" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B113" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C113" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G113" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H113" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B114" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C114" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G114" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B115" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C115" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G115" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H115" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B116" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C116" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G116" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B117" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C117" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G117" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H117" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B118" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C118" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G118" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B119" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C119" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G119" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H119" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B120" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C120" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G120" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B121" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C121" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G121" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H121" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B122" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C122" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G122" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B123" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C123" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G123" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H123" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B124" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C124" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G124" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B125" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C125" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G125" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H125" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B126" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C126" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G126" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B127" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C127" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G127" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H127" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B128" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C128" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G128" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B129" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C129" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G129" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H129" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B130" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C130" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B131" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C131" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G131" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H131" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B132" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C132" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G132" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B133" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C133" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G133" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H133" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B134" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C134" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G134" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B135" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C135" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G135" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H135" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B136" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C136" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G136" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B137" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C137" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G137" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H137" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B138" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C138" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="G138" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B139" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C139" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G139" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H139" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C140" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G140" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B141" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C141" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G141" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H141" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B142" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C142" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G142" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B143" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C143" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G143" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H143" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C144" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G144" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C145" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G145" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H145" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C146" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G146" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C147" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G147" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H147" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C148" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G148" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C149" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G149" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H149" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C150" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G150" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C151" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G151" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H151" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C152" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G152" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C153" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G153" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H153" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C154" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G154" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C155" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G155" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H155" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C156" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="G156" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C157" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G157" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H157" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C158" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G158" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C159" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G159" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H159" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C160" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G160" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C161" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G161" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H161" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C162" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G162" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C163" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G163" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H163" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C164" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G164" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C165" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G165" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H165" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C166" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G166" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C167" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G167" s="69" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H167" s="80" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I167" s="69">
         <v>73.57</v>
@@ -16014,29 +16020,29 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C168" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G168" s="69" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H168" s="69"/>
       <c r="I168" s="69"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C169" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G169" s="69" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H169" s="80" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I169" s="69">
         <v>80.21</v>
@@ -16044,29 +16050,29 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C170" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G170" s="69" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H170" s="69"/>
       <c r="I170" s="69"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C171" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G171" s="69" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H171" s="80" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="I171" s="69">
         <v>32.5</v>
@@ -16074,29 +16080,29 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C172" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G172" s="69" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H172" s="69"/>
       <c r="I172" s="69"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C173" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G173" s="69" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="I173" s="69">
         <v>39.53</v>
@@ -16104,1843 +16110,1843 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C174" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G174" s="69" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H174" s="69"/>
       <c r="I174" s="69"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C175" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G175" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C176" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G176" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C177" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G177" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H177" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C178" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G178" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C179" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G179" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H179" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C180" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G180" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C181" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G181" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H181" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C182" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G182" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C183" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G183" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H183" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C184" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G184" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C185" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G185" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H185" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C186" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G186" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C187" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G187" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H187" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C188" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G188" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C189" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G189" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H189" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C190" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G190" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C191" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G191" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H191" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C192" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G192" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C193" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G193" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H193" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C194" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G194" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C195" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G195" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H195" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C196" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G196" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C197" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G197" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H197" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C198" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G198" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C199" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G199" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H199" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C200" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G200" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C201" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G201" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H201" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C202" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G202" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C203" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="G203" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H203" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C204" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G204" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C205" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G205" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C206" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G206" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C207" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G207" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C208" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G208" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C209" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G209" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C210" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G210" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C211" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G211" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C212" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G212" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C213" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G213" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C214" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G214" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C215" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G215" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C216" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G216" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C217" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G217" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C218" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G218" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C219" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G219" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C220" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G220" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C221" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G221" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C222" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G222" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C223" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G223" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C224" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G224" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C225" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G225" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C226" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G226" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C227" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G227" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C228" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G228" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C229" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G229" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C230" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G230" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C231" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G231" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C232" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G232" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C233" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G233" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C234" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G234" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C235" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G235" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C236" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G236" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C237" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G237" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C238" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G238" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C239" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G239" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C240" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G240" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C241" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G241" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C242" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G242" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C243" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G243" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C244" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G244" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C245" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G245" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C246" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G246" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C247" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G247" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C248" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G248" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C249" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G249" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C250" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G250" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C251" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G251" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C252" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G252" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C253" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G253" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C254" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G254" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C255" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G255" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C256" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G256" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C257" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G257" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C258" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G258" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C259" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G259" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C260" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G260" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C261" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G261" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C262" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G262" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C263" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G263" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C264" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G264" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C265" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G265" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C266" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G266" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C267" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G267" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C268" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G268" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C269" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G269" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C270" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="G270" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C271" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="G271" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C272" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G272" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C273" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G273" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C274" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G274" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C275" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G275" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C276" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G276" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C277" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G277" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C278" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G278" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C279" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G279" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C280" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G280" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C281" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G281" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C282" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G282" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C283" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G283" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C284" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G284" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C285" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G285" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="G286" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="G287" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G288" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G289" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="G290" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G291" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G292" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G293" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G294" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G295" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G296" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G297" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G298" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="G299" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="G300" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="301" spans="7:7">
       <c r="G301" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="302" spans="7:7">
       <c r="G302" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="303" spans="7:7">
       <c r="G303" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="304" spans="7:7">
       <c r="G304" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="305" spans="7:7">
       <c r="G305" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="306" spans="7:7">
       <c r="G306" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="307" spans="7:7">
       <c r="G307" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="308" spans="7:7">
       <c r="G308" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="309" spans="7:7">
       <c r="G309" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="310" spans="7:7">
       <c r="G310" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="311" spans="7:7">
       <c r="G311" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="312" spans="7:7">
       <c r="G312" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="313" spans="7:7">
       <c r="G313" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="314" spans="7:7">
       <c r="G314" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="315" spans="7:7">
       <c r="G315" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="316" spans="7:7">
       <c r="G316" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="317" spans="7:7">
       <c r="G317" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="318" spans="7:7">
       <c r="G318" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="319" spans="7:7">
       <c r="G319" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="320" spans="7:7">
       <c r="G320" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="321" spans="7:7">
       <c r="G321" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="322" spans="7:7">
       <c r="G322" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="323" spans="7:7">
       <c r="G323" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="324" spans="7:7">
       <c r="G324" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="325" spans="7:7">
       <c r="G325" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="326" spans="7:7">
       <c r="G326" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="327" spans="7:7">
       <c r="G327" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="328" spans="7:7">
       <c r="G328" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="329" spans="7:7">
       <c r="G329" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="330" spans="7:7">
       <c r="G330" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="331" spans="7:7">
       <c r="G331" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="332" spans="7:7">
       <c r="G332" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="333" spans="7:7">
       <c r="G333" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="334" spans="7:7">
       <c r="G334" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="335" spans="7:7">
       <c r="G335" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="336" spans="7:7">
       <c r="G336" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="337" spans="7:7">
       <c r="G337" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="338" spans="7:7">
       <c r="G338" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="339" spans="7:7">
       <c r="G339" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="340" spans="7:7">
       <c r="G340" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="341" spans="7:7">
       <c r="G341" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="342" spans="7:7">
       <c r="G342" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="343" spans="7:7">
       <c r="G343" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="344" spans="7:7">
       <c r="G344" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="345" spans="7:7">
       <c r="G345" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="346" spans="7:7">
       <c r="G346" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="347" spans="7:7">
       <c r="G347" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="348" spans="7:7">
       <c r="G348" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="349" spans="7:7">
       <c r="G349" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="350" spans="7:7">
       <c r="G350" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="351" spans="7:7">
       <c r="G351" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="352" spans="7:7">
       <c r="G352" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="353" spans="7:7">
       <c r="G353" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="354" spans="7:7">
       <c r="G354" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="355" spans="7:7">
       <c r="G355" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="356" spans="7:7">
       <c r="G356" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="357" spans="7:7">
       <c r="G357" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="358" spans="7:7">
       <c r="G358" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="359" spans="7:7">
       <c r="G359" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="360" spans="7:7">
       <c r="G360" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="361" spans="7:7">
       <c r="G361" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="362" spans="7:7">
       <c r="G362" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="363" spans="7:7">
       <c r="G363" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="364" spans="7:7">
       <c r="G364" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="365" spans="7:7">
       <c r="G365" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="366" spans="7:7">
       <c r="G366" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="367" spans="7:7">
       <c r="G367" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="368" spans="7:7">
       <c r="G368" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="369" spans="7:7">
       <c r="G369" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="370" spans="7:7">
       <c r="G370" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="371" spans="7:7">
       <c r="G371" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="372" spans="7:7">
       <c r="G372" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="373" spans="7:7">
       <c r="G373" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="374" spans="7:7">
       <c r="G374" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="375" spans="7:7">
       <c r="G375" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="376" spans="7:7">
       <c r="G376" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="377" spans="7:7">
       <c r="G377" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="378" spans="7:7">
       <c r="G378" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="379" spans="7:7">
       <c r="G379" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="380" spans="7:7">
       <c r="G380" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="381" spans="7:7">
       <c r="G381" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="382" spans="7:7">
       <c r="G382" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="383" spans="7:7">
       <c r="G383" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="384" spans="7:7">
       <c r="G384" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="385" spans="7:7">
       <c r="G385" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="386" spans="7:7">
       <c r="G386" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="387" spans="7:7">
       <c r="G387" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="388" spans="7:7">
       <c r="G388" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="389" spans="7:7">
       <c r="G389" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
   </sheetData>
@@ -17984,19 +17990,19 @@
   <sheetData>
     <row r="28" spans="1:5">
       <c r="A28" s="73" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D28" s="73" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -18004,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C29" s="73">
         <v>1</v>
@@ -18017,16 +18023,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C30" s="73">
         <v>11</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -18034,7 +18040,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C31" s="73">
         <v>26</v>
@@ -18047,16 +18053,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C32" s="73">
         <v>31</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -18064,16 +18070,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C33" s="73">
         <v>32</v>
       </c>
       <c r="D33" s="73" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -18081,16 +18087,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C34" s="73">
         <v>49</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E34" s="73" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -18128,36 +18134,36 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="69" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D1" s="74" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H1" s="69" t="s">
         <v>1652</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>1651</v>
       </c>
       <c r="I1" s="73" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="69"/>
       <c r="M1" s="69" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -18168,10 +18174,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E2" s="69"/>
       <c r="F2" s="76" t="s">
@@ -18184,10 +18190,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="K2" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="L2" s="69"/>
       <c r="M2" s="79" t="s">
@@ -18200,13 +18206,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D3" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="F3" s="76"/>
       <c r="H3" s="75"/>
@@ -18214,7 +18220,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="K3" s="69" t="s">
         <v>138</v>
@@ -18230,13 +18236,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="F4" s="76"/>
       <c r="H4" s="75"/>
@@ -18244,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="K4" s="69" t="s">
         <v>140</v>
@@ -18260,7 +18266,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>27</v>
@@ -18274,7 +18280,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K5" s="69" t="s">
         <v>142</v>
@@ -18290,7 +18296,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>30</v>
@@ -18304,7 +18310,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K6" s="69" t="s">
         <v>144</v>
@@ -18320,7 +18326,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>33</v>
@@ -18334,7 +18340,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="K7" s="77" t="s">
         <v>45</v>
@@ -18350,7 +18356,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D8" s="77" t="s">
         <v>36</v>
@@ -18364,7 +18370,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="K8" s="77" t="s">
         <v>94</v>
@@ -18380,7 +18386,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>79</v>
@@ -18394,7 +18400,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="K9" s="77" t="s">
         <v>96</v>
@@ -18410,7 +18416,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>101</v>
@@ -18424,7 +18430,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K10" s="77"/>
       <c r="L10" s="77"/>
@@ -18436,10 +18442,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="76"/>
@@ -18448,10 +18454,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="K11" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="L11" s="77"/>
       <c r="M11" s="76"/>
@@ -18464,14 +18470,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E13" s="69"/>
       <c r="F13" s="79" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H13" s="75">
         <v>5</v>
@@ -18480,10 +18486,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="L13" s="69"/>
       <c r="M13" s="79" t="s">
@@ -18496,7 +18502,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D14" s="77" t="s">
         <v>84</v>
@@ -18510,7 +18516,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="K14" s="77" t="s">
         <v>52</v>
@@ -18526,13 +18532,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="F15" s="76"/>
       <c r="H15" s="75"/>
@@ -18540,7 +18546,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="K15" s="77" t="s">
         <v>98</v>
@@ -18556,13 +18562,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="F16" s="76"/>
       <c r="H16" s="75"/>
@@ -18570,7 +18576,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K16" s="69" t="s">
         <v>146</v>
@@ -18586,7 +18592,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>69</v>
@@ -18600,7 +18606,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K17" s="69" t="s">
         <v>148</v>
@@ -18616,7 +18622,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D18" s="77" t="s">
         <v>74</v>
@@ -18630,7 +18636,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="K18" s="77"/>
       <c r="L18" s="77"/>
@@ -18642,7 +18648,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D19" s="77" t="s">
         <v>92</v>
@@ -18656,7 +18662,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="K19" s="77"/>
       <c r="L19" s="77"/>
@@ -18668,13 +18674,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F20" s="76"/>
       <c r="H20" s="75"/>
@@ -18682,7 +18688,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
@@ -18694,13 +18700,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F21" s="76"/>
       <c r="H21" s="75"/>
@@ -18708,7 +18714,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K21" s="77"/>
       <c r="L21" s="77"/>
@@ -18720,10 +18726,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E22" s="77"/>
       <c r="F22" s="76"/>
@@ -18732,10 +18738,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="K22" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="L22" s="77"/>
       <c r="M22" s="76"/>
@@ -18748,10 +18754,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E24" s="69"/>
       <c r="F24" s="79" t="s">
@@ -18764,10 +18770,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="K24" s="69" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="L24" s="69"/>
       <c r="M24" s="79" t="s">
@@ -18780,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D25" s="77" t="s">
         <v>39</v>
@@ -18794,13 +18800,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="K25" s="77" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="L25" s="77" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="M25" s="76"/>
     </row>
@@ -18810,7 +18816,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D26" s="77" t="s">
         <v>42</v>
@@ -18824,13 +18830,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="78" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="K26" s="77" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="L26" s="77" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="M26" s="76"/>
     </row>
@@ -18840,13 +18846,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F27" s="76"/>
       <c r="H27" s="75"/>
@@ -18854,13 +18860,13 @@
         <v>4</v>
       </c>
       <c r="J27" s="78" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K27" s="77" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="L27" s="77" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="M27" s="76"/>
     </row>
@@ -18870,13 +18876,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D28" s="77" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E28" s="77" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F28" s="76"/>
       <c r="H28" s="75"/>
@@ -18884,13 +18890,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="78" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K28" s="77" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="L28" s="77" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="M28" s="76"/>
     </row>
@@ -18900,7 +18906,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D29" s="77" t="s">
         <v>58</v>
@@ -18914,7 +18920,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="78" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
@@ -18926,7 +18932,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D30" s="77" t="s">
         <v>64</v>
@@ -18940,7 +18946,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
@@ -18952,7 +18958,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D31" s="77"/>
       <c r="E31" s="77"/>
@@ -18962,7 +18968,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="78" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
@@ -18974,7 +18980,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D32" s="77"/>
       <c r="E32" s="77"/>
@@ -18984,7 +18990,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="78" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K32" s="77"/>
       <c r="L32" s="77"/>
@@ -18996,10 +19002,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E33" s="77"/>
       <c r="F33" s="76"/>
@@ -19008,10 +19014,10 @@
         <v>10</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="K33" s="69" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="L33" s="77"/>
       <c r="M33" s="76"/>
@@ -19042,26 +19048,26 @@
   <sheetPr/>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -19069,7 +19075,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -19081,7 +19087,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B4">
         <v>360</v>
@@ -19151,13 +19157,13 @@
     <row r="26" spans="1:13">
       <c r="A26" s="71"/>
       <c r="M26" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="71"/>
       <c r="K27" s="72" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="L27">
         <v>271</v>
@@ -19166,7 +19172,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="71"/>
       <c r="K28" s="72" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="L28">
         <v>1</v>
